--- a/www/LENS_INDICATORS_DB_v11062025.xlsx
+++ b/www/LENS_INDICATORS_DB_v11062025.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Credit</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Credit</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Credit</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Credit</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Savings, Credit</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Savings, Credit</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Pensions, Investments</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Pensions, Investments</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Savings, Credit</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Savings, Credit, Insurance, Pensions</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Insurance</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -12699,7 +12699,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Several/other</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">

--- a/www/LENS_INDICATORS_DB_v11062025.xlsx
+++ b/www/LENS_INDICATORS_DB_v11062025.xlsx
@@ -5580,7 +5580,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Suitability/Soundness</t>
+          <t>Suitability, Soundness</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Financial inclusion</t>
+          <t>Financial inclusion, Market development</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Quality, Suitability</t>
+          <t>Quality, Suitability, Depositor protection</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Quality, Suitability</t>
+          <t>Quality, Suitability, Depositor protection</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Reputational and legal risk</t>
+          <t>Outcomes, Reputational and legal risk</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Outcomes</t>
+          <t>Outcomes, Reputational and legal risk</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Quality, Fair treatment, Soundness and Stability</t>
+          <t>Quality, Fair treatment, Soundness, Stability</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Quality, Suitability, Credit risk and Stability</t>
+          <t>Quality, Suitability, Credit risk, Stability</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -11671,7 +11671,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Outcomes, Suitability, Credit risk and solvency, Stability</t>
+          <t>Outcomes, Suitability, Credit risk, Solvency, Stability</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Quality, Data privacy and protection and Safety and security</t>
+          <t>Quality, Data privacy and protection, Safety and security</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">

--- a/www/LENS_INDICATORS_DB_v11062025.xlsx
+++ b/www/LENS_INDICATORS_DB_v11062025.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,7 +727,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Consumer protection, Market development</t>
+          <t>Consumer protection; Market development</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Consumer protection, Market development</t>
+          <t>Consumer protection; Market development</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Other, Consumer protection</t>
+          <t>Other; Consumer protection</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Impact</t>
+          <t>Statistics and research, Impact</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3472,12 +3472,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Other, Consumer protection</t>
+          <t>Other; Consumer protection</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Impact</t>
+          <t>Statistics and research, Impact</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Consumer protection, Financial inclusion</t>
+          <t>Consumer protection; Financial inclusion</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Consumer protection, Market development</t>
+          <t>Consumer protection; Market development</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Other, Consumer protection</t>
+          <t>Other; Consumer protection</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Suitability</t>
+          <t>Statistics and research, Suitability</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Other, Consumer protection</t>
+          <t>Other; Consumer protection</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Quality</t>
+          <t>Statistics and research, Quality</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Statistics &amp; research</t>
+          <t>Statistics and research</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Financial inclusion, Market development</t>
+          <t>Financial inclusion; Market development</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8263,7 +8263,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -8450,7 +8450,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9257,7 +9257,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Financial inclusion, Market development</t>
+          <t>Financial inclusion; Market development</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Financial inclusion, Other</t>
+          <t>Financial inclusion; Other</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Uptake (account ownership), Statistics &amp; research</t>
+          <t>Uptake (account ownership), Statistics and research</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -9418,12 +9418,12 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Financial inclusion, Other</t>
+          <t>Financial inclusion; Other</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Usage, Statistics &amp; research</t>
+          <t>Usage, Statistics and research</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Financial inclusion, Statistics &amp; research</t>
+          <t>Financial inclusion; Statistics &amp; research</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Consumer protection, Prudential supervision</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Financial inclusion, Prudential supervision</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -10182,7 +10182,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10301,12 +10301,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Other, Prudential supervision</t>
+          <t>Other; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Credit risk, Stability</t>
+          <t>Statistics and research, Credit risk, Stability</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -10472,12 +10472,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Financial inclusion, Other, Prudential supervision</t>
+          <t>Financial inclusion; Other; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Uptake, Statistics &amp; research, Impact</t>
+          <t>Uptake, Statistics and research, Impact</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -10653,12 +10653,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Financial inclusion, Other</t>
+          <t>Financial inclusion; Other</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Usage, Statistics &amp; research</t>
+          <t>Usage, Statistics and research</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -10710,12 +10710,12 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Other, Market development</t>
+          <t>Other; Market development</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Sustainability</t>
+          <t>Statistics and research, Sustainability</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -10767,12 +10767,12 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Financial inclusion, Other, Market development</t>
+          <t>Financial inclusion; Other; Market development</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Usage, Statistics &amp; research, Sustainability</t>
+          <t>Usage, Statistics and research, Sustainability</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision, Market development</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision, Market development</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision, Market development</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision, Market development</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
@@ -11091,12 +11091,12 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Other, Prudential supervision</t>
+          <t>Other; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Statistics &amp; research,  Stability</t>
+          <t>Statistics and research,  Stability</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -11155,7 +11155,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -11207,7 +11207,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -11259,7 +11259,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -11321,7 +11321,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -11383,7 +11383,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -11428,12 +11428,12 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Quality, Suitability, Credit risk, Stability</t>
+          <t>Quality, Suitability, Stability</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -11445,7 +11445,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -11490,7 +11490,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -11507,7 +11507,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -11547,7 +11547,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -11564,12 +11564,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Credit risk, Solvency</t>
+          <t>Credit risk, Soundness</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -11621,12 +11621,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Credit risk, Solvency, Soundness</t>
+          <t>Credit risk, Soundness</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -11666,12 +11666,12 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Outcomes, Suitability, Credit risk, Solvency, Stability</t>
+          <t>Outcomes, Suitability, Credit risk, Soundness, Stability</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -11683,7 +11683,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -11730,7 +11730,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -11740,27 +11740,27 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Payments, Savings, Insurance</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Liquid asset ratio</t>
+          <t>Liquidity ratio</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Liquid asset as a % of total assets</t>
+          <t>Liquidity ratio</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Shows the share of highly liquid, unencumbered assets (cash, central-bank reserves) in relation to total assets or short-term liabilities. It’s a basic barometer of an entity's ability to meet immediate cash needs. !- Definitions and concepts: Must align with applicable internationl standards and local regulations. Some jurisdictions use Liquid assets ÷ Short-term liabilities (≤ 30 days).</t>
+          <t>The liquidity ratio tests whether an entity holds enough high quality liquid assets to survive a 30-day stress scenario. !- Definitions and concepts: definition of liquidity ratios can vary across countries. The Basel Committee has provided definitions for the Liquidity Coverage Ratio and the Net Stable Funding, but many countries use simpler liquidity ratio definitions.</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -11777,42 +11777,52 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Liquidity risk</t>
+          <t>Market risk</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Investments</t>
+          <t>Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Liquidity ratio</t>
+          <t>Value at Risk (VaR)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Liquidity ratio</t>
+          <t>Exposure to market risk (value volatility in the trading book)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>The liquidity ratio tests whether an entity holds enough high quality liquid assets to survive a 30-day stress scenario. !- Definitions and concepts: definition of liquidity ratios can vary across countries. The Basel Committee has provided definitions for the Liquidity Coverage Ratio and the Net Stable Funding, but many countries use simpler liquidity ratio definitions.</t>
+          <t>VaR estimates the maximum potential trading-book loss over a specified horizon at a given confidence level (e.g., one-day 99%). It informs market risk limits and capital requirements for market risk. !- Definitions and concepts: market risk definition and standardized calculations vary across jurisdictions. Standards are provided by international standard setting bodies such as the Basel Committee.</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>How are FSP gender diversity and the gender composition of the customer base correlated with liquidity risk?</t>
+          <t>Is there a correlation between higher levels of gender diversity in FSPs and lower risk levels?</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>Statistics and research</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -11824,64 +11834,64 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Market risk</t>
+          <t>Operational risk</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Insurance, Pensions, Investments</t>
+          <t>Payments, Savings</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Value at Risk (VaR)</t>
+          <t>Balance of suspense accounts</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Exposure to market risk (value volatility in the trading book)</t>
+          <t>Value of balances of suspense accounts</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>VaR estimates the maximum potential trading-book loss over a specified horizon at a given confidence level (e.g., one-day 99%). It informs market risk limits and capital requirements for market risk. !- Definitions and concepts: market risk definition and standardized calculations vary across jurisdictions. Standards are provided by international standard setting bodies such as the Basel Committee.</t>
+          <t>Suspense accounts are temporary holding ledgers used when a transaction cannot be posted to its final customer account because critical details are missing or disputed or due to any technical issues. The balance of suspense accounts aggregates the outstanding debit or credit amounts awaiting resolution. Persistently high or growing balances signal weaknesses in reconciliation, client on-boarding, Know-Your-Customer (KYC) data quality, payment-processing controls, or even internal fraud. Ageing buckets: some regulators require ageing of reported balances (0-30, 31-90, 91-180, &gt;180 days) to identify balances that exceed tolerance windows. !- Limitations and considerations: Accounting practices vary: some institutions clear items by moving them to internal “parking” accounts that may not be labelled suspense, understating the indicator. Standardization is needed to ensure reporting of balances in similar accounts that are not labelled "suspense accounts". Regulatory treatment: in certain jurisdictions, long-dated unresolved credits are treated as unclaimed funds.</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Is there a correlation between higher levels of gender diversity in FSPs and lower risk levels?</t>
+          <t>Are there gender disparities in the average amount of funds in suspense accounts, including for low-income customers and MSMEs based on the ownership gender? Are there gender disparities in the distribution of low-income customers with suspense accounts (and for which types of accounts?) compared to the whole customer base? Comparing this indicator with failed transactions and customer losses (if available), are there gender disparities in financial losses after funds remain in suspense or temporary accounts, which could indicate potential internal frauds? Comparing this indicator with FSP gender diversity, does higher gender diversity correlate with lower amounts in suspense accounts or customer losses after funds are temporarily placed in suspense accounts?</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Statistics &amp; research</t>
+          <t>Usage, Suitability</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11891,37 +11901,37 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Payments, Savings</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Balance of suspense accounts</t>
+          <t>Incomplete/failed transactions</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Value of balances of suspense accounts</t>
+          <t>% of all initiated transactions that are incomplete or failed</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Suspense accounts are temporary holding ledgers used when a transaction cannot be posted to its final customer account because critical details are missing or disputed or due to any technical issues. The balance of suspense accounts aggregates the outstanding debit or credit amounts awaiting resolution. Persistently high or growing balances signal weaknesses in reconciliation, client on-boarding, Know-Your-Customer (KYC) data quality, payment-processing controls, or even internal fraud. Ageing buckets: some regulators require ageing of reported balances (0-30, 31-90, 91-180, &gt;180 days) to identify balances that exceed tolerance windows. !- Limitations and considerations: Accounting practices vary: some institutions clear items by moving them to internal “parking” accounts that may not be labelled suspense, understating the indicator. Standardization is needed to ensure reporting of balances in similar accounts that are not labelled "suspense accounts". Regulatory treatment: in certain jurisdictions, long-dated unresolved credits are treated as unclaimed funds.</t>
+          <t>Measures the percentage of transactions that users initiate but that do not successfully complete as intended. It's a metric for assessing the reliability, usability, and accessibility of a digital financial service. A high rate of incomplete or failed transactions points to a poor user experience, and may lead to financial loss if funds are temporarily held and not returned. A sudden spike in this indicator can be an early warning of technical problems, cybersecurity attacks, or capacity issues. Incomplete transactions: transactions that are started by the user but are never fully processed to a conclusion. They are often "timed out" or abandoned. Failed transactions: transactions that are fully processed by the system but are ultimately rejected. The system actively returns an error message confirming the failure.</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the average amount of funds in suspense accounts, including for low-income customers and MSMEs based on the ownership gender? Are there gender disparities in the distribution of low-income customers with suspense accounts (and for which types of accounts?) compared to the whole customer base? Comparing this indicator with failed transactions and customer losses (if available), are there gender disparities in financial losses after funds remain in suspense or temporary accounts, which could indicate potential internal frauds? Comparing this indicator with FSP gender diversity, does higher gender diversity correlate with lower amounts in suspense accounts or customer losses after funds are temporarily placed in suspense accounts?</t>
+          <t>Do incomplete/failed transactions impact different genders differently, including low-income customers and MSMEs based on the ownership gender? Comparing this indicator with the amount of losses suffered by customers (if available), are there gender disparities in financial losses due to failed transactions? How does this indicator compare with indicators on values maintained in suspense accounts and their variation by gender? Do different types of FSPs and accounts perform differently across the gender in terms of failed transactions? Comparing this indicator with gender diversity, does higher gender diversity correlate with a lower prevalence of failed transactions?</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -11931,14 +11941,14 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Transaction type</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11953,96 +11963,96 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Incomplete/failed transactions</t>
+          <t>Operational disruption incidents</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>% of all initiated transactions that are incomplete or failed</t>
+          <t>Number of operational disruption incidents</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
-        <is>
-          <t>Measures the percentage of transactions that users initiate but that do not successfully complete as intended. It's a metric for assessing the reliability, usability, and accessibility of a digital financial service. A high rate of incomplete or failed transactions points to a poor user experience, and may lead to financial loss if funds are temporarily held and not returned. A sudden spike in this indicator can be an early warning of technical problems, cybersecurity attacks, or capacity issues. Incomplete transactions: transactions that are started by the user but are never fully processed to a conclusion. They are often "timed out" or abandoned. Failed transactions: transactions that are fully processed by the system but are ultimately rejected. The system actively returns an error message confirming the failure.</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Do incomplete/failed transactions impact different genders differently, including low-income customers and MSMEs based on the ownership gender? Comparing this indicator with the amount of losses suffered by customers (if available), are there gender disparities in financial losses due to failed transactions? How does this indicator compare with indicators on values maintained in suspense accounts and their variation by gender? Do different types of FSPs and accounts perform differently across the gender in terms of failed transactions? Comparing this indicator with gender diversity, does higher gender diversity correlate with a lower prevalence of failed transactions?</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Financial inclusion, Consumer protection</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>Usage, Suitability</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Transaction type</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Prudential supervision</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Operational risk</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Operational disruption incidents</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Number of operational disruption incidents</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
         <is>
           <t>This indicator counts and classifies events that interrupt an institution’s ability to deliver financial services—whether due to IT failures, cyber-attacks, power outages, third-party breakdowns, or physical events (e.g., fire, pandemic lockdowns). Regulators track both the frequency and severity (e.g., service-unavailable minutes, customers affected, monetary losses) to judge the resilience of regulated services. A rising trend can erode confidence and expose the system to contagion if multiple firms rely on the same outsourced providers or infrastructure.
 !- Definitions and concepts: Operational disruption incident: an unplanned event that prevents or materially degrades the delivery of a critical business service beyond a defined tolerance. Definitions, including of critical services, vary across countries. Standard setting bodies including the Basel Committee provide standardized definitions that can be used. 
 Impact metrics: duration, peak concurrent users affected, transaction backlog, financial loss, data-integrity impact, customer detriment, others. Root-cause categories: hardware/software failure, cyber-intrusion, third-party outage, human error, environmental event, others. !- Limitations and considerations: Firms may fear reputational damage so there is a risk of under-reporting. Heterogeneous critical-service definitions may be used across firm, so regulatory standardization is needed.</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>How are FSP gender diversity and gender composition of customer base correlated with the frequency of operational disruption incidents?</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Quality, Data privacy and protection, Safety and security</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type; Transaction type</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Operational risk</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Successful cyber attacks</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Number of successful cyber attacks</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>A measure of the frequency of cyberattacks on regulated financial institutions over a specified period. !- Definitions and concepts: A cyberattack is any intentional effort to steal, expose, alter, disable, or destroy data, applications, or other assets through unauthorized access to a network, computer system or digital device. Cyberattacks can disrupt and damage businesses and often carry high costs, including the costs of discovering and responding to the violation, downtime and lost revenue, and the long-term reputational damage to a business and its brand. Data requirement: Self-reporting of the number of successful cyberattacks by FSPs or data from other parties that track the incidence and severity of cyberattacks.</t>
+        </is>
+      </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>How are FSP gender diversity and gender composition of customer base correlated with the frequency of operational disruption incidents?</t>
+          <t>Are higher levels of gender diversity at FSPs correlated with the frequency of successful cyber attacks?</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Quality, Data privacy and protection, Safety and security</t>
+          <t>Outcomes, Safety and security</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -12054,69 +12064,69 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Operational risk</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Successful cyber attacks</t>
+          <t>Cost of reinsurance</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Number of successful cyber attacks</t>
+          <t>Premiums ceded to reinsurers as % of gross premium written</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>A measure of the frequency of cyberattacks on regulated financial institutions over a specified period. !- Definitions and concepts: A cyberattack is any intentional effort to steal, expose, alter, disable, or destroy data, applications, or other assets through unauthorized access to a network, computer system or digital device. Cyberattacks can disrupt and damage businesses and often carry high costs, including the costs of discovering and responding to the violation, downtime and lost revenue, and the long-term reputational damage to a business and its brand. Data requirement: Self-reporting of the number of successful cyberattacks by FSPs or data from other parties that track the incidence and severity of cyberattacks.</t>
+          <t>The cost of reinsurance indicator quantifies the price an insurer pays to transfer part of its underwriting risk to reinsurers. Tracked as either an absolute expense or as a ratio—most often Reinsurance premium ceded ÷ Gross premiums written (GPW)—it shows how much earnings capacity the insurer surrenders for balance-sheet protection. Rising costs may stem from hardening global reinsurance markets, high catastrophe exposures, deteriorating loss experience or weakened credit quality of the insurer. Supervisors and rating agencies watch for excessive reliance on expensive reinsurance cover which can compress margins, while under-spending may leave the insurer over-exposed to shocks. Evaluated over time and in tandem with retention ratios, claims ratio and solvency coverage, the cost of reinsurance reveals whether an insurer’s risk transfer strategy is adequate. !- Definitions and concepts: Reinsurance premium ceded: contractual payments (net of commissions) made to reinsurers for proportional (quota-share, surplus) or non-proportional (excess-of-loss, stop-loss) treaties, booked at treaty inception. Net cost of reinsurance: ceded premium minus ceding commission plus profit-commission adjustments and reinstatement premiums. Timing mismatches: Premiums are typically paid up-front, while recoveries occur post-loss, so annual cost ratios can spike in growth years and dip after large events.</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Are higher levels of gender diversity at FSPs correlated with the frequency of successful cyber attacks?</t>
+          <t>How do FSPs’ gender diversity and the gender composition of their customer base correlate with the costs incurred from reinsurance? Are there gendered patterns in how reinsurance expenses impact insurers and their customers?</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Outcomes, Safety and security</t>
+          <t>Quality,Suitability</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type; Transaction type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -12126,37 +12136,37 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cost of reinsurance</t>
+          <t>Insurance claims (loss) ratio</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Premiums ceded to reinsurers as % of gross premium written</t>
+          <t>% of total premium income paid out as claims</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>The cost of reinsurance indicator quantifies the price an insurer pays to transfer part of its underwriting risk to reinsurers. Tracked as either an absolute expense or as a ratio—most often Reinsurance premium ceded ÷ Gross premiums written (GPW)—it shows how much earnings capacity the insurer surrenders for balance-sheet protection. Rising costs may stem from hardening global reinsurance markets, high catastrophe exposures, deteriorating loss experience or weakened credit quality of the insurer. Supervisors and rating agencies watch for excessive reliance on expensive reinsurance cover which can compress margins, while under-spending may leave the insurer over-exposed to shocks. Evaluated over time and in tandem with retention ratios, claims ratio and solvency coverage, the cost of reinsurance reveals whether an insurer’s risk transfer strategy is adequate. !- Definitions and concepts: Reinsurance premium ceded: contractual payments (net of commissions) made to reinsurers for proportional (quota-share, surplus) or non-proportional (excess-of-loss, stop-loss) treaties, booked at treaty inception. Net cost of reinsurance: ceded premium minus ceding commission plus profit-commission adjustments and reinstatement premiums. Timing mismatches: Premiums are typically paid up-front, while recoveries occur post-loss, so annual cost ratios can spike in growth years and dip after large events.</t>
+          <t>The claims paid ratio compares the amount of benefits and claims an insurer actually disburses during a period with the premium income it records for the same portfolio. It answers a basic question for supervisors, policy-holders, and analysts: How much of each premium dollar flows back to customers in the form of claims? Persistently low ratios may flag overly aggressive pricing, onerous exclusions, or servicing bottlenecks, while very high ratios can foreshadow reserve inadequacy, under-pricing, or a spike in catastrophe losses. In combination with the expense ratio, the indicator feeds into the overall loss or combined ratio that underpins solvency and profitability assessments. !- Definitions and concepts: Claims paid: cash actually settled with policy-holders and claimants in the accounting period, including partial payments and salvage recoveries netted where local GAAP allows. It excludes outstanding claims reserves and IBNR, which are captured by “claims incurred.” Gross vs. net basis: gross claims ignore reinsurance recoveries; net claims deduct them, better reflecting the insurer’s retained risk. Segmented ratios (e.g., motor, health, property) pinpoint product-level profitability. !- Data requirements: Extracts from the claims-management system showing paid amounts, dates, line of business, and reinsurance cessions. Premium registers (written or earned, depending on supervisory preference) reconciled to the general ledger. Catastrophe tags, legal-settlement flags, and large-loss registers to isolate one-off distortions. Limitations &amp; considerations: Timing mismatch: annual premiums are often received up-front, whereas claim payments can lag; using earned premiums mitigates, but does not eliminate, this distortion. Claims-handling practices: delayed settlement or dispute escalation depresses the ratio without improving true risk experience. Reinsurance structure: quota-share vs. excess-of-loss treaties change the net ratio dramatically; analysts should review both gross and net perspectives. Regulatory definitions: some jurisdictions fold surrenders of savings-type contracts into claims, inflating comparability. Trend analysis should therefore pair the claims paid ratio with claims-incurred and reserve-adequacy metrics, catastrophe-loss disclosures, and expense dynamics to obtain a holistic view of underwriting performance and solvency resilience.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>How do FSPs’ gender diversity and the gender composition of their customer base correlate with the costs incurred from reinsurance? Are there gendered patterns in how reinsurance expenses impact insurers and their customers?</t>
+          <t>Are there gender disparities in claims ratios for insurance products, including for MSMEs based on the owner's gender? Are excessively low claims ratios correlated with low premiums (a proxy for targeting lower-income segments)? Are women more likely to be targeted by products with low claims ratios, potentially indicating lower-value offerings? Are FSPs with higher levels of gender diversity less likely to have excessively low claims ratios for insurance sold to vulnerable segments, such as women and women-owned MSMEs? When comparing with coverage ratios (amount of claims paid relative to the claim value), how do gender disparities in coverage ratios compare with claims paid?</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Quality,Suitability</t>
+          <t>Usage, Suitability</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -12168,12 +12178,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -12183,37 +12193,37 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Insurance claims (loss) ratio</t>
+          <t>Insurance claims incurred</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>% of total premium income paid out as claims</t>
+          <t>Value of insurance claims incurred by the insurance sector</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>The claims paid ratio compares the amount of benefits and claims an insurer actually disburses during a period with the premium income it records for the same portfolio. It answers a basic question for supervisors, policy-holders, and analysts: How much of each premium dollar flows back to customers in the form of claims? Persistently low ratios may flag overly aggressive pricing, onerous exclusions, or servicing bottlenecks, while very high ratios can foreshadow reserve inadequacy, under-pricing, or a spike in catastrophe losses. In combination with the expense ratio, the indicator feeds into the overall loss or combined ratio that underpins solvency and profitability assessments. !- Definitions and concepts: Claims paid: cash actually settled with policy-holders and claimants in the accounting period, including partial payments and salvage recoveries netted where local GAAP allows. It excludes outstanding claims reserves and IBNR, which are captured by “claims incurred.” Gross vs. net basis: gross claims ignore reinsurance recoveries; net claims deduct them, better reflecting the insurer’s retained risk. Segmented ratios (e.g., motor, health, property) pinpoint product-level profitability. !- Data requirements: Extracts from the claims-management system showing paid amounts, dates, line of business, and reinsurance cessions. Premium registers (written or earned, depending on supervisory preference) reconciled to the general ledger. Catastrophe tags, legal-settlement flags, and large-loss registers to isolate one-off distortions. Limitations &amp; considerations: Timing mismatch: annual premiums are often received up-front, whereas claim payments can lag; using earned premiums mitigates, but does not eliminate, this distortion. Claims-handling practices: delayed settlement or dispute escalation depresses the ratio without improving true risk experience. Reinsurance structure: quota-share vs. excess-of-loss treaties change the net ratio dramatically; analysts should review both gross and net perspectives. Regulatory definitions: some jurisdictions fold surrenders of savings-type contracts into claims, inflating comparability. Trend analysis should therefore pair the claims paid ratio with claims-incurred and reserve-adequacy metrics, catastrophe-loss disclosures, and expense dynamics to obtain a holistic view of underwriting performance and solvency resilience.</t>
+          <t>“Claims incurred” represents the total cost an insurer recognises for claims events during a reporting period, regardless of whether they have been paid yet. Tracking the level and trend of incurred claims helps supervisors monitor the financial health of insurers such as by detecting emerging risk clusters (e.g., climate-driven catastrophes). !- Definitions and concepts: Claims incurred = Claims paid + Change in outstanding claims reserves + Change in IBNR (incurred-but-not-reported) reserves ± Claims-handling expense reserve movements. !- Data requirements: Total claims incurred.  !- Limitations and considerations: Catastrophe volatility: Single severe events cause spikes. Used alongside premium growth, claims-ratio components, and reserve-adequacy studies, “claims incurred” provides a cornerstone view of underwriting performance and balance-sheet resilience.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Are there gender disparities in claims ratios for insurance products, including for MSMEs based on the owner's gender? Are excessively low claims ratios correlated with low premiums (a proxy for targeting lower-income segments)? Are women more likely to be targeted by products with low claims ratios, potentially indicating lower-value offerings? Are FSPs with higher levels of gender diversity less likely to have excessively low claims ratios for insurance sold to vulnerable segments, such as women and women-owned MSMEs? When comparing with coverage ratios (amount of claims paid relative to the claim value), how do gender disparities in coverage ratios compare with claims paid?</t>
+          <t>How has the participation of different genders in incurred insurance claims evolved over time, both for individuals and MSMEs by owner’s gender? Are there gender differences in the types of claims incurred? How does the level of gender diversity within FSPs relate to these patterns?</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Usage, Suitability</t>
+          <t>Quality, Suitability</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -12225,12 +12235,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -12240,32 +12250,33 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Insurance claims incurred</t>
+          <t>Insurance policy renewal (persistency) ratio</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Value of insurance claims incurred by the insurance sector</t>
+          <t>% of all policies up for renewal that are renewed</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>“Claims incurred” represents the total cost an insurer recognises for claims events during a reporting period, regardless of whether they have been paid yet. Tracking the level and trend of incurred claims helps supervisors monitor the financial health of insurers such as by detecting emerging risk clusters (e.g., climate-driven catastrophes). !- Definitions and concepts: Claims incurred = Claims paid + Change in outstanding claims reserves + Change in IBNR (incurred-but-not-reported) reserves ± Claims-handling expense reserve movements. !- Data requirements: Total claims incurred.  !- Limitations and considerations: Catastrophe volatility: Single severe events cause spikes. Used alongside premium growth, claims-ratio components, and reserve-adequacy studies, “claims incurred” provides a cornerstone view of underwriting performance and balance-sheet resilience.</t>
+          <t>The renewal- or persistency-ratio gauges the proportion of in-force insurance policies (or premium) that remain active after a specified period—typically the 13th, 25th, or 61st month following issuance. High persistency signals strong customer satisfaction, effective servicing, and accurate underwriting assumptions; it underpins stable cash-flow projections, lowers acquisition-cost amortisation strain, and enhances embedded value. Conversely, rapid lapses may expose product-design weaknesses or mis-selling. Supervisors review persistency alongside surrender-value payouts and complaint levels to detect conduct risk and solvency concerns. !- Definitions and concepts: Persistency ratio (policy-count basis) = Policies renewed at month t / Policies eligible for renewal at month t
+Premium-weighted persistency uses renewal premium divided by original premium to capture face-amount shifts. Cohort vs. calendar method: Cohort traces a single issue-year block through time; calendar aggregates all cohorts renewing in a given period. !- Limitations and considerations: Measurement horizon: 13-month persistency suits annual-premium life products; short-tailed general-insurance policies need annual or shorter retention ratios. Channel mix: Bancassurance and digital pathways often show different lapse behaviours—segment analysis is essential.</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>How has the participation of different genders in incurred insurance claims evolved over time, both for individuals and MSMEs by owner’s gender? Are there gender differences in the types of claims incurred? How does the level of gender diversity within FSPs relate to these patterns?</t>
+          <t>Are there gender disparities in insurance policy renewal rates, including among MSMEs by owner gender? Do certain policy types have lower renewal rates among specific gender groups? Could these differences signal mismatches between products and customer needs, posing strategic risks for insurers?</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Financial inclusion, Consumer protection</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -12282,12 +12293,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -12297,38 +12308,27 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Insurance policy renewal (persistency) ratio</t>
+          <t>Risk retention ratio (dependency on reinsurance)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>% of all policies up for renewal that are renewed</t>
+          <t>% of gross written premium that is net (as a measure of the level of dependency on reinsurance)</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>The renewal- or persistency-ratio gauges the proportion of in-force insurance policies (or premium) that remain active after a specified period—typically the 13th, 25th, or 61st month following issuance. High persistency signals strong customer satisfaction, effective servicing, and accurate underwriting assumptions; it underpins stable cash-flow projections, lowers acquisition-cost amortisation strain, and enhances embedded value. Conversely, rapid lapses may expose product-design weaknesses or mis-selling. Supervisors review persistency alongside surrender-value payouts and complaint levels to detect conduct risk and solvency concerns. !- Definitions and concepts: Persistency ratio (policy-count basis) = Policies renewed at month t / Policies eligible for renewal at month t
-Premium-weighted persistency uses renewal premium divided by original premium to capture face-amount shifts. Cohort vs. calendar method: Cohort traces a single issue-year block through time; calendar aggregates all cohorts renewing in a given period. !- Limitations and considerations: Measurement horizon: 13-month persistency suits annual-premium life products; short-tailed general-insurance policies need annual or shorter retention ratios. Channel mix: Bancassurance and digital pathways often show different lapse behaviours—segment analysis is essential.</t>
+          <t>Also known as the net retention ratio, this indicator shows the proportion of insurance risk an insurer keeps on its own balance sheet after ceding portions to reinsurers. It is usually expressed as Net premiums written ÷ Gross premiums written. A high ratio signals greater self-reliance (and potentially higher earnings volatility), while a low ratio points to heavy dependence on reinsurance, which may reduce earnings swings but create counter-party risks. Supervisors monitor the metric to ensure that ceded volumes are commensurate with the insurer’s capital strength, product mix, and risk appetite. !- Definitions and concepts: Gross premiums written (GPW): Total premium income before reinsurance ceded. Net premiums written (NPW): GPW minus premiums ceded plus reinsurance recoveries on ceded unearned premiums. !- Data requirements: Line-of-business breakdown of GPW and NPW for the period. Details of outward reinsurance treaties. Counter-party concentration: high concentration risk may offset the benefits of resinsurance.</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Are there gender disparities in insurance policy renewal rates, including among MSMEs by owner gender? Do certain policy types have lower renewal rates among specific gender groups? Could these differences signal mismatches between products and customer needs, posing strategic risks for insurers?</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Financial inclusion, Consumer protection</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>Quality, Suitability</t>
+          <t>What is the relationship between FSP gender diversity, customer gender composition, and the degree of dependency on reinsurance? Are there gender-based patterns in insurers’ risk retention strategies?</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -12340,12 +12340,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -12355,44 +12355,44 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Risk retention ratio (dependency on reinsurance)</t>
+          <t>Technical provisions</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>% of gross written premium that is net (as a measure of the level of dependency on reinsurance)</t>
+          <t>Level of technical provisions to cover actuarial liabilities</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Also known as the net retention ratio, this indicator shows the proportion of insurance risk an insurer keeps on its own balance sheet after ceding portions to reinsurers. It is usually expressed as Net premiums written ÷ Gross premiums written. A high ratio signals greater self-reliance (and potentially higher earnings volatility), while a low ratio points to heavy dependence on reinsurance, which may reduce earnings swings but create counter-party risks. Supervisors monitor the metric to ensure that ceded volumes are commensurate with the insurer’s capital strength, product mix, and risk appetite. !- Definitions and concepts: Gross premiums written (GPW): Total premium income before reinsurance ceded. Net premiums written (NPW): GPW minus premiums ceded plus reinsurance recoveries on ceded unearned premiums. !- Data requirements: Line-of-business breakdown of GPW and NPW for the period. Details of outward reinsurance treaties. Counter-party concentration: high concentration risk may offset the benefits of resinsurance.</t>
+          <t>Technical provisions represent the present-value estimate of all future cash outflows that an insurer expects to incur on written policies, including claims not yet reported (IBNR), claims reported but not settled, and future policyholder benefits. Adequate provisions are the cornerstone of insurance solvency and a key indicator for prudential supervisors. Definitions &amp; concepts: Technical provisions comprise two main blocks: Best-Estimate Liabilities (BEL), the probability-weighted expected value of future cash flows (claims, benefits, expenses) discounted using risk-free or prescribed curves; and Risk Margins, an additional amount reflecting the cost of holding capital to run off the liabilities (Solvency II) or a prudential margin (IFRS 17, LAT).</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>What is the relationship between FSP gender diversity, customer gender composition, and the degree of dependency on reinsurance? Are there gender-based patterns in insurers’ risk retention strategies?</t>
+          <t>Are there gender disparities in the adequacy of technical provisions maintained by FSPs? How do FSPs with higher gender diversity in management and governance compare in maintaining technical provisions that fairly reflect risks associated with serving diverse gender groups? Are provisions sufficiently accounting for potential differences in claims or defaults related to gender segments in the portfolio?</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -12402,121 +12402,121 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Technical provisions</t>
+          <t>Physical risk in the insurance portfolio</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Level of technical provisions to cover actuarial liabilities</t>
+          <t>Exposure of the insurance portfolio to written policies to physical risk related to climate change</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Technical provisions represent the present-value estimate of all future cash outflows that an insurer expects to incur on written policies, including claims not yet reported (IBNR), claims reported but not settled, and future policyholder benefits. Adequate provisions are the cornerstone of insurance solvency and a key indicator for prudential supervisors. Definitions &amp; concepts: Technical provisions comprise two main blocks: Best-Estimate Liabilities (BEL), the probability-weighted expected value of future cash flows (claims, benefits, expenses) discounted using risk-free or prescribed curves; and Risk Margins, an additional amount reflecting the cost of holding capital to run off the liabilities (Solvency II) or a prudential margin (IFRS 17, LAT).</t>
+          <t>Metric used to quantify an insurer's financial exposure to losses caused by the direct physical impacts of climate change. This includes both event-driven acute risks and longer-term chronic risks. This indicator is essential for measuring an insurer's vulnerability to climate-related claims, which can impact its profitability, solvency, and ability to provide affordable coverage. Hence, it is an important metric for prudential supervisors from the perspective of capital adequacy, solvency and risk management. Definitions and concepts of climate-related risks vary across countries. The NGFS provides a range of additional defintions, including nature-related financial risks.</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the adequacy of technical provisions maintained by FSPs? How do FSPs with higher gender diversity in management and governance compare in maintaining technical provisions that fairly reflect risks associated with serving diverse gender groups? Are provisions sufficiently accounting for potential differences in claims or defaults related to gender segments in the portfolio?</t>
+          <t>How do FSP gender diversity and customer gender composition correlate with exposure to climate-related physical risks in insurance portfolios? Are there gender disparities in financial risk exposure due to climate impacts, including among MSMEs by owner gender?</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Physical risk in the insurance portfolio</t>
+          <t>Capital adequacy ratio (CAR)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Exposure of the insurance portfolio to written policies to physical risk related to climate change</t>
+          <t>Total regulatory capital relative as % of risk weighted assets (RWAs)</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Metric used to quantify an insurer's financial exposure to losses caused by the direct physical impacts of climate change. This includes both event-driven acute risks and longer-term chronic risks. This indicator is essential for measuring an insurer's vulnerability to climate-related claims, which can impact its profitability, solvency, and ability to provide affordable coverage. Hence, it is an important metric for prudential supervisors from the perspective of capital adequacy, solvency and risk management. Definitions and concepts of climate-related risks vary across countries. The NGFS provides a range of additional defintions, including nature-related financial risks.</t>
+          <t>Capital Adequacy Rario (CAR) shows the total qualifying capital relative to risk-weighted assets (RWA). It captures the full loss-absorbing cushion. Definitions and concepts of capital tiers to include in the CAR formla are provided by the Basel Capital Accords and adapted in each jurisdiction. !- Data requirements: Full breakdown of regulatory capital components, and total RWA.</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>How do FSP gender diversity and customer gender composition correlate with exposure to climate-related physical risks in insurance portfolios? Are there gender disparities in financial risk exposure due to climate impacts, including among MSMEs by owner gender?</t>
+          <t>How are FSP gender diversity and the gender composition of the customer base correlated with CAR levels?</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Investments</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Capital adequacy ratio (CAR)</t>
+          <t>Tier 1 capital ratio</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Total regulatory capital relative as % of risk weighted assets (RWAs)</t>
+          <t>Tier 1 regulatory capital as % of risk weighted assets (RWAs)</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Capital Adequacy Rario (CAR) shows the total qualifying capital relative to risk-weighted assets (RWA). It captures the full loss-absorbing cushion. Definitions and concepts of capital tiers to include in the CAR formla are provided by the Basel Capital Accords and adapted in each jurisdiction. !- Data requirements: Full breakdown of regulatory capital components, and total RWA.</t>
+          <t>The Tier 1 ratio shows the core loss-absorbing capital relative to risk-weighted assets (RWA). It is a cornerstone of the Basel Capital Accords and a trigger point for supervisory intervention. !- Definitions and concepts: Tier 1 capital comprises common equity tier 1 (CET1) plus additional tier 1 (perpetual, non-cumulative instruments). RWA adjust asset values for credit, market, and operational risk weights. Local definitions vary, but the Basel Committee has provided common standards.</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>How are FSP gender diversity and the gender composition of the customer base correlated with CAR levels?</t>
+          <t>Do FSPs with greater gender diversity in leadership and customer base tend to maintain stronger Tier 1 capital ratios? Is there any evidence that gender-inclusive governance correlates with improved capital adequacy and financial resilience? How might gender-related risk factors influence the calculation or management of Tier 1 capital?</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -12528,54 +12528,64 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Solvency</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>113</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Tier 1 capital ratio</t>
+          <t>Interest margin ratio</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Tier 1 regulatory capital as % of risk weighted assets (RWAs)</t>
+          <t>Net interest income as % of total earning assets</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>The Tier 1 ratio shows the core loss-absorbing capital relative to risk-weighted assets (RWA). It is a cornerstone of the Basel Capital Accords and a trigger point for supervisory intervention. !- Definitions and concepts: Tier 1 capital comprises common equity tier 1 (CET1) plus additional tier 1 (perpetual, non-cumulative instruments). RWA adjust asset values for credit, market, and operational risk weights. Local definitions vary, but the Basel Committee has provided common standards.</t>
+          <t>Also known as Net Interest Margin (NIM), is a metric that measures a lender's profitability by calculating difference between the interest it earns on its assets (like loans) and the interest it pays on liabilities, divided by the total earning assets. !- Definitions and concepts: NIM = (Net Interest income – Interest expense) ÷ Average earning assets. !- Data requirements: Total interest income, total interest expenses, total earning assets.</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Do FSPs with greater gender diversity in leadership and customer base tend to maintain stronger Tier 1 capital ratios? Is there any evidence that gender-inclusive governance correlates with improved capital adequacy and financial resilience? How might gender-related risk factors influence the calculation or management of Tier 1 capital?</t>
+          <t>Do financial service providers (FSPs) with higher gender diversity in leadership or governance report different interest margin ratios compared to less gender‑diverse peers? Are there associations between the gender composition of the customer base (e.g. share of women borrowers/depositors) and margin outcomes? Could gendered pricing—such as differential rates offered to male vs. female clients—impact FSP interest margins? Over time, do changes in margin ratios correlate with shifts in gender inclusion (e.g. more women customers or staff)?</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Consumer protection</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>Impact</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -12585,54 +12595,54 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Interest margin ratio</t>
+          <t>Insurance premiums written</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Net interest income as % of total earning assets</t>
+          <t>Value of insurance premiums writen in the insurance sector</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Also known as Net Interest Margin (NIM), is a metric that measures a lender's profitability by calculating difference between the interest it earns on its assets (like loans) and the interest it pays on liabilities, divided by the total earning assets. !- Definitions and concepts: NIM = (Net Interest income – Interest expense) ÷ Average earning assets. !- Data requirements: Total interest income, total interest expenses, total earning assets.</t>
+          <t>Premiums written represent the contractual revenue an insurer books when it underwrites new or renewal policies during a given period, irrespective of when coverage is provided or cash is received. Rising written-premium volumes can indicate growth, improved pricing power, or inflation-driven sum-assured increases; declining volumes may flag competitive pressures or tighter underwriting standards. !- Definitions and concepts: Gross premiums written (GPW): All premiums on policies incepted or renewed during the period before ceding to reinsurers. Net premiums written (NPW): GPW minus premiums ceded plus any reinsurance assumed—reflects the risk the insurer retains. Earned premiums: Portion of written premiums recognised as revenue in proportion to expired coverage—crucial for claims-ratio analysis. !- Data requirements: total premium written. For granular data: Policy-level underwriting feeds: issue/renewal dates, premium amounts, payment mode, product line, distribution channel, currency.</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Do financial service providers (FSPs) with higher gender diversity in leadership or governance report different interest margin ratios compared to less gender‑diverse peers? Are there associations between the gender composition of the customer base (e.g. share of women borrowers/depositors) and margin outcomes? Could gendered pricing—such as differential rates offered to male vs. female clients—impact FSP interest margins? Over time, do changes in margin ratios correlate with shifts in gender inclusion (e.g. more women customers or staff)?</t>
+          <t>How do insurance premiums written vary by gender of the policyholder, including for individuals and MSMEs based on owner gender? Are there gender disparities in the types and values of insurance products purchased, reflected in premiums collected? Do women or other gender groups pay systematically higher or lower premiums, and what might this indicate about risk assessment or product suitability? How do FSPs with higher gender diversity compare in the total premiums written to different gender segments? Are trends in premiums written by gender evolving over time, and do these trends vary by product type or geographic region?</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Consumer protection</t>
+          <t>Financial inclusion; Other</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Impact</t>
+          <t>Outcomes, Statistics and research</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -12642,54 +12652,44 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Insurance premiums written</t>
+          <t>Efficiency ratio</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Value of insurance premiums writen in the insurance sector</t>
+          <t>Effciency ratio</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Premiums written represent the contractual revenue an insurer books when it underwrites new or renewal policies during a given period, irrespective of when coverage is provided or cash is received. Rising written-premium volumes can indicate growth, improved pricing power, or inflation-driven sum-assured increases; declining volumes may flag competitive pressures or tighter underwriting standards. !- Definitions and concepts: Gross premiums written (GPW): All premiums on policies incepted or renewed during the period before ceding to reinsurers. Net premiums written (NPW): GPW minus premiums ceded plus any reinsurance assumed—reflects the risk the insurer retains. Earned premiums: Portion of written premiums recognised as revenue in proportion to expired coverage—crucial for claims-ratio analysis. !- Data requirements: total premium written. For granular data: Policy-level underwriting feeds: issue/renewal dates, premium amounts, payment mode, product line, distribution channel, currency.</t>
+          <t>Indicates operating efficiency by comparing non-interest expenses to operating income. Lower ratios signal better cost control, a key driver of sustainable profitability, especially in low-margin environments. Definitions &amp; concepts – Efficiency Ratio = Operating expenses ÷ (Net interest income + Non-interest income). Some variants exclude litigation or restructuring charges. !- Data requirements: Detailed income statement with breakdowns of personnel, IT, and occupancy costs; segment reporting helps pinpoint inefficiencies. !- Limitations and considerations: Cost cuts that impair risk management or customer service may improve the ratio temporarily but raise long-run risks. Cross-country comparisons should adjust for labour cost levels and digitalisation stages. One-off income (e.g., asset sales) can distort the denominator.</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>How do insurance premiums written vary by gender of the policyholder, including for individuals and MSMEs based on owner gender? Are there gender disparities in the types and values of insurance products purchased, reflected in premiums collected? Do women or other gender groups pay systematically higher or lower premiums, and what might this indicate about risk assessment or product suitability? How do FSPs with higher gender diversity compare in the total premiums written to different gender segments? Are trends in premiums written by gender evolving over time, and do these trends vary by product type or geographic region?</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Financial inclusion, Other</t>
-        </is>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>Outcomes, Statistics &amp; research</t>
+          <t>Are there gender-related differences in the efficiency of FSP operations, for example, in cost-to-income ratios? Do FSPs with more gender-diverse teams or client bases demonstrate better operational efficiency? How do gender dynamics in product design, customer service, and outreach impact overall institutional efficiency?</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -12704,39 +12704,39 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Efficiency ratio</t>
+          <t>Personnel expenses per customer/contract</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Effciency ratio</t>
+          <t>Total personnel expenses per customer or contract</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Indicates operating efficiency by comparing non-interest expenses to operating income. Lower ratios signal better cost control, a key driver of sustainable profitability, especially in low-margin environments. Definitions &amp; concepts – Efficiency Ratio = Operating expenses ÷ (Net interest income + Non-interest income). Some variants exclude litigation or restructuring charges. !- Data requirements: Detailed income statement with breakdowns of personnel, IT, and occupancy costs; segment reporting helps pinpoint inefficiencies. !- Limitations and considerations: Cost cuts that impair risk management or customer service may improve the ratio temporarily but raise long-run risks. Cross-country comparisons should adjust for labour cost levels and digitalisation stages. One-off income (e.g., asset sales) can distort the denominator.</t>
+          <t>This indicator measures the total cost of personnel (wages, salaries, benefits, etc.) divided by the total number of customers a financial service provider serves, revealing how much is spent on staff to support each individual customer. This metric helps assess a company's operational efficiency and cost-effectiveness in managing its customer base, with a lower figure typically indicating better efficiency.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Are there gender-related differences in the efficiency of FSP operations, for example, in cost-to-income ratios? Do FSPs with more gender-diverse teams or client bases demonstrate better operational efficiency? How do gender dynamics in product design, customer service, and outreach impact overall institutional efficiency?</t>
+          <t>Is there a gender dimension in personnel cost efficiency—that is, do FSPs with more balanced or female‑inclusive staff structures show lower personnel expenses per customer or contract? Are personnel expense ratios correlated with the gender composition of staff and how services are delivered to different gender groups? Do FSPs serving a higher proportion of women customers incur different per-customer personnel costs (e.g. due to agent outreach, financial literacy support)? How does this metric evolve over time in relation to efforts to promote gender inclusion in staffing and service models?</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -12751,39 +12751,39 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Personnel expenses per customer/contract</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Total personnel expenses per customer or contract</t>
+          <t>Return on assets</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>This indicator measures the total cost of personnel (wages, salaries, benefits, etc.) divided by the total number of customers a financial service provider serves, revealing how much is spent on staff to support each individual customer. This metric helps assess a company's operational efficiency and cost-effectiveness in managing its customer base, with a lower figure typically indicating better efficiency.</t>
+          <t>ROA gauges how efficiently a financial service provider turns every unit of assets under its control into net profit. !- Definitions and concepts: ROA = Net income after tax ÷ Average total assets (opening + closing assets ÷ 2). !- Data requirements: net income and total assets at two balance-sheet dates, preferably quarterly to smooth seasonality. !- Limitations and considerations: ROA ignores off-balance-sheet exposures such as guarantees or derivatives.</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Is there a gender dimension in personnel cost efficiency—that is, do FSPs with more balanced or female‑inclusive staff structures show lower personnel expenses per customer or contract? Are personnel expense ratios correlated with the gender composition of staff and how services are delivered to different gender groups? Do FSPs serving a higher proportion of women customers incur different per-customer personnel costs (e.g. due to agent outreach, financial literacy support)? How does this metric evolve over time in relation to efforts to promote gender inclusion in staffing and service models?</t>
+          <t>Do FSPs with greater gender diversity in their workforce, management, or boards tend to achieve higher or more stable ROA? Is there evidence that the gender composition of the customer base (e.g. more female clients) affects asset returns, for instance through differences in risk, lending, or deposit behaviors? When comparing across FSPs, does ROA differ systematically in institutions with stronger gender inclusion strategies? How have ROA trends shifted over time relative to changes in gender diversity (staffing or customer composition)?</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12798,27 +12798,37 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Return on assets</t>
+          <t>Return on equity</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>ROA gauges how efficiently a financial service provider turns every unit of assets under its control into net profit. !- Definitions and concepts: ROA = Net income after tax ÷ Average total assets (opening + closing assets ÷ 2). !- Data requirements: net income and total assets at two balance-sheet dates, preferably quarterly to smooth seasonality. !- Limitations and considerations: ROA ignores off-balance-sheet exposures such as guarantees or derivatives.</t>
+          <t>ROE indicates the earnings available to common shareholders per unit of book equity. !- Definitions and concepts: ROE = Net income ÷ Average shareholders’ equity. !- Data requirements: Consolidated net income and shareholders’ equity.</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Do FSPs with greater gender diversity in their workforce, management, or boards tend to achieve higher or more stable ROA? Is there evidence that the gender composition of the customer base (e.g. more female clients) affects asset returns, for instance through differences in risk, lending, or deposit behaviors? When comparing across FSPs, does ROA differ systematically in institutions with stronger gender inclusion strategies? How have ROA trends shifted over time relative to changes in gender diversity (staffing or customer composition)?</t>
+          <t>Is there a relationship between gender diversity in leadership or equity ownership and ROE performance across FSPs? Are FSPs that prioritize gender inclusion more likely to achieve higher equity returns, possibly through broader market reach or more balanced risk management? How does the gender mix of customers, especially depositors and borrowers, relate to ROE outcomes? Over time, do improvements in gender inclusion (in staffing or customer base) precede or follow changes in ROE?</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Other; Consumer protection; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>Statistics and research, Impact, Credit risk</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -12830,170 +12840,103 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Soundness</t>
+          <t>Credit risk</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>Financial system credit operations</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Return on equity</t>
+          <t>Volume and value of credit operations in the total financial sector portfolio</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>ROE indicates the earnings available to common shareholders per unit of book equity. !- Definitions and concepts: ROE = Net income ÷ Average shareholders’ equity. !- Data requirements: Consolidated net income and shareholders’ equity.</t>
+          <t>This indicator captures the breadth of formal lending with two perspectives: the number of credit contracts (volume) and their aggregate outstanding balance (value) across all regulated lenders. Tracking it offers a panoramic view of credit provision, enabling supervisors to (i) gauge financial deepening, (ii) assess systemic leverage of the banking sector, (iii) monitor shifts in portfolio composition (e.g., rise of consumer or MSME lending), and (iv) feed macro-prudential stress tests and monetary policy models. Sharp expansions may indicate rapid financial inclusion or overheating; contractions can herald credit crunches that dampen growth. !- Definitions and concepts: Credit operation – any legally binding loan, line of credit, hire-purchase, lease, or other. Off-balance-sheet commitments (e.g., undrawn credit lines, guarantees) are usually excluded or reported separately. Volume (count): unique credit contracts outstanding at the reporting date; renewals/extensions count as new operations if a fresh contract is signed. Segmentation by sector (household, corporate, government), product type, currency, and residual maturity enriches analysis. !- Data requirements: Supervisory returns or call-reports detailing credit operations contract count by institution and product. Standardised product and sector taxononies to avoid double counting.</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Is there a relationship between gender diversity in leadership or equity ownership and ROE performance across FSPs? Are FSPs that prioritize gender inclusion more likely to achieve higher equity returns, possibly through broader market reach or more balanced risk management? How does the gender mix of customers, especially depositors and borrowers, relate to ROE outcomes? Over time, do improvements in gender inclusion (in staffing or customer base) precede or follow changes in ROE?</t>
+          <t>How does the gender composition of borrowers in the total financial sector credit portfolio compare across the number and value of outstanding credit operations? Are there gender disparities in both the frequency (number) of credit operations and the total credit amounts extended? How do these disparities vary by loan type, sector, or borrower demographics such as age, income, and location? Are women or other gender groups underrepresented in certain types of credit or regions within the overall portfolio? How do FSPs with higher levels of gender diversity compare in terms of the balance and number of credit operations granted to different genders? Are portfolios with more balanced gender representation associated with differences in credit performance, such as lower default rates or more stable repayment patterns?</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Other, Consumer protection, Prudential supervision</t>
+          <t>Financial inclusion</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Statistics &amp; research, Impact, Credit risk</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Prudential supervision</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Stability</t>
+          <t>Liquidity risk</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Financial system credit operations</t>
+          <t>Deposit stability/volatility</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Volume and value of credit operations in the total financial sector portfolio</t>
+          <t>Stability/volatility of retail deposits (deposit stickness, deposit stability, deposit flows)</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
-        <is>
-          <t>This indicator captures the breadth of formal lending with two perspectives: the number of credit contracts (volume) and their aggregate outstanding balance (value) across all regulated lenders. Tracking it offers a panoramic view of credit provision, enabling supervisors to (i) gauge financial deepening, (ii) assess systemic leverage of the banking sector, (iii) monitor shifts in portfolio composition (e.g., rise of consumer or MSME lending), and (iv) feed macro-prudential stress tests and monetary policy models. Sharp expansions may indicate rapid financial inclusion or overheating; contractions can herald credit crunches that dampen growth. !- Definitions and concepts: Credit operation – any legally binding loan, line of credit, hire-purchase, lease, or other. Off-balance-sheet commitments (e.g., undrawn credit lines, guarantees) are usually excluded or reported separately. Volume (count): unique credit contracts outstanding at the reporting date; renewals/extensions count as new operations if a fresh contract is signed. Segmentation by sector (household, corporate, government), product type, currency, and residual maturity enriches analysis. !- Data requirements: Supervisory returns or call-reports detailing credit operations contract count by institution and product. Standardised product and sector taxononies to avoid double counting.</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>How does the gender composition of borrowers in the total financial sector credit portfolio compare across the number and value of outstanding credit operations? Are there gender disparities in both the frequency (number) of credit operations and the total credit amounts extended? How do these disparities vary by loan type, sector, or borrower demographics such as age, income, and location? Are women or other gender groups underrepresented in certain types of credit or regions within the overall portfolio? How do FSPs with higher levels of gender diversity compare in terms of the balance and number of credit operations granted to different genders? Are portfolios with more balanced gender representation associated with differences in credit performance, such as lower default rates or more stable repayment patterns?</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Financial inclusion</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Prudential supervision</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Stability</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Deposit stability/volatility</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Stability/volatility of retail deposits (deposit stickness, deposit stability, deposit flows)</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
         <is>
           <t>The deposit stability (or deposit-volatility) indicator assesses how predictable an FSP's funding base is by tracking the fluctuation and “stickiness” of customer deposits over time. Sudden, correlated outflows—whether triggered by market rumours, rate competition or digital bank runs—can force a bank to liquidate assets at fire-sale prices or draw on emergency facilities. Prudential supervisors monitor deposit volatility alongside liquidity ratios to judge an institution’s ability to withstand funding shocks and to calibrate run-off assumptions in stress tests and the Liquidity Coverage Ratio (LCR). Definitions &amp; concepts: Core / stable deposits: retail balances judged unlikely to flee under stress; often defined by balance size, relationship depth, and whether the account is transactional rather than rate-sensitive. Volatility metrics: standard deviation of daily balances divided by the mean (coefficient of variation), maximum one-day net outflow over a look-back window, or elasticity (beta) to market rates. Calculation methods vary across countries. !- Data requirements: High-frequency (daily or intraday) deposit-balance time series, tagged by customer type, product, and currency. Interest-rate history to estimate betas. Customer identifiers for relationship tenure, cross-selling, and concentration analysis. 
 Digital channel dynamics: mobile app withdrawals can accelerate run speed beyond historical norms; backward-looking volatility measures may understate future risk.</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Are there gender disparities in deposit stability or volatility, and do accounts held by different gender groups show distinct patterns in the frequency or magnitude of balance fluctuations? Could these differences reflect varying income regularity, saving habits, or financial resilience? How do these patterns vary across age, income level, or geographic location? Are there notable differences in deposit stability between FSPs with higher or lower levels of gender diversity in their customer base? Do FSPs with greater gender diversity among their clients tend to experience greater deposit stickiness overall?</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Prudential supervision</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>Liquidity risk</t>
-        </is>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="L222" t="inlineStr">
         <is>
           <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>

--- a/www/LENS_INDICATORS_DB_v11062025.xlsx
+++ b/www/LENS_INDICATORS_DB_v11062025.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3390,22 +3390,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>387</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Remittances, total (volume)</t>
+          <t>Remittances, total (value)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Volume of remittances received and sent (in/out flows)</t>
+          <t>Value of remittances received and sent (in/out flows)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Remittances are an important source of external financing in many countries around the world and support the well-being of migrant families as well as broader development as remittances provide greater opportunities for savings, consumption and investment. This indicator measures aggregate flows of international remittances in volume terms (number of transactions) using the country's financial insfrastructure.  !- Definitions and concepts: Money remittances are payment services where funds are received from a payer, without any payment accounts being created in the name of the payer or the payee, for the sole purpose of transferring a corresponding amount to a payee or to another institution offering payment services that is acting on behalf of the payee, and/or where such funds are received on behalf of and made available to the payee. These could be inflow transactions into an account, but many remittances will not land into accounts, but rather be withdrawn in cash via a money remitter, a mobile money agent or a bank branch (Committe on Payment and Settlement Systems red book: https://www.bis.org/cpmi/glossary_030301.pdf?). !- Data requirements: Total number of international remittances sent/received over a specified period of time (e.g. quarter or year).</t>
+          <t>Remittances are an important source of external financing in many countries around the world and support the well-being of migrant families as well as broader development as remittances provide greater opportunities for savings, consumption and investment. This indicator measures aggregate flows of international remittances in value terms (total value of transaction in local currency) using the country's financial insfrastructure.  !- Definitions and concepts: Money remittances are payment services where funds are received from a payer, without any payment accounts being created in the name of the payer or the payee, for the sole purpose of transferring a corresponding amount to a payee or to another institution offering payment services that is acting on behalf of the payee, and/or where such funds are received on behalf of and made available to the payee. These could be inflow transactions into an account, but many remittances will not land into accounts, but rather be withdrawn in cash via a money remitter, a mobile money agent or a bank branch (Committe on Payment and Settlement Systems red book: https://www.bis.org/cpmi/glossary_030301.pdf?). !- Data requirements: Total value of international remittances sent/received over a specified period of time (e.g. quarter or year).</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>142</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Remittances, total (value)</t>
+          <t>Remittances, total (volume)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Value of remittances received and sent (in/out flows)</t>
+          <t>Volume of remittances received and sent (in/out flows)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Remittances are an important source of external financing in many countries around the world and support the well-being of migrant families as well as broader development as remittances provide greater opportunities for savings, consumption and investment. This indicator measures aggregate flows of international remittances in value terms (total value of transaction in local currency) using the country's financial insfrastructure.  !- Definitions and concepts: Money remittances are payment services where funds are received from a payer, without any payment accounts being created in the name of the payer or the payee, for the sole purpose of transferring a corresponding amount to a payee or to another institution offering payment services that is acting on behalf of the payee, and/or where such funds are received on behalf of and made available to the payee. These could be inflow transactions into an account, but many remittances will not land into accounts, but rather be withdrawn in cash via a money remitter, a mobile money agent or a bank branch (Committe on Payment and Settlement Systems red book: https://www.bis.org/cpmi/glossary_030301.pdf?). !- Data requirements: Total value of international remittances sent/received over a specified period of time (e.g. quarter or year).</t>
+          <t>Remittances are an important source of external financing in many countries around the world and support the well-being of migrant families as well as broader development as remittances provide greater opportunities for savings, consumption and investment. This indicator measures aggregate flows of international remittances in volume terms (number of transactions) using the country's financial insfrastructure.  !- Definitions and concepts: Money remittances are payment services where funds are received from a payer, without any payment accounts being created in the name of the payer or the payee, for the sole purpose of transferring a corresponding amount to a payee or to another institution offering payment services that is acting on behalf of the payee, and/or where such funds are received on behalf of and made available to the payee. These could be inflow transactions into an account, but many remittances will not land into accounts, but rather be withdrawn in cash via a money remitter, a mobile money agent or a bank branch (Committe on Payment and Settlement Systems red book: https://www.bis.org/cpmi/glossary_030301.pdf?). !- Data requirements: Total number of international remittances sent/received over a specified period of time (e.g. quarter or year).</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3504,27 +3504,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>387</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Financial transactions by channel (volume)</t>
+          <t>Financial transactions by channel (value)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Volume of financial transactions by channel type</t>
+          <t>Value of financial transactions by channel type</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>An aggregate measure of engagement with financial system infrastructure. Measures the total number of financial transactions executed through different delivery channels (such as branches, ATMs, agents, POS terminals, internet banking, and mobile applications) during the reporting period. When expressed in per capita terms measures the intensity of transactions in a population. Captures the frequency and distribution of financial system usage across physical and digital access points, providing insights into channel preferences, transaction intensity, and service accessibility. This indicator allows authorities to: Assess consumer behavior and migration trends from cash and in-person services to digital channels; Evaluate the reach and performance of different access networks; Identify bottlenecks or risks in high-volume channels; and monitor progress toward digital financial inclusion and payment system efficiency. Rising total volumes indicate greater customer engagement and transactional activity. Shifts in distribution (e.g., from branch to mobile) signal digitization trends or channel substitution. Declines may reflect economic slowdown, network disruptions, or reduced system trust. !- Definitions and concepts: Financial transaction: a single transfer of value or service event, regardless of monetary amount encompassing deposits, withdrawals, transfers and payments. Channel type: The physiscal or electronic means through which customers initiate or receive financail transactions (e.g. branch, ATM, POS, internet, mobile, agent). !- Data requirements: Sum of all financial transactions (count) processed by each channel type within the reporting period based on administrative data from financial institutions, payment service providers, and network operators. Disaggregation by channel type, institution type, and transaction category (payments, transfers, deposits, withdrawals). Examples include: Branch transactions (in-person), ATM withdrawals and deposits, Agent transactions (cash-in/cash-out, payments), POS payments, Internet banking, Mobile or app-based transactions. !- Derivable indicators: Channel share of transactions (%) = (Transactions via channel X / Total transactions) x 100.</t>
+          <t>Measures the total monetary value of financial transactions conducted through different delivery channels — including branches, ATMs, agents, POS terminals, internet banking, and mobile platforms — during the reporting period. An aggregate measure of engagement with financial system infrastructure. Captures the monetary scale and economic significance of financial activity by channel, complementing transaction volume to reveal the average size, liquidity flow, and transactional importance of each channel. When expressed in per capita terms measures  the average value transacted per person (value). Monitoring transaction values by channel helps regulators and policymakers identify where the largest financial flows occur within the system, assess liquidity risks and concentration in specific delivery mechanisms, support cost-benefit analysis of channel development, and track digitalization of financial flows and formalization of cash transactions. Higher total values indicate large-scale liquidity flows through formal channels. Increases in digital channel values show deepening trust and higher-value usage of digital financial services. Concentration in branch or ATM channels may reflect slow digital adoption or cash-heavy behavior. !- Definitions and concepts: Financial transaction: a single transfer of value or service event, regardless of monetary amount encompassing deposits, withdrawals, transfers and payments. Financial transaction (value): The total amount of money transferred, withdrawn, deposited, or paid in a single transaction. Channel type: The physiscal or electronic means through which customers initiate or receive financial transactions (e.g. branch, ATM, POS, internet, mobile, agent). !- Data requirements: Sum of the monetary value of all financial transactions processed by each channel type within the reference period based on aggregated transaction value data from regulated financial institutions and payment service providers. !- Derivable indicators: Average transaction value by channel = (Total transaction value via channel X / Total number of transactions via channel X)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>How do genders differ in how much and how often they transact through different channels (cash, ATM, digital, agents, mobile, etc.)? How have channel usage patterns for different genders evolved over time, especially for younger, lower‐income, or rural women? Do providers who are more gender‐inclusive tend to offer or promote more equitable access and usage across channels?</t>
+          <t>How do genders differ in how much and how often they transact through different channels (cash, ATM, digital, agents, mobile, etc.), by transaction value and frequency? Are there gender differences in the choice of channels associated with high‐value vs low‐value transactions? How have channel usage patterns for different genders evolved over time, especially for younger, lower‐income, or rural women? Do providers who are more gender‐inclusive tend to offer or promote more equitable access and usage across channels?</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3561,27 +3561,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Financial transactions by channel (value)</t>
+          <t>Financial transactions by channel (volume)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Value of financial transactions by channel type</t>
+          <t>Volume of financial transactions by channel type</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Measures the total monetary value of financial transactions conducted through different delivery channels — including branches, ATMs, agents, POS terminals, internet banking, and mobile platforms — during the reporting period. An aggregate measure of engagement with financial system infrastructure. Captures the monetary scale and economic significance of financial activity by channel, complementing transaction volume to reveal the average size, liquidity flow, and transactional importance of each channel. When expressed in per capita terms measures  the average value transacted per person (value). Monitoring transaction values by channel helps regulators and policymakers identify where the largest financial flows occur within the system, assess liquidity risks and concentration in specific delivery mechanisms, support cost-benefit analysis of channel development, and track digitalization of financial flows and formalization of cash transactions. Higher total values indicate large-scale liquidity flows through formal channels. Increases in digital channel values show deepening trust and higher-value usage of digital financial services. Concentration in branch or ATM channels may reflect slow digital adoption or cash-heavy behavior. !- Definitions and concepts: Financial transaction: a single transfer of value or service event, regardless of monetary amount encompassing deposits, withdrawals, transfers and payments. Financial transaction (value): The total amount of money transferred, withdrawn, deposited, or paid in a single transaction. Channel type: The physiscal or electronic means through which customers initiate or receive financial transactions (e.g. branch, ATM, POS, internet, mobile, agent). !- Data requirements: Sum of the monetary value of all financial transactions processed by each channel type within the reference period based on aggregated transaction value data from regulated financial institutions and payment service providers. !- Derivable indicators: Average transaction value by channel = (Total transaction value via channel X / Total number of transactions via channel X)</t>
+          <t>An aggregate measure of engagement with financial system infrastructure. Measures the total number of financial transactions executed through different delivery channels (such as branches, ATMs, agents, POS terminals, internet banking, and mobile applications) during the reporting period. When expressed in per capita terms measures the intensity of transactions in a population. Captures the frequency and distribution of financial system usage across physical and digital access points, providing insights into channel preferences, transaction intensity, and service accessibility. This indicator allows authorities to: Assess consumer behavior and migration trends from cash and in-person services to digital channels; Evaluate the reach and performance of different access networks; Identify bottlenecks or risks in high-volume channels; and monitor progress toward digital financial inclusion and payment system efficiency. Rising total volumes indicate greater customer engagement and transactional activity. Shifts in distribution (e.g., from branch to mobile) signal digitization trends or channel substitution. Declines may reflect economic slowdown, network disruptions, or reduced system trust. !- Definitions and concepts: Financial transaction: a single transfer of value or service event, regardless of monetary amount encompassing deposits, withdrawals, transfers and payments. Channel type: The physiscal or electronic means through which customers initiate or receive financail transactions (e.g. branch, ATM, POS, internet, mobile, agent). !- Data requirements: Sum of all financial transactions (count) processed by each channel type within the reporting period based on administrative data from financial institutions, payment service providers, and network operators. Disaggregation by channel type, institution type, and transaction category (payments, transfers, deposits, withdrawals). Examples include: Branch transactions (in-person), ATM withdrawals and deposits, Agent transactions (cash-in/cash-out, payments), POS payments, Internet banking, Mobile or app-based transactions. !- Derivable indicators: Channel share of transactions (%) = (Transactions via channel X / Total transactions) x 100.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>How do genders differ in how much and how often they transact through different channels (cash, ATM, digital, agents, mobile, etc.), by transaction value and frequency? Are there gender differences in the choice of channels associated with high‐value vs low‐value transactions? How have channel usage patterns for different genders evolved over time, especially for younger, lower‐income, or rural women? Do providers who are more gender‐inclusive tend to offer or promote more equitable access and usage across channels?</t>
+          <t>How do genders differ in how much and how often they transact through different channels (cash, ATM, digital, agents, mobile, etc.)? How have channel usage patterns for different genders evolved over time, especially for younger, lower‐income, or rural women? Do providers who are more gender‐inclusive tend to offer or promote more equitable access and usage across channels?</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4325,75 +4325,75 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Active deposit accounts (balance)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Total outstanding balances in active deposit accounts</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Measures the total outstanding balance in all active deposit accounts at the end of the reporting period. It represents the aggregate value of deposits held in accounts that are actively used, distinguishing them from dormant or inactive balances. Captures the volume of mobilized deposits that are linked to active financial relationships, providing insight into financial depth, liquidity, and the stability of deposit funding within the banking system. Tracking the balance of active accounts helps regulators and analysts: Evaluate effective deposit mobilization and financial intermediation; Identify the share of deposits that are transactionally relevant versus idle; Monitor liquidity risks and customer engagement in deposit markets; Assess financial inclusion quality and trust in the formal system. Higher balances indicate stronger deposit mobilization and customer trust in institutions. Declining balances may reflect economic stress, withdrawals, or shift toward alternative financial instruments. Stable ratios of active to total balances indicate healthy engagement and liquidity management. !- Definitions and concepts: Active deposit account: An account with at least one transaction or a positive balance during the reporting period. Outstanding balance: The total value of deposits held in those accounts as of the reference date. !- Derivable indicators: Average balance per active account = (Total active deposit balances / Number of active deposit accounts); Weighted deposit activity rate = (Active deposit balances / Total deposit balances) × 100</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Are there differences in the number of active deposit accounts held by individuals across gender, age, and income groups, including the incidence of multiple accounts per person? Do certain gender groups tend to hold more active deposit accounts in specific types of financial institutions or regions? Do FSPs with more gender-diverse teams or customer bases show higher account use rates among underserved gender and age segments?</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Financial inclusion</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Savings</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>374</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Active deposit accounts (number)</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Number of active deposit accounts</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Measures the total number of deposit accounts that were active during the reporting period — that is, accounts that recorded at least one transaction (deposit, withdrawal, transfer, or interest accrual) or maintained a positive balance within the reference period. Captures the extent of active engagement with deposit products, providing insight into the usage and vitality of the deposit base within the formal financial system. It differentiates between accounts merely opened and those that are operational and regularly used. Monitoring active deposit accounts allows authorities to: Assess the sustainability of financial inclusion (beyond access); Identify dormancy trends and inactive balances; Evaluate the breadth of active financial relationships with customers; Support liquidity management and deposit insurance analysis. It helps ensure that reported account growth translates into meaningful usage rather than inactive accounts. Higher values indicate broad and sustained account usage. Low activity ratios may signal dormant accounts, limited engagement, or inclusion fatigue. Trends over time reveal patterns of customer retention, financial health, and economic activity. !- Definitions and concepts: Active deposit account: An account that has had at least one financial transaction or maintained a positive balance within the reference period (commonly 90 days or 12 months). Deposit account: Savings, current, or term deposit accounts held with regulated deposit-taking institutions. !- Data requirements: 
 Administrative data from licensed deposit-taking institutions (banks, microfinance institutions, cooperatives); Disaggregation by institution type, account type (savings, current, term), customer type (individual, SME), and region. !- Derivable indicators: Activity rate = (Number of active deposit accounts / Total number of deposit accounts) × 100</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Are there differences in the number of active deposit accounts held by individuals across gender, age, and income groups, including the incidence of multiple accounts per person? Do certain gender groups tend to hold more active deposit accounts in specific types of financial institutions or regions? Do FSPs with more gender-diverse teams or customer bases show higher account use rates among underserved gender and age segments?</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Financial inclusion</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>388</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Active deposit accounts (balance)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Total outstanding balances in active deposit accounts</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Measures the total outstanding balance in all active deposit accounts at the end of the reporting period. It represents the aggregate value of deposits held in accounts that are actively used, distinguishing them from dormant or inactive balances. Captures the volume of mobilized deposits that are linked to active financial relationships, providing insight into financial depth, liquidity, and the stability of deposit funding within the banking system. Tracking the balance of active accounts helps regulators and analysts: Evaluate effective deposit mobilization and financial intermediation; Identify the share of deposits that are transactionally relevant versus idle; Monitor liquidity risks and customer engagement in deposit markets; Assess financial inclusion quality and trust in the formal system. Higher balances indicate stronger deposit mobilization and customer trust in institutions. Declining balances may reflect economic stress, withdrawals, or shift toward alternative financial instruments. Stable ratios of active to total balances indicate healthy engagement and liquidity management. !- Definitions and concepts: Active deposit account: An account with at least one transaction or a positive balance during the reporting period. Outstanding balance: The total value of deposits held in those accounts as of the reference date. !- Derivable indicators: Average balance per active account = (Total active deposit balances / Number of active deposit accounts); Weighted deposit activity rate = (Active deposit balances / Total deposit balances) × 100</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6880,101 +6880,101 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Data privacy and protection</t>
+          <t>Fair treatment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>185</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Data breaches</t>
+          <t>Processing and application fees or PAF (as % of loan principal)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>% of customers affected by data breaches</t>
+          <t>PAF as % of loan principal in unsecured credit operations</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
-        <is>
-          <t>A measure of the depth of cyberattacks or other data security breach that result in unauthorized access to customer data. Definitions and concept: A data breach is any security incident in which unauthorized parties access sensitive or confidential information, including personal data (tax numbers, ID information, bank account numbers, healthcare data) and corporate data (customer records, intellectual property, financial information). Data requirement: Number of customers whose data was accessed without authorization during a specified period of time (e.g. quarter or year); Total number of customers at the beginning of the specified period (e.g. quarter or year).</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>How does the percentage of customers affected by data breaches vary by gender? Are any genders disproportionately affected by data breaches? Are data breaches more frequent in certain types of FSPs? Are data breaches more common in specific channels or interfaces?"</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Quality, Operational risk</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Consumer protection</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Fair treatment</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Credit</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Processing and application fees or PAF (as % of loan principal)</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>PAF as % of loan principal in unsecured credit operations</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
         <is>
           <t>This indicator expresses the total up-front charges borrowers pay to originate an unsecured loan—processing fees, application fees, documentation charges—as a percentage of the loan’s principal amount. Because unsecured credit often targets price-sensitive segments and carries higher risk-based interest rates, excessive PAFs can materially raise the all-in cost of borrowing, undermine affordability tests, and trigger consumer-protection scrutiny. Tracking the ratio helps regulators detect predatory pricing, compare lenders’ transparency practices, and gauge competition in loan-origination services. For lenders, it is a barometer of non-interest revenue reliance and a lever for recouping acquisition costs. Processing &amp; Application Fees (PAF): any non-refundable charge levied at or before disbursement for administrative tasks (credit checks, KYC, documentation, platform usage). Late-payment or insurance fees are excluded.
 PAF ratio (simple): [Total PAF charged/Gross loan principal]×100%
 Where multiple partial disbursements occur, use the aggregate principal amount. Annualised impact: when PAFs are capitalised into the Effective Annual Percentage Rate (APR), their weight declines as term length rises—monitor both absolute and APR-embedded views. !- Data requirements: Loan-level records capturing principal, disbursement date, PAF amount, and any rebates for cancellations. Product codes distinguishing personal instalment loans, credit-card cash advances, payday/BNPL equivalents. Borrower demographics and channel identifiers (branch, mobile app, marketplace) for segmentation. Accounting entries showing whether fees are recognised up-front (IFRS 15 “contract costs”) or amortised via the effective-interest-rate (EIR) method. !- Limitations and considerations: Amortisation differences: Lenders using EIR spread PAFs over the loan’s life; comparing ratios on a cash basis versus amortised income can mislead. Bundled products: Cross-selling (e.g., credit-life insurance) may shift income from PAF to commissions, understating the ratio. Regulatory caps &amp; disclosures: Jurisdictions with fee ceilings or mandatory APR disclosures compress PAF ratios; cross-country benchmarking must control for such rules. Loan term effects: Short-tenor payday or BNPL loans show high PAF percentages even when absolute fees are small; interpret in context of maturity profile and APR. Waivers &amp; promotions: Temporary fee holidays for marketing campaigns can distort time-series trends—flag promotional periods separately. Should FSPs not be allowed/willing to share sensitive revenue data, ratios/percentages can be performed in-house and then shared with regulator.</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>What are the origination fee percentages as a share of loan principal by gender? Are there gender disparities in the origination fee percentages incurred? How do FSPs rank in terms of origination fee percentages by gender?</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Financial inclusion</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Consumer protection</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Data privacy and protection</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Data breaches</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>% of customers affected by data breaches</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>A measure of the depth of cyberattacks or other data security breach that result in unauthorized access to customer data. Definitions and concept: A data breach is any security incident in which unauthorized parties access sensitive or confidential information, including personal data (tax numbers, ID information, bank account numbers, healthcare data) and corporate data (customer records, intellectual property, financial information). Data requirement: Number of customers whose data was accessed without authorization during a specified period of time (e.g. quarter or year); Total number of customers at the beginning of the specified period (e.g. quarter or year).</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>What are the origination fee percentages as a share of loan principal by gender? Are there gender disparities in the origination fee percentages incurred? How do FSPs rank in terms of origination fee percentages by gender?</t>
+          <t>How does the percentage of customers affected by data breaches vary by gender? Are any genders disproportionately affected by data breaches? Are data breaches more frequent in certain types of FSPs? Are data breaches more common in specific channels or interfaces?"</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6984,17 +6984,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Financial inclusion</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Quality, Operational risk</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>This indicator captures the share of claim notifications the insurer does not accept for assessment at the front door—typically during first notice of loss (FNOL)/triage—because they are clearly ineligible or incomplete. A high intake-decline rate can point to unclear policy wording, poor customer guidance, data-capture frictions, or overly strict gatekeeping. It is a key conduct-risk and customer-experience signal and, operationally, helps size avoidable workload versus genuinely assessable claims. Claim logged / FNOL: the moment a policyholder submits a claim or loss notice. Declined at intake (non-acceptance): the insurer refuses to open an assessable claim before investigation (e.g., policy not in force, peril not covered, waiting period, duplicate claim, claim below deductible/threshold, incomplete mandatory data not cured within a set window). Indicator formula (count basis): # claims declined at intake in period divided by # claim notifications received in period . Variants: exclude cured cases later resubmitted; report by product/channel. !- Data requirements: Claims-intake system fields: FNOL timestamp, policy ID/status at loss date, coverage/peril checks, deductible, mandatory-document checklist, triage outcome. Standardised reason codes (e.g., not covered, lapsed, duplicate, below excess, incomplete info). Deduplication logic (policyholder ID + incident date + peril). Linkage to resubmissions/appeals and to complaint records for outcome tracking. !- Limitations and considerations: Definition variance: what counts as “prior to analysis” differs; some firms place incomplete cases in “pending info” instead of “declined,” affecting comparability.
+          <t>This indicator captures the share of claim notifications the insurer does not accept for assessment at the front door—typically during first notice of loss (FNOL)/triage—because they are ineligible or incomplete. A high intake-decline rate can point to unclear policy wording, poor customer guidance, data-capture frictions, or overly strict gatekeeping. It is a key conduct-risk and customer-experience signal and, operationally, helps size avoidable workload versus genuinely assessable claims. Claim logged / FNOL: the moment a policyholder submits a claim or loss notice. Declined at intake (non-acceptance): the insurer refuses to open an assessable claim before investigation (e.g., policy not in force, peril not covered, waiting period, duplicate claim, claim below deductible/threshold, incomplete mandatory data not cured within a set window). Indicator formula (count basis): # claims declined at intake in period divided by # claim notifications received in period . Variants: exclude cured cases later resubmitted; report by product/channel. !- Data requirements: Claims-intake system fields: FNOL timestamp, policy ID/status at loss date, coverage/peril checks, deductible, mandatory-document checklist, triage outcome. Standardised reason codes (e.g., not covered, lapsed, duplicate, below excess, incomplete info). Deduplication logic (policyholder ID + incident date + peril). Linkage to resubmissions/appeals and to complaint records for outcome tracking. !- Limitations and considerations: Definition variance: what counts as “prior to analysis” differs; some firms place incomplete cases in “pending info” instead of “declined,” affecting comparability.
 Gaming risk: shifting cases to “withdrawn” or “pending” to improve this metric; require audit trails and age-off rules. Mix effects: products with low deductibles or mandatory documents (e.g., health) have different baseline rates—segment results. Customer fairness: high early declines may reflect confusing onboarding or exclusion wording; monitor alongside claims rejection rate (post-assessment), turnaround time, and complaints upheld. Resubmission policy: disclose whether cured resubmissions are excluded from the numerator to avoid double counting.</t>
         </is>
       </c>
@@ -9274,104 +9274,124 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Market development</t>
+          <t>Consumer protection</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Capital markets development</t>
+          <t>Suitability</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>389</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Crowdfunding - Differential rate of return (equity)</t>
+          <t>Insurance claims (number)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Difference between the advertised/promised rate of return and the actual rate of return of equity in crowdfunding projects</t>
+          <t>Number of insurance claims</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Measures the gap between the projected or advertised rate of return presented to investors before a project is funded and the actual rate of return realized after the project is completed. This is a critical conduct indicator that measures the accuracy of a project's promises versus its real-world performance. For investors, this metric is a tool for due diligence. For conduct supervisors, it can be used to detect mis-selling and fraud. A large and persistent negative differential (where actual returns are consistently far below promised returns) is a red flag. it could flag issues such as inadequate risk disclosure and fraud. When gender disaggregated by the gender of the main sponsor or lead executive, the indicator can provide additional information. If projects led by women consistently show a smaller negative "reality gap" (meaning their actual returns are closer to their promised returns), it could suggest they are more conservative or accurate in their financial projections. This would be a crucial data point in assessing risk and investor protection. Using this indicator together with the indicator on rejected crowddfunding projects could strenghten the identification of gender bias inside the securities authority. Return Differential (%) = Actual Rate of Return - Advertised/Promised Rate of Return.</t>
+          <t>The total count of insurance claims formally submitted by policyholders, beneficiaries, or authorized third parties to an insurer within a defined reporting period, regardless of whether the claims are accepted, rejected, paid, or still under review. Denominator for several key inclusion, consumer protection and prudential insurance ratios. !- Data requirements: Claim identifier, (unique ID per claim), Policyholder identifier, Date of claim submission.</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Are there differences in the rates of return for crowdfunding projects depending on the gender assigned to the MSME seeking funding?</t>
+          <t>How do claim numbers vary by gender? Are there any gender groups logging fewer claims compared to the market average? Are there FSPs with particularly low or high claim numbers for certain genders? How do claim statistics intersect with policy type and customer demographics?</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Financial inclusion; Other</t>
+          <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Uptake (account ownership), Statistics and research</t>
+          <t>Usage, Soundness</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Market development</t>
+          <t>Consumer protection</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Capital markets development</t>
+          <t>Fair treatment</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>390</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Crowdfunding - Authorization rejection rate</t>
+          <t>Insurance claims paid</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>% of all crowfunding applications that are rejected (not authorized by the securities authority)</t>
+          <t>Value of insurance claims paid</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Measures the percentage of all crowdfunding applications submitted to a securities authority that are denied or not authorized to proceed with fundraising. This is a key regulatory indicator that reflects the quality of applications being submitted and the stringency of the regulator's vetting process, which is designed to protect investors from fraud and non-viable projects. When disaggregated by the gender of the main sponsor, the lead executive of the company, it could draw insights into potential gender biases working within the securities authority.</t>
+          <t>"Claims paid" represents the total cash outflow or settled obligations by an insurer to policyholders or beneficiaries for claims events during a reporting period. It includes only claims for which payment has been disbursed, regardless of whether additional claims are still outstanding or whether reserves were previously established. Tracking claims paid helps supervisors monitor liquidity, operational efficiency, and consumer protection outcomes. It provides a concrete measure of the insurer’s fulfillment of contractual obligations and complements other claims indicators (e.g., claims incurred, claims outstanding, unpaid approved claims). !- Data requirements: Claim identifier, (unique ID per claim), Policyholder identifier, Date of claim submission, Date of payment, Amount paid (full or partial), Product / policy type; . !- Limitations and considerations: paid claims may lag claims incurred due to reporting delays or extended claims handling processes; some claims are paid in installments, methodology must specify whether to include full or partial amounts; severe events can cause sudden increases in paid claims, interpretation should consider context. Segmentation by product line or policy type is recommended for supervisory analysis.</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the rejection rates and the reasons for rejection of crowdfunding projects presented for authorization by the securities regulator?</t>
+          <t>How do claim payments vary by gender? Are there any gender groups receiving fewer/lower payments compared to the market average? Are there FSPs with particularly low or high payment rate for certain genders? How do claim payment statistics intersect with policy type and customer demographics?</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Usage, Soundness</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
@@ -9393,27 +9413,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Crowdfunding - Success rate</t>
+          <t>Crowdfunding - Differential rate of return (equity)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>% of all crowfunding projects that are successful in raising the asked amount</t>
+          <t>Difference between the advertised/promised rate of return and the actual rate of return of equity in crowdfunding projects</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>The indicator is a metric that measures the proportion of projects on a crowdfunding platform (or the sum of all crowdfunding platforms) that successfully reach their predetermined funding goal within a specified timeframe. This indicator is a vital sign of a platform's effectiveness, credibility, and the overall health of its ecosystem. It helps gauge the ability of a platform to connect viable projects with interested backers. For MSMEs, crowdfunding can be a viable and less onerous funding source, so the indicator provids important information for monitoring development of MSME finance markets. From a market conduct perspective, while a high success rate is generally positive, an unusually high or artificially inflated rate could be a red flag for misconduct. Platforms could be setting trivially low funding goals to boost statistics,  failing to conduct proper due diligence on projects, or not being transparent about how the success rate is calculated. Successful projects is the number of projects that met or exceeded their funding target during a specific period (e.g., a month, quarter, or year).</t>
+          <t>Measures the gap between the projected or advertised rate of return presented to investors before a project is funded and the actual rate of return realized after the project is completed. This is a critical conduct indicator that measures the accuracy of a project's promises versus its real-world performance. For investors, this metric is a tool for due diligence. For conduct supervisors, it can be used to detect mis-selling and fraud. A large and persistent negative differential (where actual returns are consistently far below promised returns) is a red flag. it could flag issues such as inadequate risk disclosure and fraud. When gender disaggregated by the gender of the main sponsor or lead executive, the indicator can provide additional information. If projects led by women consistently show a smaller negative "reality gap" (meaning their actual returns are closer to their promised returns), it could suggest they are more conservative or accurate in their financial projections. This would be a crucial data point in assessing risk and investor protection. Using this indicator together with the indicator on rejected crowddfunding projects could strenghten the identification of gender bias inside the securities authority. Return Differential (%) = Actual Rate of Return - Advertised/Promised Rate of Return.</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the success rates of crowdfunding projects? Are smaller or younger MSMEs headed by women more likely to face challenges in crowdfunding?</t>
+          <t>Are there differences in the rates of return for crowdfunding projects depending on the gender assigned to the MSME seeking funding?</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -9423,7 +9443,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Usage, Statistics and research</t>
+          <t>Uptake (account ownership), Statistics and research</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -9450,27 +9470,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Crowdfunding - Transactions</t>
+          <t>Crowdfunding - Authorization rejection rate</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Volume (number of offerings) and value (amount raised) of crowdfunding transactions</t>
+          <t>% of all crowfunding applications that are rejected (not authorized by the securities authority)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Metric that measures the total volume of individual investments or pledges made across all projects on a crowdfunding platform or in the entire market (across multiple platforms) over a specific period. This indicator is a direct measure of market activity and investor engagement with crowdfunding, which is increasingly important for MSME finance.</t>
+          <t>Measures the percentage of all crowdfunding applications submitted to a securities authority that are denied or not authorized to proceed with fundraising. This is a key regulatory indicator that reflects the quality of applications being submitted and the stringency of the regulator's vetting process, which is designed to protect investors from fraud and non-viable projects. When disaggregated by the gender of the main sponsor, the lead executive of the company, it could draw insights into potential gender biases working within the securities authority.</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Are there disparities in crowdfunding volumes and values raised, according to the gender of the MSMEs asking for funds? Are there disparities in terms of funding periods? Among women-owned MSMEs, which types and ages (years in operation) are driving growth in crowdfunding transactions? Are crowdfunding platforms operated by diverse management more likely to attract women-owned MSMEs, and young MSMEs headed by women?</t>
+          <t>Are there gender disparities in the rejection rates and the reasons for rejection of crowdfunding projects presented for authorization by the securities regulator?</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -9497,27 +9517,37 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>P2P - Investors</t>
+          <t>Crowdfunding - Success rate</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Number of P2P investors</t>
+          <t>% of all crowfunding projects that are successful in raising the asked amount</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>This indicator counts the number of investors registered in P2P lending platforms, as a measure of development of digital finance, and specifically P2P lending, which can potentially benefit MSMEs. It is a key metric to monitor market development in platform lending. It helps assess the effectiveness of marketing campaigns, measure market reach, and forecast potential loan demand or the ability of platforms to meet demand. A growing investor base indicates increased trust and interest, enabling the business to scale and optimize revenue generation. The indicator should be segmented by type of investor (e.g., retail investor, institutional investor), according to local regulatory definitions.</t>
+          <t>The indicator is a metric that measures the proportion of projects on a crowdfunding platform (or the sum of all crowdfunding platforms) that successfully reach their predetermined funding goal within a specified timeframe. This indicator is a vital sign of a platform's effectiveness, credibility, and the overall health of its ecosystem. It helps gauge the ability of a platform to connect viable projects with interested backers. For MSMEs, crowdfunding can be a viable and less onerous funding source, so the indicator provids important information for monitoring development of MSME finance markets. From a market conduct perspective, while a high success rate is generally positive, an unusually high or artificially inflated rate could be a red flag for misconduct. Platforms could be setting trivially low funding goals to boost statistics,  failing to conduct proper due diligence on projects, or not being transparent about how the success rate is calculated. Successful projects is the number of projects that met or exceeded their funding target during a specific period (e.g., a month, quarter, or year).</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the growth of reatil investors in P2P lending platforms? How do invested amounts and types vary by investor gender and other demographics? For example, do women prefer to invest in women-led MSMEs, smaller projects, or younger enterprises? Do P2P platforms operated by diverse management more likely to attract a more diverse investor base?</t>
+          <t>Are there gender disparities in the success rates of crowdfunding projects? Are smaller or younger MSMEs headed by women more likely to face challenges in crowdfunding?</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Other</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Usage, Statistics and research</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -9544,37 +9574,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Total investment fund shares</t>
+          <t>Crowdfunding - Transactions</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Number of investment fund shares held by retail investors in the system</t>
+          <t>Volume (number of offerings) and value (amount raised) of crowdfunding transactions</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Market-wide metric that quantifies the volume of investment fund shares owned by individual, non-professional investors within a financial system. This market develoment indicator serves as a crucial gauge of retail investor participation in the capital markets, and their overall exposure to market risks. Companion indicators include the share of investment fund shares held by retail investors as percentage of total investment fund shares, and the average holding size by retail investors.</t>
+          <t>Metric that measures the total volume of individual investments or pledges made across all projects on a crowdfunding platform or in the entire market (across multiple platforms) over a specific period. This indicator is a direct measure of market activity and investor engagement with crowdfunding, which is increasingly important for MSME finance.</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>How has participation in investment funds evolved by gender, both for individuals and MSMEs considering the gender of their owners? What types of investment funds show growing participation by women?</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Statistics &amp; research</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Uptake (account ownership), Other</t>
+          <t>Are there disparities in crowdfunding volumes and values raised, according to the gender of the MSMEs asking for funds? Are there disparities in terms of funding periods? Among women-owned MSMEs, which types and ages (years in operation) are driving growth in crowdfunding transactions? Are crowdfunding platforms operated by diverse management more likely to attract women-owned MSMEs, and young MSMEs headed by women?</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -9591,182 +9611,162 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>Capital markets development</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>P2P - Investors</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Number of P2P investors</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>This indicator counts the number of investors registered in P2P lending platforms, as a measure of development of digital finance, and specifically P2P lending, which can potentially benefit MSMEs. It is a key metric to monitor market development in platform lending. It helps assess the effectiveness of marketing campaigns, measure market reach, and forecast potential loan demand or the ability of platforms to meet demand. A growing investor base indicates increased trust and interest, enabling the business to scale and optimize revenue generation. The indicator should be segmented by type of investor (e.g., retail investor, institutional investor), according to local regulatory definitions.</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Are there gender disparities in the growth of reatil investors in P2P lending platforms? How do invested amounts and types vary by investor gender and other demographics? For example, do women prefer to invest in women-led MSMEs, smaller projects, or younger enterprises? Do P2P platforms operated by diverse management more likely to attract a more diverse investor base?</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Market development</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Capital markets development</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Total investment fund shares</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Number of investment fund shares held by retail investors in the system</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Market-wide metric that quantifies the volume of investment fund shares owned by individual, non-professional investors within a financial system. This market develoment indicator serves as a crucial gauge of retail investor participation in the capital markets, and their overall exposure to market risks. Companion indicators include the share of investment fund shares held by retail investors as percentage of total investment fund shares, and the average holding size by retail investors.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>How has participation in investment funds evolved by gender, both for individuals and MSMEs considering the gender of their owners? What types of investment funds show growing participation by women?</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Statistics &amp; research</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Uptake (account ownership), Other</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Market development</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>Savings</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>Depositors who actively close deposit accounts</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t xml:space="preserve">% of retail depositors who actively closed a deposit account
 </t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>A measure of the incidence of account closing among depositors, if the measure is high, it could potentially signal issues with the quality of accounts or concerns about the safety of funds. !- Definitions and concepts: Deposit accounts include transaction and non-transaction deposit accounts, for example: Checking/demand, savings, time/term deposit accounts, pensions. 'Active' closure of an account refers to cases where the closure is initiated at the request of the customer, and not due to inactivity or dormancy. !- Data requirements: List of unique deposit account holders (i.e. an individual  must be counted as one depositor irrespective of the number of deposit accounts held) who actively close any of their accounts over a specified period of time (e.g. quarter or year); Total number of unique depositors at the beginning of the specified period.</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>How do active closure rates compare by gender? Which types of accounts are most frequently closed by each gender? How do FSPs rank in active account closures, and does this ranking change when analyzed by gender?</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
         <is>
           <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>Quality, Fair treatment, Soundness, Stability</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Market development</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Competition</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Savings, Credit</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>267</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Interest rate spreads (loans)</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Difference between the average lending rate and a reference rate (e.g. deposit rate or external reference rate)</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>The interest-rate spread on loans captures the margin between the average contractual rate a lender charges borrowers and an external reference rate—typically the policy rate. It is a concise gauge of (i) lenders’ credit-risk pricing, (ii) competitive conditions in the lending market, and (iii) monetary-policy transmission. Wider spreads may reflect higher perceived borrower risk, limited competition, or funding-cost pressures; persistently narrow spreads can point to aggressive underwriting or excess liquidity that may undermine future asset quality. Tracked over time and across peer institutions, interest-rate spreads provide insights into credit-cycle turning points, profitability dynamics, and the effectiveness of monetary-policy signals reaching the real economy. !- Definitions and concepts:  Loan interest rate spread (simple): Average contractual loan rate minus Reference rate measured for new originations or for the stock of loans. Net lending spread: average loan rate minus average deposit rate, often used when policy benchmarks are volatile. Segmented spreads: calculated by product (e.g., mortgages, SMEs, credit cards). Non-interest charges: fees and cross-selling income are excluded; the true all-in lending margin may be higher.</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Are there gender disparities in interest rate spreads offered to borrowers, and how do these differences vary across regions, income levels, and types of financial service providers? Do women or other gender groups consistently face higher lending rates relative to reference rates compared to men, potentially indicating unequal credit costs? How do interest rate spreads differ by loan type or sector, and are there gender patterns in these variations? Are financial service providers with higher gender diversity more likely to offer more equitable interest rate spreads across gender groups? How do differences in interest rate spreads impact borrowing behavior and access to credit for different gender groups?</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Data privacy and protection, Operational risk</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Market development</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Competition</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Open finance - % of customers that have given data sharing consent to FSPs</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>% of all customers that have given consent to participate in the open finance scheme</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>The indicator shows how many customers have actively opted in to share their data via the open finance rails (e.g., with account information service providers or payment initiation service providers). A higher share signals trust, clear value propositions, and mature consent customer interfaces (mobile apps); a low or falling rate may reflect friction in UX or Strong Customer Authentication (SCA), poor messaging, or privacy concerns. It’s a headline adoption KPI for open finance schemes. !- Definitions and concepts: Explicit consent: a clear, affirmative action tied to a specific purpose with the ability to manage and withdraw. Active consent: valid as of the reference date (not expired/withdrawn). Open finance consenting customers (%) = [# unique customers with at least 1 open finance consent / # eligible customers] x 100%. Denominator options: all active retail/MSME customers (preferred) or customers with eligible accounts (state choice). Segment by purpose of consent, scope (accounts included), and channel (mobile/web). Duplication &amp; scope: a customer may hold multiple consents across TPPs; count unique customers, and compare with total count of consents. Lawful-basis nuance: exclude sharing done under contractual necessity or legal obligation (e.g., consultation to credit bureaus for a loan application)—this metric is about explicit consent only.</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Are there gender disparities in data-sharing consent within the open finance scheme, including for MSMEs based on the ownership gender and low-value accounts? What types of accounts are more commonly subject to data-sharing consents? Which types of FSPs have a higher percentage of customers who have given data-sharing consent, and do these percentages vary by gender? If the information is available, what are the most common types and terms for these consents?</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>Consumer protection; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Data privacy and protection, Reputational and legal risk</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -9783,32 +9783,32 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Savings, Credit</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Open finance - API availability</t>
+          <t>Interest rate spreads (loans)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Average % of time APIs are available</t>
+          <t>Difference between the average lending rate and a reference rate (e.g. deposit rate or external reference rate)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Shows the proportion of clock time that open finance endpoints can successfully serve requests. High availability is critical for data users such as third-party providers (TPPs) to deliver reliable account information and payment initiation; poor uptime breaks customer journeys, breaches SLAs/SLOs, and can trigger regulatory scrutiny in open finance schemes. !- Definitions and concepts: Availability (uptime):  time-weighted share of intervals in which an endpoint meets both reachability and success criteria. Scope — include account information service, payment initiation service, consent/token endpoints, and webhooks if they’re required for completion. Planned vs. unplanned:  exclude planned maintenance time; report maintenance windows separately. SLO period: availability is usually measured monthly/quarterly (e.g., 99.9% per calendar month), but preferably in shorter periods (e.g., weekly, daily). Granularity: overall availability, by endpoint family, region/zone, and time of day. Example indicator: Availability = 1 - [Downtime / Total scheduled time] where Downtime aggregates intervals failing the success criterion (5xx gateway/network timeouts, auth outages, or latency breaches). !- Limitations and considerations: Including latency SLOs will lower availability vs. status-only measurements. Publish thresholds.</t>
+          <t>The interest-rate spread on loans captures the margin between the average contractual rate a lender charges borrowers and an external reference rate—typically the policy rate. It is a concise gauge of (i) lenders’ credit-risk pricing, (ii) competitive conditions in the lending market, and (iii) monetary-policy transmission. Wider spreads may reflect higher perceived borrower risk, limited competition, or funding-cost pressures; persistently narrow spreads can point to aggressive underwriting or excess liquidity that may undermine future asset quality. Tracked over time and across peer institutions, interest-rate spreads provide insights into credit-cycle turning points, profitability dynamics, and the effectiveness of monetary-policy signals reaching the real economy. !- Definitions and concepts:  Loan interest rate spread (simple): Average contractual loan rate minus Reference rate measured for new originations or for the stock of loans. Net lending spread: average loan rate minus average deposit rate, often used when policy benchmarks are volatile. Segmented spreads: calculated by product (e.g., mortgages, SMEs, credit cards). Non-interest charges: fees and cross-selling income are excluded; the true all-in lending margin may be higher.</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Open finance performance will vary across FSPs for a range of reasons such as their current data architecture and other firm-specific aspects. The objective of looking into this indicator from a gender perspective is to identify whether FSPs that concentrate underserved, low-income women and women-led MSMEs also present poor open finance performance. This indicator can be analyzed together with other open finance performance indicators (Unsuccessful API calls, API response time), and open finance adoption indicators (% customer that have given consent, payment initiation transactions)</t>
+          <t>Are there gender disparities in interest rate spreads offered to borrowers, and how do these differences vary across regions, income levels, and types of financial service providers? Do women or other gender groups consistently face higher lending rates relative to reference rates compared to men, potentially indicating unequal credit costs? How do interest rate spreads differ by loan type or sector, and are there gender patterns in these variations? Are financial service providers with higher gender diversity more likely to offer more equitable interest rate spreads across gender groups? How do differences in interest rate spreads impact borrowing behavior and access to credit for different gender groups?</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9818,17 +9818,17 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Financial inclusion; Stability, safety and soundness</t>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Quality, Suitability, Operational risk</t>
+          <t>Data privacy and protection, Operational risk</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -9850,27 +9850,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Open finance - API error rate</t>
+          <t>Open finance - % of customers that have given data sharing consent to FSPs</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>% of all API calls that are unsuccessful</t>
+          <t>% of all customers that have given consent to participate in the open finance scheme</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>This indicator tracks the reliability of open-finance interfaces by showing what share of API requests do not complete successfully due to errors. It is a key API performance indicator monitored by financial authorities implementing open finance. High failure rates degrade customer journeys (consent, data retrieval, payment initiation), inflate support costs, and can breach SLA/SLO commitments. !- Definitions and concepts: API call (request): one HTTP request to a documented endpoint, for example: Account Information Services (AIS) data, Payment Initiatiion Services (PIS) payment, consent, token, webhook, etc. Unsuccessful call: define as per local regulation. This indicator can be collected segmented by types of errors, to be defined as per local regulation (e.g., gateway/network timeouts, invalid/expired token/consent, error in validation, authentication failures. It should also be segmented by type of endpoint, as per local categorization (e.g., account information request, payment initiation request, other). Example indicator: [# of errors  /  # total API calls] x 100%.</t>
+          <t>The indicator shows how many customers have actively opted in to share their data via the open finance rails (e.g., with account information service providers or payment initiation service providers). A higher share signals trust, clear value propositions, and mature consent customer interfaces (mobile apps); a low or falling rate may reflect friction in UX or Strong Customer Authentication (SCA), poor messaging, or privacy concerns. It’s a headline adoption KPI for open finance schemes. !- Definitions and concepts: Explicit consent: a clear, affirmative action tied to a specific purpose with the ability to manage and withdraw. Active consent: valid as of the reference date (not expired/withdrawn). Open finance consenting customers (%) = [# unique customers with at least 1 open finance consent / # eligible customers] x 100%. Denominator options: all active retail/MSME customers (preferred) or customers with eligible accounts (state choice). Segment by purpose of consent, scope (accounts included), and channel (mobile/web). Duplication &amp; scope: a customer may hold multiple consents across TPPs; count unique customers, and compare with total count of consents. Lawful-basis nuance: exclude sharing done under contractual necessity or legal obligation (e.g., consultation to credit bureaus for a loan application)—this metric is about explicit consent only.</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Open finance performance will vary across FSPs for a range of reasons such as their current data architecture and other firm-specific aspects. The objective of looking into this indicator from a gender perspective is to identify whether FSPs that concentrate underserved, low-income women and women-led MSMEs also present poor open finance performance. This indicator can be analyzed together with other open finance performance indicators (Unsuccessful API calls, API response time), and open finance adoption indicators (% customer that have given consent, payment initiation transactions)</t>
+          <t>Are there gender disparities in data-sharing consent within the open finance scheme, including for MSMEs based on the ownership gender and low-value accounts? What types of accounts are more commonly subject to data-sharing consents? Which types of FSPs have a higher percentage of customers who have given data-sharing consent, and do these percentages vary by gender? If the information is available, what are the most common types and terms for these consents?</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Financial inclusion; Stability, safety and soundness</t>
+          <t>Consumer protection; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Quality, Operational risk</t>
+          <t>Data privacy and protection, Reputational and legal risk</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -9912,329 +9912,329 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Open finance - API availability</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Average % of time APIs are available</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Shows the proportion of clock time that open finance endpoints can successfully serve requests. High availability is critical for data users such as third-party providers (TPPs) to deliver reliable account information and payment initiation; poor uptime breaks customer journeys, breaches SLAs/SLOs, and can trigger regulatory scrutiny in open finance schemes. !- Definitions and concepts: Availability (uptime):  time-weighted share of intervals in which an endpoint meets both reachability and success criteria. Scope — include account information service, payment initiation service, consent/token endpoints, and webhooks if they’re required for completion. Planned vs. unplanned:  exclude planned maintenance time; report maintenance windows separately. SLO period: availability is usually measured monthly/quarterly (e.g., 99.9% per calendar month), but preferably in shorter periods (e.g., weekly, daily). Granularity: overall availability, by endpoint family, region/zone, and time of day. Example indicator: Availability = 1 - [Downtime / Total scheduled time] where Downtime aggregates intervals failing the success criterion (5xx gateway/network timeouts, auth outages, or latency breaches). !- Limitations and considerations: Including latency SLOs will lower availability vs. status-only measurements. Publish thresholds.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Open finance performance will vary across FSPs for a range of reasons such as their current data architecture and other firm-specific aspects. The objective of looking into this indicator from a gender perspective is to identify whether FSPs that concentrate underserved, low-income women and women-led MSMEs also present poor open finance performance. This indicator can be analyzed together with other open finance performance indicators (Unsuccessful API calls, API response time), and open finance adoption indicators (% customer that have given consent, payment initiation transactions)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Quality, Suitability, Operational risk</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Market development</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Competition</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Open finance - API error rate</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>% of all API calls that are unsuccessful</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>This indicator tracks the reliability of open-finance interfaces by showing what share of API requests do not complete successfully due to errors. It is a key API performance indicator monitored by financial authorities implementing open finance. High failure rates degrade customer journeys (consent, data retrieval, payment initiation), inflate support costs, and can breach SLA/SLO commitments. !- Definitions and concepts: API call (request): one HTTP request to a documented endpoint, for example: Account Information Services (AIS) data, Payment Initiatiion Services (PIS) payment, consent, token, webhook, etc. Unsuccessful call: define as per local regulation. This indicator can be collected segmented by types of errors, to be defined as per local regulation (e.g., gateway/network timeouts, invalid/expired token/consent, error in validation, authentication failures. It should also be segmented by type of endpoint, as per local categorization (e.g., account information request, payment initiation request, other). Example indicator: [# of errors  /  # total API calls] x 100%.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Open finance performance will vary across FSPs for a range of reasons such as their current data architecture and other firm-specific aspects. The objective of looking into this indicator from a gender perspective is to identify whether FSPs that concentrate underserved, low-income women and women-led MSMEs also present poor open finance performance. This indicator can be analyzed together with other open finance performance indicators (Unsuccessful API calls, API response time), and open finance adoption indicators (% customer that have given consent, payment initiation transactions)</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>Quality, Operational risk</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Market development</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Competition</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>69</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>Open finance - API response time</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>Average API response time</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t xml:space="preserve">Shows how quickly open-finance endpoints answer requests. Faster responses improve user experience during consent, account-information retrieval, and payment initiation, reducing frictions and drop-offs. Response time is a core performance KPI that complements availability and error rate. !- Definitions and concepts: Response time (latency): elapsed time between request start and final byte received (client-observed) or gateway in → gateway out (server-observed). Track both when possible. Averages vs. tails: report p50/median, p95, p99, and the mean; tails (p95/p99) best reflect user pain. Track both. Granularity: report by endpoint family (types of APIs), potentially segmented into priority levels (see https://www.cdr.gov.au/performance). Units &amp; window: milliseconds, by calendar month (preferably shorter SLO period, such as weekly or daily).
 </t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Open finance performance will vary across FSPs for a range of reasons such as their current data architecture and other firm-specific aspects. The objective of looking into this indicator from a gender perspective is to identify whether FSPs that concentrate underserved, low-income women and women-led MSMEs also present poor open finance performance. This indicator can be analyzed together with other open finance performance indicators (Unsuccessful API calls, API response time), and open finance adoption indicators (% customer that have given consent, payment initiation transactions)</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
         <is>
           <t>Financial inclusion; Stability, safety and soundness</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>Quality, Operational risk</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="L170" t="inlineStr">
         <is>
           <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Market development</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Open finance - Payment initiation transactions</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>Number of payment initiation transactions conducted in the open finance scheme</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>Counts how many account-to-account (A2A) payment orders were successfully initiated via open-finance rails in the period. It’s a core adoption and usage KPI for Payment Initiation Services (PIS): more transactions imply growing merchant and P2P acceptance of openb finance, customer trust, and TPP–bank interoperability. !- Definitions and concepts: Payment initiation transaction (PIT): a payment order created via an authorized PISP/TPP and accepted by the ASPSP (account holder) for processing. Companion counts: Failed payment initiation transactions. Refunds/returns/chargebacks tracked separately. Sub-types: single immediate payments, scheduled payments, recurring/VRP (variable recurring payments), instant vs. ACH/batch. !- Data requirements: Total number of successful payment initiation transactions. !- Limitations and considerations: Duplicates: avoid double counting by using operation IDs.</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>Are there gender disparities in the adoption of payment initiation transactions within the open finance scheme, including for MSMEs by the owner's gender? Do FSPs with higher levels of gender diversity tend to have a larger share of diverse customers conducting payment initiation transactions?</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Market development</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Competition</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>Bundled product uptake rate</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>% of customers taking up additional products during onboarding</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>Measures the percentage of customers who acquire one or more additional financial products or services at the time of onboarding (i.e., when opening their primary account or initiating a new relationship with a financial service provider). These additional products may include insurance, savings, credit, or investment add-ons linked to the initial product. Captures the prevalence of product bundling and cross-selling practices during customer onboarding. It provides insight into market behavior, product integration, and the extent to which customers are being offered or encouraged to take multiple products simultaneously. Monitoring product bundling helps regulators and providers:
 Assess consumer choice and informed consent during onboarding; Identify potential coercive or mis-selling practices; Evaluate financial literacy and customer understanding of product combinations; Analyze the integration of complementary services (e.g., savings plus micro-insurance); Support efforts to ensure responsible cross-selling and transparent disclosure. Bundling can enhance value and convenience when responsibly designed, but may also raise conduct or affordability risks if customers are not well-informed. High bundling rates may reflect integrated product offerings or effective cross-selling, but warrant review for consent and suitability. Low rates may indicate limited product integration or narrow customer engagement at onboarding. Trends can reveal shifts in market strategy, regulatory compliance, or consumer protection outcomes. !- Definitions and concepts: Bundled product: A package of two or more financial services offered together at onboarding (e.g., transaction account + insurance or credit line). Onboarding: The process of establishing a new customer relationship, including account opening and KYC verification. Cross-selling: Offering additional, often related, financial products to a new or existing customer. Informed consent: The customer’s clear understanding and voluntary acceptance of each product taken. !- Data requirements: Bundled product uptake rate (%)=Number of customers who acquired ≥1 additional product at onboarding​/Total number of new customers onboarded. Administrative or CRM data from financial institutions on new customer onboarding and product uptake. Disaggregation by institution type, customer segment (individual, SME), region, and product category. !- Derivable indicators: Average number of products per new customer; Distribution of additional products (e.g., % taking insurance, credit, savings add-ons)</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>How many products does each gender take up on average during the onboarding stage, and how do these numbers compare? What are the gender disparities in the likelihood of adopting multiple products? Which FSPs stand out in multi-product onboarding, and does their ranking change when analyzed by gender? Note: Active usage of products should also be assessed for multiple products taken up during onboarding.</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Financial inclusion</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Financial inclusion</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>Uptake</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="L172" t="inlineStr">
         <is>
           <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Market development</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Competition</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Product portability requests</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Number of product portability requests</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Measures the volume of formal requests initiated by customers to transfer their financial product or relationship from one provider to another within a specific period. This includes activities like switching a mortgage, transferring a loan to a new lender, or moving a current account to a new bank. This indicator is a gauge of market competition, consumer empowerment, and potential frictions or risks within the financial system. Very low switching rates can indicate significant barriers to entry or anti-competitive behavior, suggesting that customers are "trapped" with their current providers due to high exit fees, complex processes, or a lack of clear alternatives. This indicator is even more important in countries where product switching platforms or open finance exist and whose effectiveness should be monitored. A companion indicator to the total number of product switch requests is the total number of switches effected in the period, in comparison to the total number of requests. Another companion indicator is the total number of requests (or successful requests) relative to the number of active customers. The central bank of Brazil has calculated the number of loan portability requests relative to the number of loans with an interest rate above the market average rates, using the number of loans with above-market interest rates as a proxy for the untapped potential of the portability system. https://www.bcb.gov.br/content/publicacoes/Documents/reb/boxesreb2020/boxe_2_evolucao_portabilidade_credito_brasil.pdf</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Are there customer gender, income and location disparities in account and loan portability or FSP switching requests? Are FSPs with higher levels of gender diversity more likely to receive portability or switching requests or be the destination FSP (rather than the origin) for such requests?</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Usage, Suitability</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Market development</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Competition</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Rejected product portability requests</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>% of all product portability requests that are rejected</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Measures the volume of formal portability requests initiated by customers to transfer their financial product or relationship from one provider to another within a specific period, which are rejected by the financial service provider. Product portability includes activities like switching a mortgage, transferring a loan to a new lender, or moving a current account to a new bank. This indicator is a gauge of market competition, consumer empowerment, and potential frictions or risks within the financial system. Very low switching rates can indicate significant barriers to entry or anti-competitive behavior, suggesting that customers are "trapped" with their current providers due to high exit fees, complex processes, or a lack of clear alternatives. This indicator is even more important in countries where product switching platforms or open finance exist and whose effectiveness should be monitored. When providers reject too many portability requests, this could be a sign of anti-competitive practices. This indicator should be analyzed together with the indicator on the total number of portability requests.</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Are there customer gender, income, and location disparities in the approval of portability requests? Are FSPs with higher levels of gender diversity more likely to approve portability requests?</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Usage, Suitability</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sustainability</t>
+          <t>Market development</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Climate and environmental objectives</t>
+          <t>Competition</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Rural credit (volume)</t>
+          <t>Product portability requests</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>% of the total retail loan portfolio that is rural credit based on volume</t>
+          <t>Number of product portability requests</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector, such as the volume of loans disbursed as a % of the total loan portfolio. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis.</t>
+          <t>Measures the volume of formal requests initiated by customers to transfer their financial product or relationship from one provider to another within a specific period. This includes activities like switching a mortgage, transferring a loan to a new lender, or moving a current account to a new bank. This indicator is a gauge of market competition, consumer empowerment, and potential frictions or risks within the financial system. Very low switching rates can indicate significant barriers to entry or anti-competitive behavior, suggesting that customers are "trapped" with their current providers due to high exit fees, complex processes, or a lack of clear alternatives. This indicator is even more important in countries where product switching platforms or open finance exist and whose effectiveness should be monitored. A companion indicator to the total number of product switch requests is the total number of switches effected in the period, in comparison to the total number of requests. Another companion indicator is the total number of requests (or successful requests) relative to the number of active customers. The central bank of Brazil has calculated the number of loan portability requests relative to the number of loans with an interest rate above the market average rates, using the number of loans with above-market interest rates as a proxy for the untapped potential of the portability system. https://www.bcb.gov.br/content/publicacoes/Documents/reb/boxesreb2020/boxe_2_evolucao_portabilidade_credito_brasil.pdf</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Are there gender disparities in participation in the rural credit portfolio, when measured by number of loans and disaggregated by loan type and type of borrower (individual or MSME)? Are these disparities more pronounced in certain types of financial service providers or geographic regions? Do FSPs with higher levels of gender diversity tend to allocate a greater share of loan volume to rural women or women-led MSMEs? Does the proportion of rural credit within the total number of loans granted to women differ significantly from that of men, and what does this reveal about access to credit by gender and location?</t>
+          <t>Are there customer gender, income and location disparities in account and loan portability or FSP switching requests? Are FSPs with higher levels of gender diversity more likely to receive portability or switching requests or be the destination FSP (rather than the origin) for such requests?</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10244,74 +10244,79 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Financial inclusion</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Usage, Suitability</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Sustainability</t>
+          <t>Market development</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Climate and environmental objectives</t>
+          <t>Competition</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Climate and other environmental risk in the credit portfolio</t>
+          <t>Rejected product portability requests</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Exposure of the credit portfolio to customers or industries with high climate (physical and transition risks) and other environmental risk</t>
+          <t>% of all product portability requests that are rejected</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>This indicator quantifies how much of the loan book is exposed to climate-related risks (physical and transition) and broader environmental risks (e.g., water stress, biodiversity loss, pollution). It helps firms and supervisors judge vulnerability to asset impairment, collateral devaluation, cash-flow shocks, and regulatory change. It also informs pricing, sector limits, and strategic portfolio alignment. Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, while the NGFS provides a range of additional defintions, including nature-related financial risks.</t>
+          <t>Measures the volume of formal portability requests initiated by customers to transfer their financial product or relationship from one provider to another within a specific period, which are rejected by the financial service provider. Product portability includes activities like switching a mortgage, transferring a loan to a new lender, or moving a current account to a new bank. This indicator is a gauge of market competition, consumer empowerment, and potential frictions or risks within the financial system. Very low switching rates can indicate significant barriers to entry or anti-competitive behavior, suggesting that customers are "trapped" with their current providers due to high exit fees, complex processes, or a lack of clear alternatives. This indicator is even more important in countries where product switching platforms or open finance exist and whose effectiveness should be monitored. When providers reject too many portability requests, this could be a sign of anti-competitive practices. This indicator should be analyzed together with the indicator on the total number of portability requests.</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>How is FSP gender diversity and the gender composition of the customer base correlated with climate-related financial risks (physical and transition) and other environmental risks?</t>
+          <t>Are there customer gender, income, and location disparities in the approval of portability requests? Are FSPs with higher levels of gender diversity more likely to approve portability requests?</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Other; Stability, safety and soundness</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Statistics and research, Credit risk, Stability</t>
+          <t>Usage, Suitability</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Product type</t>
         </is>
       </c>
     </row>
@@ -10333,42 +10338,47 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>330</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Exposure to polluting firms/industries</t>
+          <t>Rural credit (volume)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Number of loans and total exposure of the credit portfolio to pollutting firms/industries</t>
+          <t>% of the total retail loan portfolio that is rural credit based on volume</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>This indicator quantifies how much of the loan book is exposed to borrowers classified as big polluters (e.g., fossil fuel industry). The definition of polluting borrowers or activity varies widely across countries and the indicator should be aligned with national definitions. The EU uses a range of similar indicators: https://www.ecb.europa.eu/stats/all-key-statistics/horizontal-indicators/sustainability-indicators/data/html/ecb.climate_indicators_carbon_emissions.en.html</t>
+          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector, such as the volume of loans disbursed as a % of the total loan portfolio. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis.</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>How is FSP gender diversity correlated with lending to high polluters?</t>
+          <t>Are there gender disparities in participation in the rural credit portfolio, when measured by number of loans and disaggregated by loan type and type of borrower (individual or MSME)? Are these disparities more pronounced in certain types of financial service providers or geographic regions? Do FSPs with higher levels of gender diversity tend to allocate a greater share of loan volume to rural women or women-led MSMEs? Does the proportion of rural credit within the total number of loans granted to women differ significantly from that of men, and what does this reveal about access to credit by gender and location?</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Stability, safety and soundness</t>
+          <t>Financial inclusion</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Credit risk, Stability</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -10390,37 +10400,37 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>124</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Financed emissions (Carbon footprint of credit portfolio)</t>
+          <t>Climate and other environmental risk in the credit portfolio</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Contribution of the financial sector to emissions (debtor's emissions financed by the financial sector via loan and securities portfolios)</t>
+          <t>Exposure of the credit portfolio to customers or industries with high climate (physical and transition risks) and other environmental risk</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>This indicator, also known as carbon footprint, quantifies how much carbon emission the loan book is financing, by estimating the carbon emissions of financed activities and clients. The standardized calculations of emissions vary across countries and the indicator should align with national practices. In the EU, ther financed emissions (FE) indicator provides information on the financing of high-emitting economic activities. It tracks the amount of total carbon emissions from non-financial corporations (borrowers) that can be linked to funding from financial institutions, based on a set of identifiable securities and loan portfolios. See https://www.ecb.europa.eu/stats/all-key-statistics/horizontal-indicators/sustainability-indicators/data/html/ecb.climate_indicators_carbon_emissions.en.html</t>
+          <t>This indicator quantifies how much of the loan book is exposed to climate-related risks (physical and transition) and broader environmental risks (e.g., water stress, biodiversity loss, pollution). It helps firms and supervisors judge vulnerability to asset impairment, collateral devaluation, cash-flow shocks, and regulatory change. It also informs pricing, sector limits, and strategic portfolio alignment. Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, while the NGFS provides a range of additional defintions, including nature-related financial risks.</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>How is FSP gender diversity correlated with financed emissions of the loan and securities portfolio?</t>
+          <t>How is FSP gender diversity and the gender composition of the customer base correlated with climate-related financial risks (physical and transition) and other environmental risks?</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Stability, safety and soundness</t>
+          <t>Other; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Credit risk, Stability</t>
+          <t>Statistics and research, Credit risk, Stability</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -10447,42 +10457,42 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Green/sustainable loans</t>
+          <t>Exposure to polluting firms/industries</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>% of all loans labelled as green or sustainable</t>
+          <t>Number of loans and total exposure of the credit portfolio to pollutting firms/industries</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>This indicator shows the share of a regulated lender’s aggregate loan book that is formally designated green, social, or sustainable. A higher percentage signals that credit is being channelled toward activities aligned with climate-transition and inclusive-growth objectives, helping regulators gauge progress against national or international sustainable-finance targets and identify institutions with elevated exposure to taxonomy-related reputation or compliance risks. The indicator is an input for green-asset-ratio disclosures and climate-stress-testing frameworks. !- Definitions and concepts: definition of green / sustainable loan varies widely across countries and should align with local frameworks. !- Data requirements: Loan-level tagging for use-of-proceeds or sustainability-performance targets, mapped to the applicable taxonomy code. Up-to-date balances to build the numerator and denominator. Dynamic criteria: Ongoing revisions to reference taxonomies may reclassify loans ex-post, creating series breaks.</t>
+          <t>This indicator quantifies how much of the loan book is exposed to borrowers classified as big polluters (e.g., fossil fuel industry). The definition of polluting borrowers or activity varies widely across countries and the indicator should be aligned with national definitions. The EU uses a range of similar indicators: https://www.ecb.europa.eu/stats/all-key-statistics/horizontal-indicators/sustainability-indicators/data/html/ecb.climate_indicators_carbon_emissions.en.html</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Are there gender, location, and income disparities in access to green and sustainable loans, including those aimed at climate adaptation and resilience? How do these disparities intersect with factors such as age and sector of activity? Are women or other gender groups underrepresented among borrowers of green loans, and what barriers might contribute to this? Do financial service providers with higher levels of gender diversity tend to have relatively larger and more inclusive green/sustainable loan portfolios? How do repayment patterns and loan terms for green loans differ by gender, and what implications do these have for promoting equitable access to climate finance?</t>
+          <t>How is FSP gender diversity correlated with lending to high polluters?</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Financial inclusion; Other; Stability, safety and soundness</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Uptake, Statistics and research, Impact</t>
+          <t>Credit risk, Stability</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -10504,47 +10514,42 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>129</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Rural credit (outstanding balance)</t>
+          <t>Financed emissions (Carbon footprint of credit portfolio)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>% of the total retail loan portfolio that is rural credit based on outstanding balance</t>
+          <t>Contribution of the financial sector to emissions (debtor's emissions financed by the financial sector via loan and securities portfolios)</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis. !- Data requirements: Loan account level data, with details on date of disbursements, size of loan, payment schedule and repayments to date. Loan-level detail should have an existing agricultural classification or description of loan to enable classification.</t>
+          <t>This indicator, also known as carbon footprint, quantifies how much carbon emission the loan book is financing, by estimating the carbon emissions of financed activities and clients. The standardized calculations of emissions vary across countries and the indicator should align with national practices. In the EU, ther financed emissions (FE) indicator provides information on the financing of high-emitting economic activities. It tracks the amount of total carbon emissions from non-financial corporations (borrowers) that can be linked to funding from financial institutions, based on a set of identifiable securities and loan portfolios. See https://www.ecb.europa.eu/stats/all-key-statistics/horizontal-indicators/sustainability-indicators/data/html/ecb.climate_indicators_carbon_emissions.en.html</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the share of the outstanding retail loan portfolio held by rural borrowers, disaggregated by gender and type of borrower? Are these disparities more significant in specific regions or FSP types? Do rural women hold a lower share of outstanding balances, and could this reflect differences in loan size, duration, or repayment behavior? How does the share of rural credit within the total outstanding credit held by women compare to that of men, and what does it suggest about the gendered distribution of long-term credit in rural areas?</t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>How is FSP gender diversity correlated with financed emissions of the loan and securities portfolio?</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection</t>
+          <t>Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Uptake, Impact</t>
+          <t>Credit risk, Stability</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -10566,42 +10571,37 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Rural credit (principal disbursed)</t>
+          <t>Green/sustainable loans</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>% of the total retail loan portfolio that is rural credit based on principal disbursed</t>
+          <t>% of all loans labelled as green or sustainable</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis. !- Data requirements: Loan account level data, with details on date of disbursements, size of loan, payment schedule and repayments to date. Loan-level detail should have an existing agricultural classification or description of loan to enable classification.</t>
+          <t>This indicator shows the share of a regulated lender’s aggregate loan book that is formally designated green, social, or sustainable. A higher percentage signals that credit is being channelled toward activities aligned with climate-transition and inclusive-growth objectives, helping regulators gauge progress against national or international sustainable-finance targets and identify institutions with elevated exposure to taxonomy-related reputation or compliance risks. The indicator is an input for green-asset-ratio disclosures and climate-stress-testing frameworks. !- Definitions and concepts: definition of green / sustainable loan varies widely across countries and should align with local frameworks. !- Data requirements: Loan-level tagging for use-of-proceeds or sustainability-performance targets, mapped to the applicable taxonomy code. Up-to-date balances to build the numerator and denominator. Dynamic criteria: Ongoing revisions to reference taxonomies may reclassify loans ex-post, creating series breaks.</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the value of new rural credit disbursed to borrowers, disaggregated by gender and borrower type? Are these disparities more evident in certain regions or financial service providers, particularly among those with less gender diversity? Do women in rural areas systematically receive smaller disbursements compared to men in similar loan categories or activities? Does the share of rural credit within the total disbursed credit to women differ significantly from that of men, and what does it indicate about access to productive credit for rural women? Has the share of credit disbursed to rural women changed over time in proportion to their role in the rural economy?</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>Are there gender, location, and income disparities in access to green and sustainable loans, including those aimed at climate adaptation and resilience? How do these disparities intersect with factors such as age and sector of activity? Are women or other gender groups underrepresented among borrowers of green loans, and what barriers might contribute to this? Do financial service providers with higher levels of gender diversity tend to have relatively larger and more inclusive green/sustainable loan portfolios? How do repayment patterns and loan terms for green loans differ by gender, and what implications do these have for promoting equitable access to climate finance?</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection</t>
+          <t>Financial inclusion; Other; Stability, safety and soundness</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Uptake (account ownership), Impact</t>
+          <t>Uptake, Statistics and research, Impact</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -10623,47 +10623,52 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>331</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Green/sustainable insurance</t>
+          <t>Rural credit (outstanding balance)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>% of all insurance policies that are green or sustainable</t>
+          <t>% of the total retail loan portfolio that is rural credit based on outstanding balance</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>This indicator shows the share of an insurer's aggregate policy portfolio that is formally designated green, social, or sustainable. A higher percentage signals that insurance being channelled toward activities aligned with climate-transition and inclusive-growth objectives (e.g., crop insurance for agroforestry), helping regulators gauge progress against national or international sustainable-finance targets. !- Definitions and concepts: definition of green / sustainable insurance varies widely across countries and should align with local frameworks. !- Data requirements: Policy-level tagging for sustainability-performance targets, mapped to the applicable taxonomy code.</t>
+          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis. !- Data requirements: Loan account level data, with details on date of disbursements, size of loan, payment schedule and repayments to date. Loan-level detail should have an existing agricultural classification or description of loan to enable classification.</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Are there disparities by gender, income, and location in the likelihood of acquiring green or sustainable insurance products, including climate resilience coverage? Are certain gender groups underserved in this market? Do financial service providers (FSPs) with higher levels of gender diversity tend to maintain larger or more diverse green/sustainable insurance portfolios?</t>
+          <t>Are there gender disparities in the share of the outstanding retail loan portfolio held by rural borrowers, disaggregated by gender and type of borrower? Are these disparities more significant in specific regions or FSP types? Do rural women hold a lower share of outstanding balances, and could this reflect differences in loan size, duration, or repayment behavior? How does the share of rural credit within the total outstanding credit held by women compare to that of men, and what does it suggest about the gendered distribution of long-term credit in rural areas?</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Financial inclusion; Other</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Usage, Statistics and research</t>
+          <t>Uptake, Impact</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -10680,47 +10685,52 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>332</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Holdings of green/sustainable bonds</t>
+          <t>Rural credit (principal disbursed)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Volume (holdings) and value (amount outstanding) of sustainable/green bonds</t>
+          <t>% of the total retail loan portfolio that is rural credit based on principal disbursed</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>The indicator measures the aggregate value and volume of green and/or sustainability bonds held by investors, reflecting capital directed towards projects and activities with positive environmental or social impacts. It is a measure of sustainable finance. The definition of sustainable or green bond varies widely across countries and the indicator should align with local practices. An example of definition is provided by the Green Bond Principles (GBP), by the International Capital Markets Association (ICMA) https://www.icmagroup.org/sustainable-finance/the-principles-guidelines-and-handbooks/green-bond-principles-gbp/</t>
+          <t>An indicator of rural credit is a metric used to analyze and quantify the performance, accessibility, and impact of lending to the agricultural sector. In many countries, this indicator is essential to monitor compliance with minimum lending targets imposed on the financial or the banking sector. This indicator helps in assessing the effectiveness of national agricultural finance policies, including subsidies made available to lenders. It should be analyzed together with other indicators such as total number of rural credit contracts, average size of rural credit operations and, when data is available, indicators that highlight which types of clients are benefiting from rural credit, such as farmers classified as smallholders or family farmers. Segmentation by sector and geographic location enrich the analysis. !- Data requirements: Loan account level data, with details on date of disbursements, size of loan, payment schedule and repayments to date. Loan-level detail should have an existing agricultural classification or description of loan to enable classification.</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the acquisition/holding of green/sustainable bonds? Are FSPs with higher levels of gender diversity more likely to distribute sustainable or green bonds to a more diverse investor base?  Comparing this with gender diversity at FSPs, are institutions with higher levels of gender diversity more likely to have larger green/sustainable portfolios?</t>
+          <t>Are there gender disparities in the value of new rural credit disbursed to borrowers, disaggregated by gender and borrower type? Are these disparities more evident in certain regions or financial service providers, particularly among those with less gender diversity? Do women in rural areas systematically receive smaller disbursements compared to men in similar loan categories or activities? Does the share of rural credit within the total disbursed credit to women differ significantly from that of men, and what does it indicate about access to productive credit for rural women? Has the share of credit disbursed to rural women changed over time in proportion to their role in the rural economy?</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Other; Market development</t>
+          <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Statistics and research, Sustainability</t>
+          <t>Uptake (account ownership), Impact</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -10737,47 +10747,47 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>58</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Issuances of green/sustainable bonds</t>
+          <t>Green/sustainable insurance</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Volume (issuances) and value (amount outstanding) of sustainable/green bonds</t>
+          <t>% of all insurance policies that are green or sustainable</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>This indicator tracks the number and, more commonly, the face value (in USD, EUR or local currency) of bonds labelled green, social, sustainability or sustainability-linked that reach primary markets in a given period. By capturing how much fresh capital is being channelled explicitly toward environmentally and/or socially beneficial projects, it offers a tangible gauge of the financial sector’s contribution to the transition to a low-carbon, inclusive economy. Policymakers use the series to monitor progress against climate-finance targets, assess the effectiveness of incentives such as tax exemptions or regulatory relief, and spot market slow-downs that could jeopardise net-zero pathways. The definition of sustainable or green bond varies widely across countries and the indicator should align with local practices. An example of definition is provided by the Green Bond Principles (GBP), by the International Capital Markets Association (ICMA) https://www.icmagroup.org/sustainable-finance/the-principles-guidelines-and-handbooks/green-bond-principles-gbp/</t>
+          <t>This indicator shows the share of an insurer's aggregate policy portfolio that is formally designated green, social, or sustainable. A higher percentage signals that insurance being channelled toward activities aligned with climate-transition and inclusive-growth objectives (e.g., crop insurance for agroforestry), helping regulators gauge progress against national or international sustainable-finance targets. !- Definitions and concepts: definition of green / sustainable insurance varies widely across countries and should align with local frameworks. !- Data requirements: Policy-level tagging for sustainability-performance targets, mapped to the applicable taxonomy code.</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Do companies with higher levels of gender diversity issue more green bonds? Are FSPs with higher levels of gender diversity more likely to distribute sustainable or green bonds?</t>
+          <t>Are there disparities by gender, income, and location in the likelihood of acquiring green or sustainable insurance products, including climate resilience coverage? Are certain gender groups underserved in this market? Do financial service providers (FSPs) with higher levels of gender diversity tend to maintain larger or more diverse green/sustainable insurance portfolios?</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Financial inclusion; Other; Market development</t>
+          <t>Financial inclusion; Other</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Usage, Statistics and research, Sustainability</t>
+          <t>Usage, Statistics and research</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -10794,47 +10804,47 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Savings, Credit, Insurance, Pensions</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Climate and other environmental risks in the investment portoflio</t>
+          <t>Holdings of green/sustainable bonds</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Exposure of the investment portfolio to industries with high climate and other environmental risks</t>
+          <t>Volume (holdings) and value (amount outstanding) of sustainable/green bonds</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>This indicator quantifies how much of the investment book is exposed to climate-related risks (physical and transition) and broader environmental risks (e.g., water stress, biodiversity loss, pollution). It helps firms and supervisors judge vulnerability to asset impairment and regulatory change. Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, while the NGFS provides a range of additional definitions, including nature-related financial risks.</t>
+          <t>The indicator measures the aggregate value and volume of green and/or sustainability bonds held by investors, reflecting capital directed towards projects and activities with positive environmental or social impacts. It is a measure of sustainable finance. The definition of sustainable or green bond varies widely across countries and the indicator should align with local practices. An example of definition is provided by the Green Bond Principles (GBP), by the International Capital Markets Association (ICMA) https://www.icmagroup.org/sustainable-finance/the-principles-guidelines-and-handbooks/green-bond-principles-gbp/</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>How is FSP gender diversity correlated with climate-related financial risks and other environmental risks arising from the investment portfolio of insurers and banks?</t>
+          <t>Are there gender disparities in the acquisition/holding of green/sustainable bonds? Are FSPs with higher levels of gender diversity more likely to distribute sustainable or green bonds to a more diverse investor base?  Comparing this with gender diversity at FSPs, are institutions with higher levels of gender diversity more likely to have larger green/sustainable portfolios?</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Stability, safety and soundness</t>
+          <t>Other; Market development</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Market risk, Credit risk</t>
+          <t>Statistics and research, Sustainability</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -10846,47 +10856,52 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Gender equality</t>
+          <t>Climate and environmental objectives</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Investments</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Gender diversity at FSP (by reference workforce group)</t>
+          <t>Issuances of green/sustainable bonds</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Gender composition of FSP workforce by level of responsibility (Board, management, staff)</t>
+          <t>Volume (issuances) and value (amount outstanding) of sustainable/green bonds</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Measure used to assess the representation of different genders within a financial institution. It serves as a critical tool for evaluating a firm's commitment to inclusivity and is increasingly correlated with enhanced financial performance, risk management, and innovation. This indicator is not a single metric but a suite of measurements that can be applied across various levels of an organization. Ideally, it would be calculated at the board level, the senior management level (C suite), and the staff level. In some occasions, it can also be useful to calculate it for specific roles within the financial institution, such as branch managers, or agents, when analyzing differences in performance related to specific issues, such as consumer protection and conduct issues. In addition to being useful to monitor diversity at the system level, and its alignment with national gender equality policies, this indicator can also be used by prudential and conduct supervisors, as a growing body of knowledge points to improved financial and conduct performance of financial institutions that have a greater level of diversity. For prudential supervisors, this indicator serves as a valuable proxy for assessing a firm's health, as greater gender diversity is often correlated with stronger corporate governance, more prudent risk management, and enhanced financial stability.</t>
+          <t>This indicator tracks the number and, more commonly, the face value (in USD, EUR or local currency) of bonds labelled green, social, sustainability or sustainability-linked that reach primary markets in a given period. By capturing how much fresh capital is being channelled explicitly toward environmentally and/or socially beneficial projects, it offers a tangible gauge of the financial sector’s contribution to the transition to a low-carbon, inclusive economy. Policymakers use the series to monitor progress against climate-finance targets, assess the effectiveness of incentives such as tax exemptions or regulatory relief, and spot market slow-downs that could jeopardise net-zero pathways. The definition of sustainable or green bond varies widely across countries and the indicator should align with local practices. An example of definition is provided by the Green Bond Principles (GBP), by the International Capital Markets Association (ICMA) https://www.icmagroup.org/sustainable-finance/the-principles-guidelines-and-handbooks/green-bond-principles-gbp/</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Are there gender disparities in workforce participation across different types of FSPs? At what responsibility levels? How does gender diversity in FSP management correlate with key financial indicators (e.g., Stability, Financial Inclusion, Customer Protection, Sustainability)? Comparing with climate-related financial data (e.g., green loan portfolios, green insurance), does gender diversity in FSPs correlate with the growth of these portfolios? If legal or regulatory gender equity requirements exist for FSPs, are they being met? Does gender diversity correlate with variations in supervisory risk scores? How does gender diversity correlate with staff turnover (if data is available)? How does gender diversity correlate with enforcement and other supervisory actions?</t>
+          <t>Do companies with higher levels of gender diversity issue more green bonds? Are FSPs with higher levels of gender diversity more likely to distribute sustainable or green bonds?</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
+          <t>Financial inclusion; Other; Market development</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>Usage, Statistics and research, Sustainability</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -10898,42 +10913,47 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Gender equality</t>
+          <t>Climate and environmental objectives</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Savings, Credit, Insurance, Pensions</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gender diversity of customer base</t>
+          <t>Climate and other environmental risks in the investment portoflio</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Gender composition of FSP customer base</t>
+          <t>Exposure of the investment portfolio to industries with high climate and other environmental risks</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Measures the representation of different genders—women, men, and non-binary individuals—among a financial institution's clients. This metric provides insights into a firm's market reach, product inclusiveness, and potential exposure to social and economic trends. This indicator can be used to monitor implementaton of gender equality targets and national policies, but also by prudential and conduct supervisors, to compare performance in other metrics, such as basic consumer risk indicators and prudential risk indicators, with the level of gender diversity of the customer base, with the purpose of finding any possible correlation.</t>
+          <t>This indicator quantifies how much of the investment book is exposed to climate-related risks (physical and transition) and broader environmental risks (e.g., water stress, biodiversity loss, pollution). It helps firms and supervisors judge vulnerability to asset impairment and regulatory change. Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, while the NGFS provides a range of additional definitions, including nature-related financial risks.</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Are there significant gender disparities in the composition of customers across different types of financial service providers (FSPs)? How does the gender diversity of the FSP customer base vary by institution size, sector, and geographic region? What correlations exist between the gender diversity of the customer base and key financial inclusion metrics such as account ownership, loan uptake, and insurance coverage? How does greater gender diversity among customers relate to customer protection outcomes, including complaint resolution and fair treatment? Are FSPs with more gender-diverse customer bases also demonstrating stronger prudential performance and sustainability indicators? How do gender disparities in the customer base influencefinancila outcomes such as Financial Health? And broader social and economic outcomes, such as women's economic empowerment, MSME growth, climate change, jobs creation or poverty reduction?</t>
+          <t>How is FSP gender diversity correlated with climate-related financial risks and other environmental risks arising from the investment portfolio of insurers and banks?</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>Market risk, Credit risk</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -10960,27 +10980,27 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Gender pay gap at FSPs</t>
+          <t>Gender diversity at FSP (by reference workforce group)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Gender pay gap at FSPs</t>
+          <t>Gender composition of FSP workforce by level of responsibility (Board, management, staff)</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Metric that measures the difference in average (or median) earnings between genders across similar functions and roles at financial institutions. Typically calculated to spot differences across men and women, but it could be expanded to include other genders. It's typically expressed as a percentage of the higher earner gender (usually men's earnings), for a given role or hierarchical level at the financial institution. Prudential supervisors can use this indicator with a focus on the safety and soundness of financial institutions. A significant gender pay gap can be an indicator of underlying governance and operational risks. for conduct supervisors, a significant gender pay gap could be an indication of potential misconduct and unfairness that could affect customers. The gender pay gap is most commonly calculated as the mean or median difference in gross earnings between all male and female employees, expressed as a percentage of the male earnings.</t>
+          <t>Measure used to assess the representation of different genders within a financial institution. It serves as a critical tool for evaluating a firm's commitment to inclusivity and is increasingly correlated with enhanced financial performance, risk management, and innovation. This indicator is not a single metric but a suite of measurements that can be applied across various levels of an organization. Ideally, it would be calculated at the board level, the senior management level (C suite), and the staff level. In some occasions, it can also be useful to calculate it for specific roles within the financial institution, such as branch managers, or agents, when analyzing differences in performance related to specific issues, such as consumer protection and conduct issues. In addition to being useful to monitor diversity at the system level, and its alignment with national gender equality policies, this indicator can also be used by prudential and conduct supervisors, as a growing body of knowledge points to improved financial and conduct performance of financial institutions that have a greater level of diversity. For prudential supervisors, this indicator serves as a valuable proxy for assessing a firm's health, as greater gender diversity is often correlated with stronger corporate governance, more prudent risk management, and enhanced financial stability.</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Are there gender disparities in compensation for similar positions or responsibilities (Board, management, staff)? How does this compare with other macro indicators related to financial stability and portfolio performance across FSPs (credit, insurance, investment funds, pensions)? Are FSPs with greater gender diversity in the Board more likely to present lower gender pay gap?</t>
+          <t>Are there gender disparities in workforce participation across different types of FSPs? At what responsibility levels? How does gender diversity in FSP management correlate with key financial indicators (e.g., Stability, Financial Inclusion, Customer Protection, Sustainability)? Comparing with climate-related financial data (e.g., green loan portfolios, green insurance), does gender diversity in FSPs correlate with the growth of these portfolios? If legal or regulatory gender equity requirements exist for FSPs, are they being met? Does gender diversity correlate with variations in supervisory risk scores? How does gender diversity correlate with staff turnover (if data is available)? How does gender diversity correlate with enforcement and other supervisory actions?</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -11012,155 +11032,155 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Gender diversity of customer base</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Gender composition of FSP customer base</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Measures the representation of different genders—women, men, and non-binary individuals—among a financial institution's clients. This metric provides insights into a firm's market reach, product inclusiveness, and potential exposure to social and economic trends. This indicator can be used to monitor implementaton of gender equality targets and national policies, but also by prudential and conduct supervisors, to compare performance in other metrics, such as basic consumer risk indicators and prudential risk indicators, with the level of gender diversity of the customer base, with the purpose of finding any possible correlation.</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Are there significant gender disparities in the composition of customers across different types of financial service providers (FSPs)? How does the gender diversity of the FSP customer base vary by institution size, sector, and geographic region? What correlations exist between the gender diversity of the customer base and key financial inclusion metrics such as account ownership, loan uptake, and insurance coverage? How does greater gender diversity among customers relate to customer protection outcomes, including complaint resolution and fair treatment? Are FSPs with more gender-diverse customer bases also demonstrating stronger prudential performance and sustainability indicators? How do gender disparities in the customer base influencefinancila outcomes such as Financial Health? And broader social and economic outcomes, such as women's economic empowerment, MSME growth, climate change, jobs creation or poverty reduction?</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Gender equality</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Gender pay gap at FSPs</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Gender pay gap at FSPs</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Metric that measures the difference in average (or median) earnings between genders across similar functions and roles at financial institutions. Typically calculated to spot differences across men and women, but it could be expanded to include other genders. It's typically expressed as a percentage of the higher earner gender (usually men's earnings), for a given role or hierarchical level at the financial institution. Prudential supervisors can use this indicator with a focus on the safety and soundness of financial institutions. A significant gender pay gap can be an indicator of underlying governance and operational risks. for conduct supervisors, a significant gender pay gap could be an indication of potential misconduct and unfairness that could affect customers. The gender pay gap is most commonly calculated as the mean or median difference in gross earnings between all male and female employees, expressed as a percentage of the male earnings.</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Are there gender disparities in compensation for similar positions or responsibilities (Board, management, staff)? How does this compare with other macro indicators related to financial stability and portfolio performance across FSPs (credit, insurance, investment funds, pensions)? Are FSPs with greater gender diversity in the Board more likely to present lower gender pay gap?</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Gender equality</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>Human Resources Gender Index (HRGI)</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>Index based on FSPs' gender diversity policies, covering gender and employment, gender earnings, leave and work arrangements, childcare, and other benefits</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>The Human Resources Gender Index (HRGI) is a composite index that consolidates multiple HR data points to provide a holistic score of gender equality within an institution, throughout the employee lifecycle. It is not a standardized indicator. It can be defined as a weighted score that measures a financial institution's gender equality across key HR areas, including representation, remuneration, recruitment, promotion, and retention, going way beyond headcount. Potential indicator components include: representation score (gender diversity at different corporate levels), pay equality score (mean and median pay gap), gender gap in performance-based bonuses, progression score (promotion rate gender gap, recruitment score (% of women among new hires, especially at senior levels), retention score (gender gap in turnover rate).  This indicator can be used to monitor implementaton of gender equality targets and national policies, but also by prudential and conduct supervisors, to compare performance in other metrics, such as basic consumer risk indicators and prudential risk indicators, with the level of gender diversity of the customer base, with the purpose of finding any possible correlation. https://www.elibrary.imf.org/view/journals/001/2023/091/article-A001-en.xml
 .</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t xml:space="preserve">How do financial service providers (FSPs) compare in their Human Resources Gender Index (HRGI) scores? Are FSPs with higher levels of gender diversity in their workforce more likely to perform better across the various HRGI dimensions, such as recruitment, retention, promotion, and leadership representation? When comparing HRGI scores with key performance indicators (e.g., capital and liquidity, profitability, efficiency, customer satisfaction, innovation), is there evidence of a positive correlation? How do HRGI scores vary by FSP type, size, or region, and what best practices can be identified from top performers? How does HRGI performance relate to gender-related outcomes, such as gender-balanced customer bases or inclusive product offerings?
 </t>
         </is>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>Financial inclusion; Consumer protection; Stability, safety and soundness; Market development</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr">
+      <c r="L189" t="inlineStr">
         <is>
           <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Sustainability</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Gender equality</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>New licenses granted to diverse FSPs</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>% of all new licenses that are issued to diverse FSPs</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>This indicator is a measure of the gender composition of newly licensed financial institutions. It helps regulators and policy makers identify trends in the gender diversity in the financial sector by looking at the leadership of financial institutions. For fuller more complete analysis, this indicator can be complemented by an indicator of the success rate of licensing applications, considering the gender of the lead sponsor.</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>What are the trends in the number of new licenses issued to diverse FSPs?</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Other; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Statistics and research,  Stability</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Sustainability</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Gender equality</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Success rate of license applications by diverse FSPs</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>% of all license applications by diverse FSPs that are issued</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>This indicator is a measure of potential gender biases in licensing decisions by the financial authority. It helps authorities analyze the success rate of license pplications by segmenting applications by their final oucome (rejection/approval), and the gender of the lead sponsor of the application (e.g., the majority individual shareholder). The definition of lead sponsor will vary across countries and the indicator should align with local practices.</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>To what extent does the gender of individuals in leadership or control positions within the proposed FSPs influence the likelihood of obtaining a license from the regulatory authority?</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Stability, safety and soundness</t>
+          <t>Sustainability</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AML/CFT</t>
+          <t>Gender equality</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -11170,49 +11190,54 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Suspicious transaction reports</t>
+          <t>New licenses granted to diverse FSPs</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Number of suspicious transaction reports</t>
+          <t>% of all new licenses that are issued to diverse FSPs</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>The indicator tallies the suspicious transaction reports (STRs)  financial service providers file with the Financial Intelligence Unit (FIU) when they suspect financial crimes such as money-laundering and terrorism financing. A rising count can signal stronger transaction monitoring systems or higher level of potentially criminal activities. Policymakers use STR volumes, in combination with other data (e.g., investigations), to allocate investigative resources. !- Definitions and concepts: Suspicious Transaction Report (STR): a mandatory report filed when a transaction is known, suspected, or has reasonable grounds to be suspected of involving criminal proceeds or terrorist funds (FATF Rec. 20). Reporting entities: broadly, all institutions covered by the AML/CFT law, including all finacial financial service providers. !- Data requirements: FIU registry of incoming STRs, ideally tagged by date, reporting institution, sector, transaction channel, predicate crime category, and outcome (e.g., disseminated to law-enforcement), and customer gender. Data quality: Duplicate submissions, incomplete narratives, or vague suspicion reasons hamper analysis and inflate reported numbers without real value. Confidentiality constraints: Detailed STR data including customer gender may be restricted.</t>
+          <t>This indicator is a measure of the gender composition of newly licensed financial institutions. It helps regulators and policy makers identify trends in the gender diversity in the financial sector by looking at the leadership of financial institutions. For fuller more complete analysis, this indicator can be complemented by an indicator of the success rate of licensing applications, considering the gender of the lead sponsor.</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the volume of Suspiciou transaction reports (STRs) generated, including for MSMEs by the owner's gender? Are there disparities in STR statistics across FSPs with different levels of gender diversity?</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>What are the trends in the number of new licenses issued to diverse FSPs?</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Other; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>Statistics and research,  Stability</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Stability, safety and soundness</t>
+          <t>Sustainability</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AML/CFT</t>
+          <t>Gender equality</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -11222,37 +11247,32 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Systematic reporting to financial intelligence unit/office (FIU)</t>
+          <t>Success rate of license applications by diverse FSPs</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Number of transactions reported (excluding suspicious transaction reports) to FIU</t>
+          <t>% of all license applications by diverse FSPs that are issued</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>This indicator counts all objective anti-money-laundering (AML) disclosures that reporting institutions file with the FIU other than Suspicious Transaction Reports (STRs)—for example Cash / Large-Value Transaction Reports (CTRs/LCTRs), Cross-Border Currency Reports (CBCRs), Electronic Funds Transfer Reports (EFTIs), and threshold-based filings. Tracking the volume highlights how much potentially risky activity flows through the regulated system, tests the reach and effectiveness of automated monitoring engines, and helps the FIU size analytical workloads and allocate investigative resources. When combined with STR counts and outcome statistics, this indicator offers a comprehensive perspective on the preventive arm of the AML/CFT framework. !- Definitions and concepts: Objective reports: filings triggered automatically when a transaction exceeds a statutory threshold or meets a predefined typology—irrespective of suspicion. Thresholds are set at national level and vary across countries. Reporting entities: all AML-obliged financial institutions. Optional denominator metrics to enable intensity ratios: total transactions processed or number of active customers. !- Data requirements: FIU registry of objective-report filings with unique identifiers. Data-quality variance: Missing customer identifiers or incorrect codes hinder FIU analytics; robust validation routines are essential.</t>
+          <t>This indicator is a measure of potential gender biases in licensing decisions by the financial authority. It helps authorities analyze the success rate of license pplications by segmenting applications by their final oucome (rejection/approval), and the gender of the lead sponsor of the application (e.g., the majority individual shareholder). The definition of lead sponsor will vary across countries and the indicator should align with local practices.</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Are there customer gender disparities in the volume of systematic transaction reports (transactions that are not suspicious but reach regulatory thresholds for reporting) to the FIU, including for MSMEs by the owner's gender? Is there a correlation between the volume of these reports and the composition of the FSP customer base by gender? For example, do FSPs with a higher proportion of women in their customer base report a lower volume of systematic transaction reports, including those involving women? How do FSPs with different levels of gender diversity differ in the patterns of systematic reporting to the FIU?</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>To what extent does the gender of individuals in leadership or control positions within the proposed FSPs influence the likelihood of obtaining a license from the regulatory authority?</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Transaction type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -11264,37 +11284,37 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Credit risk</t>
+          <t>AML/CFT</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Gender composition of loan guarantors</t>
+          <t>Suspicious transaction reports</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Gender composition of guarantors in the retail loan portfolio</t>
+          <t>Number of suspicious transaction reports</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Measures the representation of different genders among the individuals who act as loan guarantors--pledge to repay a loan if the borrower defaults. It offers a sophisticated lens through which to view credit risk, gender-based economic disparities, and the social dynamics that underpin a loan portfolio. It can reveal hidden concentration risks. For example, if a large portion of a bank's small business loans are guaranteed by the male spouses of female entrepreneurs, the portfolio's risk profile becomes heavily correlated with the financial health and stability of that specific demographic.  This metric also provides insights into the structural barriers different genders face when seeking credit. If the data shows that female borrowers disproportionately require male guarantors (while the reverse is not true), it can signal underlying biases in credit assessment or a disparity in asset ownership. Prudential supervisors may also be interested in finding out whether the different permutations of borrower's and guarantor's gender could relate to loan performance. Conduct supervisors would use it to scrutinize lending practices for fairness and equity.</t>
+          <t>The indicator tallies the suspicious transaction reports (STRs)  financial service providers file with the Financial Intelligence Unit (FIU) when they suspect financial crimes such as money-laundering and terrorism financing. A rising count can signal stronger transaction monitoring systems or higher level of potentially criminal activities. Policymakers use STR volumes, in combination with other data (e.g., investigations), to allocate investigative resources. !- Definitions and concepts: Suspicious Transaction Report (STR): a mandatory report filed when a transaction is known, suspected, or has reasonable grounds to be suspected of involving criminal proceeds or terrorist funds (FATF Rec. 20). Reporting entities: broadly, all institutions covered by the AML/CFT law, including all finacial financial service providers. !- Data requirements: FIU registry of incoming STRs, ideally tagged by date, reporting institution, sector, transaction channel, predicate crime category, and outcome (e.g., disseminated to law-enforcement), and customer gender. Data quality: Duplicate submissions, incomplete narratives, or vague suspicion reasons hamper analysis and inflate reported numbers without real value. Confidentiality constraints: Detailed STR data including customer gender may be restricted.</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the representation of loan guarantors? What types of loans and borrowers, across different FSP types, are more likely to show gender disparities in the use of guarantors? Are there disparities in loan performance (NPLs, delinquency, interest income) depending on the gender of the guarantor?</t>
+          <t>Are there gender disparities in the volume of Suspiciou transaction reports (STRs) generated, including for MSMEs by the owner's gender? Are there disparities in STR statistics across FSPs with different levels of gender diversity?</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -11302,19 +11322,9 @@
           <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Consumer protection</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>Fair treatment</t>
-        </is>
-      </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -11326,37 +11336,37 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Credit risk</t>
+          <t>AML/CFT</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Delinquency rate in the retail loan portfolio</t>
+          <t>Systematic reporting to financial intelligence unit/office (FIU)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Volume and value of delinquent retail loans as a proportion of total retail portfolio</t>
+          <t>Number of transactions reported (excluding suspicious transaction reports) to FIU</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>The delinquency rate tracks the share of consumer loans—mortgages, credit-cards, instalment loans, auto, buy-now-pay-later, qualifying MSEs—that have fallen past due but have not yet crossed the “non-performing” threshold or been written off. Rising early-stage arrears are an early-warning signal of household stress and of future spikes in non-performing loans (NPLs), provisions and write-offs. Paired with NPL, restructuring and write-off metrics, the delinquency rate provides a forward-looking barometer of retail credit health. Supervisors and risk managers use the metric to test the effectiveness of underwriting standards, consumer disclosure, customer interfaces (for digital loans), and pricing for credit risk. !- Definitions and concepts: Loan delinquency refers to a situation in which borrowed money is not paid back as agreed. A loan becomes delinquent when a borrower misses a regular installment payment. A delinquent loan is any kind of loan that has past due payments but has yet to go into default. On a value basis, this indicator measures the total outstanding balances past due (for example greater than 1 day past due) as a share of gross retail loan balances at the end of a specified period. Operational cut-offs: Inconsistent days past due calculation (calendar days vs. business days, partial payments) hinders cross-lender comparability.</t>
+          <t>This indicator counts all objective anti-money-laundering (AML) disclosures that reporting institutions file with the FIU other than Suspicious Transaction Reports (STRs)—for example Cash / Large-Value Transaction Reports (CTRs/LCTRs), Cross-Border Currency Reports (CBCRs), Electronic Funds Transfer Reports (EFTIs), and threshold-based filings. Tracking the volume highlights how much potentially risky activity flows through the regulated system, tests the reach and effectiveness of automated monitoring engines, and helps the FIU size analytical workloads and allocate investigative resources. When combined with STR counts and outcome statistics, this indicator offers a comprehensive perspective on the preventive arm of the AML/CFT framework. !- Definitions and concepts: Objective reports: filings triggered automatically when a transaction exceeds a statutory threshold or meets a predefined typology—irrespective of suspicion. Thresholds are set at national level and vary across countries. Reporting entities: all AML-obliged financial institutions. Optional denominator metrics to enable intensity ratios: total transactions processed or number of active customers. !- Data requirements: FIU registry of objective-report filings with unique identifiers. Data-quality variance: Missing customer identifiers or incorrect codes hinder FIU analytics; robust validation routines are essential.</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Are there gender disparities (including for MSMEs based on the gender of ownership) in delinquency rates (also considering the number of unpaid installments) for loans of different types, terms and sizes? Do smaller loans have lower delinquency rates and how does this vary across genders? Do FSPs with higher levels of gender diversity present lower delinquency rates?</t>
+          <t>Are there customer gender disparities in the volume of systematic transaction reports (transactions that are not suspicious but reach regulatory thresholds for reporting) to the FIU, including for MSMEs by the owner's gender? Is there a correlation between the volume of these reports and the composition of the FSP customer base by gender? For example, do FSPs with a higher proportion of women in their customer base report a lower volume of systematic transaction reports, including those involving women? How do FSPs with different levels of gender diversity differ in the patterns of systematic reporting to the FIU?</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11364,19 +11374,9 @@
           <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>Outcomes, Suitability, Credit risk</t>
-        </is>
-      </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type</t>
+          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Transaction type</t>
         </is>
       </c>
     </row>
@@ -11398,27 +11398,27 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Non performing loans (NPLs) in the retail portfolio</t>
+          <t>Gender composition of loan guarantors</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Non performing loans rate in the retail/MSME loan portfolio</t>
+          <t>Gender composition of guarantors in the retail loan portfolio</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>The NPL indicator for the retail loan portfolio quantifies the share (or absolute value) of consumer and MSE loans that are unlikely to be fully repaid. Because retail credit typically involves high volumes of granular, often unsecured exposures, a build-up of NPLs signals mounting credit risk costs, pressure on provisioning, and potential stress. Supervisors track this metric to assess lenders' underwriting standards, resilience to economic shocks, and the effectiveness of arrears management. !- Definitions and concepts: An NPL is defined as a loan that is past-due for a minimum amount of days (e.g., 90 days). The definition can vary across countries but the Basel Committee has set common standards. The retail portfolio encompasses exposures to individuals and qualifying MSMEs treated under the retail asset class. The most common ratio is Gross NPLs ÷ Gross retail loans. Aggressive charge-offs or “evergreening” can temporarily lower the NPL ratio without improving underlying asset quality. Seasonality and relief measures: Payment holidays or pandemic moratoria may defer delinquencies, masking latent credit risk.</t>
+          <t>Measures the representation of different genders among the individuals who act as loan guarantors--pledge to repay a loan if the borrower defaults. It offers a sophisticated lens through which to view credit risk, gender-based economic disparities, and the social dynamics that underpin a loan portfolio. It can reveal hidden concentration risks. For example, if a large portion of a bank's small business loans are guaranteed by the male spouses of female entrepreneurs, the portfolio's risk profile becomes heavily correlated with the financial health and stability of that specific demographic.  This metric also provides insights into the structural barriers different genders face when seeking credit. If the data shows that female borrowers disproportionately require male guarantors (while the reverse is not true), it can signal underlying biases in credit assessment or a disparity in asset ownership. Prudential supervisors may also be interested in finding out whether the different permutations of borrower's and guarantor's gender could relate to loan performance. Conduct supervisors would use it to scrutinize lending practices for fairness and equity.</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the rates of non-performing loans (NPL) within retail/MSME portfolios, and how do these differences vary by age, income levels, geographic location, and types of financial service providers? Do women or other gender groups exhibit different patterns of loan repayment and default compared to men, and what factors might explain these variations? How do NPL rates differ across loan types, and are portfolios with higher female borrower participation associated with lower or higher NPL ratios? Are financial service providers with greater gender diversity in their workforce or leadership more effective at managing NPLs equitably across genders? What insights do gender-disaggregated NPL data provide regarding credit risk, financial resilience, and inclusion of vulnerable or underserved gender groups?</t>
+          <t>Are there gender disparities in the representation of loan guarantors? What types of loans and borrowers, across different FSP types, are more likely to show gender disparities in the use of guarantors? Are there disparities in loan performance (NPLs, delinquency, interest income) depending on the gender of the guarantor?</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -11428,17 +11428,17 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
+          <t>Consumer protection</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Quality, Suitability, Stability</t>
+          <t>Fair treatment</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type</t>
         </is>
       </c>
     </row>
@@ -11460,27 +11460,27 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Restructured loans</t>
+          <t>Delinquency rate in the retail loan portfolio</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Volume and value of restructured loans as a proportion of total retail/MSME portfolio</t>
+          <t>Volume and value of delinquent retail loans as a proportion of total retail portfolio</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>The restructured loans indicator tracks the portion of a lender's credit portfolio whose contractual terms have been modified to relieve a borrower in financial difficulty—by lowering the interest rate, extending maturity, granting grace periods, converting currency, or partially forgiving principal, or a mix of these. A rising stock signals mounting credit stress, latent loss risk, or even internal frauds or mismagement. While restructurings can help viable borrowers bridge a temporary shock, they may defer recognition of non-performing loans (NPLs). Supervisors watch both the level and the flow of restructurings to detect “ever-greening”. !- Definitions and concepts: Restructured (or renegotiated / forborne) loan: an exposure whose cash-flow terms have been modified for credit risk reasons and would not have been granted under comparable market conditions. Local definitions vary, while standard setting bodies such as the Basel Committe and IFRS have provided common standards. Indicator formula: Restructured loans ÷ Gross loans (stock measure). !- Limitations and considerations: Regulatory divergence: Some jurisdictions treat any concession as a restructuring; others exclude purely administrative changes, hampering cross-country comparisons. Forbearance episodes: Crisis-era moratoria or government-mandated payment holidays may inflate restructuring volumes temporarily, masking true borrower weakness. Portfolio mix effects: High-yield consumer portfolios often show higher restructuring rates than collateralised mortgages; segment analysis is essential.</t>
+          <t>The delinquency rate tracks the share of consumer loans—mortgages, credit-cards, instalment loans, auto, buy-now-pay-later, qualifying MSEs—that have fallen past due but have not yet crossed the “non-performing” threshold or been written off. Rising early-stage arrears are an early-warning signal of household stress and of future spikes in non-performing loans (NPLs), provisions and write-offs. Paired with NPL, restructuring and write-off metrics, the delinquency rate provides a forward-looking barometer of retail credit health. Supervisors and risk managers use the metric to test the effectiveness of underwriting standards, consumer disclosure, customer interfaces (for digital loans), and pricing for credit risk. !- Definitions and concepts: Loan delinquency refers to a situation in which borrowed money is not paid back as agreed. A loan becomes delinquent when a borrower misses a regular installment payment. A delinquent loan is any kind of loan that has past due payments but has yet to go into default. On a value basis, this indicator measures the total outstanding balances past due (for example greater than 1 day past due) as a share of gross retail loan balances at the end of a specified period. Operational cut-offs: Inconsistent days past due calculation (calendar days vs. business days, partial payments) hinders cross-lender comparability.</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the share of restructured loans within retail/MSME loan portfolios, and how do these differences vary by age, income levels, and geographic location? Are women or other gender groups more likely to have loans restructured, potentially reflecting differences in financial vulnerability or repayment capacity? How do patterns of loan restructuring differ across loan types and sectors by gender? Do financial service providers with greater gender diversity in their workforce or leadership demonstrate more equitable practices in loan restructuring across gender groups? What do gender-disaggregated data on restructured loans reveal about the resilience and support available to borrowers facing financial stress?</t>
+          <t>Are there gender disparities (including for MSMEs based on the gender of ownership) in delinquency rates (also considering the number of unpaid installments) for loans of different types, terms and sizes? Do smaller loans have lower delinquency rates and how does this vary across genders? Do FSPs with higher levels of gender diversity present lower delinquency rates?</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11495,12 +11495,12 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Quality, Suitability</t>
+          <t>Outcomes, Suitability, Credit risk</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
+          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type</t>
         </is>
       </c>
     </row>
@@ -11522,27 +11522,32 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Large exposures</t>
+          <t>Non performing loans (NPLs) in the retail portfolio</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Large exposures as % of total capital</t>
+          <t>Non performing loans rate in the retail/MSME loan portfolio</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Tracks a lender's credit exposures to single counterparties or groups that exceed a threshold (e.g., a % of capital) and ensures none breach the regulatory cap. !- Definitions and concepts: Exposure includes on- and off-balance-sheet items. !- Data requirements: Counterparty-level exposure data, eligible capital base.</t>
+          <t>The NPL indicator for the retail loan portfolio quantifies the share (or absolute value) of consumer and MSE loans that are unlikely to be fully repaid. Because retail credit typically involves high volumes of granular, often unsecured exposures, a build-up of NPLs signals mounting credit risk costs, pressure on provisioning, and potential stress. Supervisors track this metric to assess lenders' underwriting standards, resilience to economic shocks, and the effectiveness of arrears management. !- Definitions and concepts: An NPL is defined as a loan that is past-due for a minimum amount of days (e.g., 90 days). The definition can vary across countries but the Basel Committee has set common standards. The retail portfolio encompasses exposures to individuals and qualifying MSMEs treated under the retail asset class. The most common ratio is Gross NPLs ÷ Gross retail loans. Aggressive charge-offs or “evergreening” can temporarily lower the NPL ratio without improving underlying asset quality. Seasonality and relief measures: Payment holidays or pandemic moratoria may defer delinquencies, masking latent credit risk.</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Are higher levels of gender diversity at FSPs and in their customer base correlated with lower levels of large exposures in loan operations? How are large exposures distributed across different products, gender, and locations? Do large exposures show different delinquency and NPL levels based on gender?</t>
+          <t>Are there gender disparities in the rates of non-performing loans (NPL) within retail/MSME portfolios, and how do these differences vary by age, income levels, geographic location, and types of financial service providers? Do women or other gender groups exhibit different patterns of loan repayment and default compared to men, and what factors might explain these variations? How do NPL rates differ across loan types, and are portfolios with higher female borrower participation associated with lower or higher NPL ratios? Are financial service providers with greater gender diversity in their workforce or leadership more effective at managing NPLs equitably across genders? What insights do gender-disaggregated NPL data provide regarding credit risk, financial resilience, and inclusion of vulnerable or underserved gender groups?</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -11552,12 +11557,12 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Outcomes, Safety and security, Credit risk</t>
+          <t>Quality, Suitability, Stability</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11574,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Credit risk, Soundness</t>
+          <t>Credit risk</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -11579,27 +11584,32 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Write-offs ratio</t>
+          <t>Restructured loans</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Volume and value of written off retail loans as a proportion of retail/MSME portfolio</t>
+          <t>Volume and value of restructured loans as a proportion of total retail/MSME portfolio</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>The write-offs ratio tracks the portion of the retail loan portfolio that a lender permanently removes from its balance sheet within a period because collection is deemed impossible or uneconomic. It is a forward-looking credit-risk barometer: rising write-offs shrink the loan book, erode earnings through higher impairment charges, and may reveal weaknesses in underwriting or collections. Supervisors examine the indicator alongside NPL and provisioning coverage to judge whether lenders are recognising losses promptly or postponing them through restructurings. !- Definitions and concepts: Write-offs ratio is usually expressed as (Gross retail loan write-offs during period ÷ Average gross retail loans outstanding). Write-off: an accounting action that derecognises the unrecoverable portion of a loan’s amortised cost. It does not preclude further collections, which are recognised as recoveries. !- Limitations and considerations:  Timing disparities: Institutions with aggressive 180-day charge-off policies show higher ratios than peers that delay write-offs until legal exhaustion, complicating comparisons..</t>
+          <t>The restructured loans indicator tracks the portion of a lender's credit portfolio whose contractual terms have been modified to relieve a borrower in financial difficulty—by lowering the interest rate, extending maturity, granting grace periods, converting currency, or partially forgiving principal, or a mix of these. A rising stock signals mounting credit stress, latent loss risk, or even internal frauds or mismagement. While restructurings can help viable borrowers bridge a temporary shock, they may defer recognition of non-performing loans (NPLs). Supervisors watch both the level and the flow of restructurings to detect “ever-greening”. !- Definitions and concepts: Restructured (or renegotiated / forborne) loan: an exposure whose cash-flow terms have been modified for credit risk reasons and would not have been granted under comparable market conditions. Local definitions vary, while standard setting bodies such as the Basel Committe and IFRS have provided common standards. Indicator formula: Restructured loans ÷ Gross loans (stock measure). !- Limitations and considerations: Regulatory divergence: Some jurisdictions treat any concession as a restructuring; others exclude purely administrative changes, hampering cross-country comparisons. Forbearance episodes: Crisis-era moratoria or government-mandated payment holidays may inflate restructuring volumes temporarily, masking true borrower weakness. Portfolio mix effects: High-yield consumer portfolios often show higher restructuring rates than collateralised mortgages; segment analysis is essential.</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the incidence of loan write-offs among retail/MSME borrowers? How do these disparities shift when further disaggregated by age, income, loan size, and geographic location? Do women or other gender groups experience higher or lower write-off rates compared to men, and what factors might explain these patterns? When analyzed in relation to the gender diversity of financial service providers’ leadership or top management, is higher gender diversity associated with more equitable write-off rates across customer genders? What insights do gender-disaggregated write-off data provide about risk assessment, financial inclusion, and borrower resilience?</t>
+          <t>Are there gender disparities in the share of restructured loans within retail/MSME loan portfolios, and how do these differences vary by age, income levels, and geographic location? Are women or other gender groups more likely to have loans restructured, potentially reflecting differences in financial vulnerability or repayment capacity? How do patterns of loan restructuring differ across loan types and sectors by gender? Do financial service providers with greater gender diversity in their workforce or leadership demonstrate more equitable practices in loan restructuring across gender groups? What do gender-disaggregated data on restructured loans reveal about the resilience and support available to borrowers facing financial stress?</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -11609,7 +11619,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Outcomes, Suitability, Credit risk</t>
+          <t>Quality, Suitability</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -11626,7 +11636,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Credit risk, Soundness</t>
+          <t>Credit risk</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -11636,32 +11646,27 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>118</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Loan loss provisions</t>
+          <t>Large exposures</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>% of the outstanding loan portfolio set aside as provisions for expected credit losses</t>
+          <t>Large exposures as % of total capital</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Loan loss provisions (LLPs) are the expenses a lender records to cover expected credit losses on its loan portfolio. They represent management’s best estimate of future cash shortfalls arising from borrower defaults or deteriorating credit quality. Adequate provisioning is critical for portraying true earnings, maintaining solvency, and sustaining market confidence. Monitoring LLP trends alongside non-performing loan inflows, write-offs, and capital ratios provides a holistic view of a bank’s credit-risk resilience and earnings quality. Definitions &amp; concepts: Loan Loss Provision (expense) – the profit-and-loss charge that increases the Allowance for Expected Credit Losses (ECL) on the balance sheet. !- Data requirements: LLP expenses segmented by product, geography, collateral type. Total loan portfolio value.</t>
+          <t>Tracks a lender's credit exposures to single counterparties or groups that exceed a threshold (e.g., a % of capital) and ensures none breach the regulatory cap. !- Definitions and concepts: Exposure includes on- and off-balance-sheet items. !- Data requirements: Counterparty-level exposure data, eligible capital base.</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the provisioning level allocated to customers? When disaggregated by other demographics such as age and location, do the observed gender-based differences change? Do vulnerable customers tend to have loans with higher provisioning levels, and are there gender differences in these patterns? When analyzed in relation to the gender diversity of FSPs' top management, is a higher level of gender diversity associated with differences in provisioning levels? And how does this relationship compare when considering gender diversity across other staff levels?</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>Are higher levels of gender diversity at FSPs and in their customer base correlated with lower levels of large exposures in loan operations? How are large exposures distributed across different products, gender, and locations? Do large exposures show different delinquency and NPL levels based on gender?</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -11671,12 +11676,12 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Outcomes, Suitability, Credit risk, Soundness, Stability</t>
+          <t>Outcomes, Safety and security, Credit risk</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type; Loan size</t>
+          <t>Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11693,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Credit risk</t>
+          <t>Credit risk, Soundness</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -11698,32 +11703,42 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>262</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Physical risk in the credit portfolio</t>
+          <t>Write-offs ratio</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Exposure of the credit portfolio to customers/industries with high physical risk related to climate change</t>
+          <t>Volume and value of written off retail loans as a proportion of retail/MSME portfolio</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>This indicator quantifies how much of the loan book is exposed to climate-related physical risks, specifically. These risks materialize through direct damage to assets, disruptions in business operations, or negative impacts on local economies, all of which can lead to higher rates of loan defaults and losses for the lender. This indicator should complement the all-encompassing indicator that measures climate-related risks (both physical and transition risks). Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, including physical risks, while the NGFS provides a range of additional defintions, including nature-related financial risks.</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+          <t>The write-offs ratio tracks the portion of the retail loan portfolio that a lender permanently removes from its balance sheet within a period because collection is deemed impossible or uneconomic. It is a forward-looking credit-risk barometer: rising write-offs shrink the loan book, erode earnings through higher impairment charges, and may reveal weaknesses in underwriting or collections. Supervisors examine the indicator alongside NPL and provisioning coverage to judge whether lenders are recognising losses promptly or postponing them through restructurings. !- Definitions and concepts: Write-offs ratio is usually expressed as (Gross retail loan write-offs during period ÷ Average gross retail loans outstanding). Write-off: an accounting action that derecognises the unrecoverable portion of a loan’s amortised cost. It does not preclude further collections, which are recognised as recoveries. !- Limitations and considerations:  Timing disparities: Institutions with aggressive 180-day charge-off policies show higher ratios than peers that delay write-offs until legal exhaustion, complicating comparisons..</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Are there gender disparities in the incidence of loan write-offs among retail/MSME borrowers? How do these disparities shift when further disaggregated by age, income, loan size, and geographic location? Do women or other gender groups experience higher or lower write-off rates compared to men, and what factors might explain these patterns? When analyzed in relation to the gender diversity of financial service providers’ leadership or top management, is higher gender diversity associated with more equitable write-off rates across customer genders? What insights do gender-disaggregated write-off data provide about risk assessment, financial inclusion, and borrower resilience?</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Outcomes, Suitability, Credit risk</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Customer gender; Customer type; Financial service provider (FSP) type; Product type; Loan size; Loan term</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Credit type; Loan size; Loan term; Interest rate category</t>
         </is>
       </c>
     </row>
@@ -11735,42 +11750,57 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Liquidity risk</t>
+          <t>Credit risk, Soundness</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>263</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Liquidity ratio</t>
+          <t>Loan loss provisions</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Liquidity ratio</t>
+          <t>% of the outstanding loan portfolio set aside as provisions for expected credit losses</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>The liquidity ratio tests whether an entity holds enough high quality liquid assets to survive a 30-day stress scenario. !- Definitions and concepts: definition of liquidity ratios can vary across countries. The Basel Committee has provided definitions for the Liquidity Coverage Ratio and the Net Stable Funding, but many countries use simpler liquidity ratio definitions.</t>
+          <t>Loan loss provisions (LLPs) are the expenses a lender records to cover expected credit losses on its loan portfolio. They represent management’s best estimate of future cash shortfalls arising from borrower defaults or deteriorating credit quality. Adequate provisioning is critical for portraying true earnings, maintaining solvency, and sustaining market confidence. Monitoring LLP trends alongside non-performing loan inflows, write-offs, and capital ratios provides a holistic view of a bank’s credit-risk resilience and earnings quality. Definitions &amp; concepts: Loan Loss Provision (expense) – the profit-and-loss charge that increases the Allowance for Expected Credit Losses (ECL) on the balance sheet. !- Data requirements: LLP expenses segmented by product, geography, collateral type. Total loan portfolio value.</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>How are FSP gender diversity and the gender composition of the customer base correlated with liquidity risk?</t>
+          <t>Are there gender disparities in the provisioning level allocated to customers? When disaggregated by other demographics such as age and location, do the observed gender-based differences change? Do vulnerable customers tend to have loans with higher provisioning levels, and are there gender differences in these patterns? When analyzed in relation to the gender diversity of FSPs' top management, is a higher level of gender diversity associated with differences in provisioning levels? And how does this relationship compare when considering gender diversity across other staff levels?</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Outcomes, Suitability, Credit risk, Soundness, Stability</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer gender; Financial service provider (FSP) gender diversity; Customer type; Financial service provider (FSP) type; Product type; Loan size</t>
         </is>
       </c>
     </row>
@@ -11782,52 +11812,42 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Market risk</t>
+          <t>Credit risk</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Insurance, Pensions, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>125</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Value at Risk (VaR)</t>
+          <t>Physical risk in the credit portfolio</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Exposure to market risk (value volatility in the trading book)</t>
+          <t>Exposure of the credit portfolio to customers/industries with high physical risk related to climate change</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>VaR estimates the maximum potential trading-book loss over a specified horizon at a given confidence level (e.g., one-day 99%). It informs market risk limits and capital requirements for market risk. !- Definitions and concepts: market risk definition and standardized calculations vary across jurisdictions. Standards are provided by international standard setting bodies such as the Basel Committee.</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Is there a correlation between higher levels of gender diversity in FSPs and lower risk levels?</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>Statistics and research</t>
+          <t>This indicator quantifies how much of the loan book is exposed to climate-related physical risks, specifically. These risks materialize through direct damage to assets, disruptions in business operations, or negative impacts on local economies, all of which can lead to higher rates of loan defaults and losses for the lender. This indicator should complement the all-encompassing indicator that measures climate-related risks (both physical and transition risks). Definitions and concepts of climate-related risks vary across countries. The Basel Committee has defined climate-related financial risks, including physical risks, while the NGFS provides a range of additional defintions, including nature-related financial risks.</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>For analyses with a primary focus on financial inclusion, for this indicator it is recommended that only retail customers (i.e., natural persons) and/or financial products held by retail customers are considered. Where data permits, this indicator can be examined separately for MSMEs.</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer gender; Customer type; Financial service provider (FSP) type; Product type; Loan size; Loan term</t>
         </is>
       </c>
     </row>
@@ -11839,52 +11859,42 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Operational risk</t>
+          <t>Liquidity risk</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Payments, Savings</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Balance of suspense accounts</t>
+          <t>Liquidity ratio</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Value of balances of suspense accounts</t>
+          <t>Liquidity ratio</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Suspense accounts are temporary holding ledgers used when a transaction cannot be posted to its final customer account because critical details are missing or disputed or due to any technical issues. The balance of suspense accounts aggregates the outstanding debit or credit amounts awaiting resolution. Persistently high or growing balances signal weaknesses in reconciliation, client on-boarding, Know-Your-Customer (KYC) data quality, payment-processing controls, or even internal fraud. Ageing buckets: some regulators require ageing of reported balances (0-30, 31-90, 91-180, &gt;180 days) to identify balances that exceed tolerance windows. !- Limitations and considerations: Accounting practices vary: some institutions clear items by moving them to internal “parking” accounts that may not be labelled suspense, understating the indicator. Standardization is needed to ensure reporting of balances in similar accounts that are not labelled "suspense accounts". Regulatory treatment: in certain jurisdictions, long-dated unresolved credits are treated as unclaimed funds.</t>
+          <t>The liquidity ratio tests whether an entity holds enough high quality liquid assets to survive a 30-day stress scenario. !- Definitions and concepts: definition of liquidity ratios can vary across countries. The Basel Committee has provided definitions for the Liquidity Coverage Ratio and the Net Stable Funding, but many countries use simpler liquidity ratio definitions.</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Are there gender disparities in the average amount of funds in suspense accounts, including for low-income customers and MSMEs based on the ownership gender? Are there gender disparities in the distribution of low-income customers with suspense accounts (and for which types of accounts?) compared to the whole customer base? Comparing this indicator with failed transactions and customer losses (if available), are there gender disparities in financial losses after funds remain in suspense or temporary accounts, which could indicate potential internal frauds? Comparing this indicator with FSP gender diversity, does higher gender diversity correlate with lower amounts in suspense accounts or customer losses after funds are temporarily placed in suspense accounts?</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>Usage, Suitability</t>
+          <t>How are FSP gender diversity and the gender composition of the customer base correlated with liquidity risk?</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -11896,52 +11906,52 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Operational risk</t>
+          <t>Market risk</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Incomplete/failed transactions</t>
+          <t>Value at Risk (VaR)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>% of all initiated transactions that are incomplete or failed</t>
+          <t>Exposure to market risk (value volatility in the trading book)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Measures the percentage of transactions that users initiate but that do not successfully complete as intended. It's a metric for assessing the reliability, usability, and accessibility of a digital financial service. A high rate of incomplete or failed transactions points to a poor user experience, and may lead to financial loss if funds are temporarily held and not returned. A sudden spike in this indicator can be an early warning of technical problems, cybersecurity attacks, or capacity issues. Incomplete transactions: transactions that are started by the user but are never fully processed to a conclusion. They are often "timed out" or abandoned. Failed transactions: transactions that are fully processed by the system but are ultimately rejected. The system actively returns an error message confirming the failure.</t>
+          <t>VaR estimates the maximum potential trading-book loss over a specified horizon at a given confidence level (e.g., one-day 99%). It informs market risk limits and capital requirements for market risk. !- Definitions and concepts: market risk definition and standardized calculations vary across jurisdictions. Standards are provided by international standard setting bodies such as the Basel Committee.</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Do incomplete/failed transactions impact different genders differently, including low-income customers and MSMEs based on the ownership gender? Comparing this indicator with the amount of losses suffered by customers (if available), are there gender disparities in financial losses due to failed transactions? How does this indicator compare with indicators on values maintained in suspense accounts and their variation by gender? Do different types of FSPs and accounts perform differently across the gender in terms of failed transactions? Comparing this indicator with gender diversity, does higher gender diversity correlate with a lower prevalence of failed transactions?</t>
+          <t>Is there a correlation between higher levels of gender diversity in FSPs and lower risk levels?</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Financial inclusion; Consumer protection</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Usage, Suitability</t>
+          <t>Statistics and research</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Transaction type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -11958,163 +11968,163 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>Payments, Savings</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Balance of suspense accounts</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Value of balances of suspense accounts</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Suspense accounts are temporary holding ledgers used when a transaction cannot be posted to its final customer account because critical details are missing or disputed or due to any technical issues. The balance of suspense accounts aggregates the outstanding debit or credit amounts awaiting resolution. Persistently high or growing balances signal weaknesses in reconciliation, client on-boarding, Know-Your-Customer (KYC) data quality, payment-processing controls, or even internal fraud. Ageing buckets: some regulators require ageing of reported balances (0-30, 31-90, 91-180, &gt;180 days) to identify balances that exceed tolerance windows. !- Limitations and considerations: Accounting practices vary: some institutions clear items by moving them to internal “parking” accounts that may not be labelled suspense, understating the indicator. Standardization is needed to ensure reporting of balances in similar accounts that are not labelled "suspense accounts". Regulatory treatment: in certain jurisdictions, long-dated unresolved credits are treated as unclaimed funds.</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Are there gender disparities in the average amount of funds in suspense accounts, including for low-income customers and MSMEs based on the ownership gender? Are there gender disparities in the distribution of low-income customers with suspense accounts (and for which types of accounts?) compared to the whole customer base? Comparing this indicator with failed transactions and customer losses (if available), are there gender disparities in financial losses after funds remain in suspense or temporary accounts, which could indicate potential internal frauds? Comparing this indicator with FSP gender diversity, does higher gender diversity correlate with lower amounts in suspense accounts or customer losses after funds are temporarily placed in suspense accounts?</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Usage, Suitability</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Operational risk</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Incomplete/failed transactions</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>% of all initiated transactions that are incomplete or failed</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Measures the percentage of transactions that users initiate but that do not successfully complete as intended. It's a metric for assessing the reliability, usability, and accessibility of a digital financial service. A high rate of incomplete or failed transactions points to a poor user experience, and may lead to financial loss if funds are temporarily held and not returned. A sudden spike in this indicator can be an early warning of technical problems, cybersecurity attacks, or capacity issues. Incomplete transactions: transactions that are started by the user but are never fully processed to a conclusion. They are often "timed out" or abandoned. Failed transactions: transactions that are fully processed by the system but are ultimately rejected. The system actively returns an error message confirming the failure.</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Do incomplete/failed transactions impact different genders differently, including low-income customers and MSMEs based on the ownership gender? Comparing this indicator with the amount of losses suffered by customers (if available), are there gender disparities in financial losses due to failed transactions? How does this indicator compare with indicators on values maintained in suspense accounts and their variation by gender? Do different types of FSPs and accounts perform differently across the gender in terms of failed transactions? Comparing this indicator with gender diversity, does higher gender diversity correlate with a lower prevalence of failed transactions?</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>Usage, Suitability</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Transaction type</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Operational risk</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>Operational disruption incidents</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>Number of operational disruption incidents</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>This indicator counts and classifies events that interrupt an institution’s ability to deliver financial services—whether due to IT failures, cyber-attacks, power outages, third-party breakdowns, or physical events (e.g., fire, pandemic lockdowns). Regulators track both the frequency and severity (e.g., service-unavailable minutes, customers affected, monetary losses) to judge the resilience of regulated services. A rising trend can erode confidence and expose the system to contagion if multiple firms rely on the same outsourced providers or infrastructure.
 !- Definitions and concepts: Operational disruption incident: an unplanned event that prevents or materially degrades the delivery of a critical business service beyond a defined tolerance. Definitions, including of critical services, vary across countries. Standard setting bodies including the Basel Committee provide standardized definitions that can be used. 
 Impact metrics: duration, peak concurrent users affected, transaction backlog, financial loss, data-integrity impact, customer detriment, others. Root-cause categories: hardware/software failure, cyber-intrusion, third-party outage, human error, environmental event, others. !- Limitations and considerations: Firms may fear reputational damage so there is a risk of under-reporting. Heterogeneous critical-service definitions may be used across firm, so regulatory standardization is needed.</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>How are FSP gender diversity and gender composition of customer base correlated with the frequency of operational disruption incidents?</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>Quality, Data privacy and protection, Safety and security</t>
         </is>
       </c>
-      <c r="L204" t="inlineStr">
+      <c r="L206" t="inlineStr">
         <is>
           <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type; Transaction type</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Operational risk</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Successful cyber attacks</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Number of successful cyber attacks</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>A measure of the frequency of cyberattacks on regulated financial institutions over a specified period. !- Definitions and concepts: A cyberattack is any intentional effort to steal, expose, alter, disable, or destroy data, applications, or other assets through unauthorized access to a network, computer system or digital device. Cyberattacks can disrupt and damage businesses and often carry high costs, including the costs of discovering and responding to the violation, downtime and lost revenue, and the long-term reputational damage to a business and its brand. Data requirement: Self-reporting of the number of successful cyberattacks by FSPs or data from other parties that track the incidence and severity of cyberattacks.</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Are higher levels of gender diversity at FSPs correlated with the frequency of successful cyber attacks?</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>Outcomes, Safety and security</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type; Transaction type</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Soundness</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Cost of reinsurance</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Premiums ceded to reinsurers as % of gross premium written</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>The cost of reinsurance indicator quantifies the price an insurer pays to transfer part of its underwriting risk to reinsurers. Tracked as either an absolute expense or as a ratio—most often Reinsurance premium ceded ÷ Gross premiums written (GPW)—it shows how much earnings capacity the insurer surrenders for balance-sheet protection. Rising costs may stem from hardening global reinsurance markets, high catastrophe exposures, deteriorating loss experience or weakened credit quality of the insurer. Supervisors and rating agencies watch for excessive reliance on expensive reinsurance cover which can compress margins, while under-spending may leave the insurer over-exposed to shocks. Evaluated over time and in tandem with retention ratios, claims ratio and solvency coverage, the cost of reinsurance reveals whether an insurer’s risk transfer strategy is adequate. !- Definitions and concepts: Reinsurance premium ceded: contractual payments (net of commissions) made to reinsurers for proportional (quota-share, surplus) or non-proportional (excess-of-loss, stop-loss) treaties, booked at treaty inception. Net cost of reinsurance: ceded premium minus ceding commission plus profit-commission adjustments and reinstatement premiums. Timing mismatches: Premiums are typically paid up-front, while recoveries occur post-loss, so annual cost ratios can spike in growth years and dip after large events.</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>How do FSPs’ gender diversity and the gender composition of their customer base correlate with the costs incurred from reinsurance? Are there gendered patterns in how reinsurance expenses impact insurers and their customers?</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Consumer protection</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>Quality,Suitability</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
@@ -12126,37 +12136,37 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Soundness</t>
+          <t>Operational risk</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Insurance claims (loss) ratio</t>
+          <t>Successful cyber attacks</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>% of total premium income paid out as claims</t>
+          <t>Number of successful cyber attacks</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>The claims paid ratio compares the amount of benefits and claims an insurer actually disburses during a period with the premium income it records for the same portfolio. It answers a basic question for supervisors, policy-holders, and analysts: How much of each premium dollar flows back to customers in the form of claims? Persistently low ratios may flag overly aggressive pricing, onerous exclusions, or servicing bottlenecks, while very high ratios can foreshadow reserve inadequacy, under-pricing, or a spike in catastrophe losses. In combination with the expense ratio, the indicator feeds into the overall loss or combined ratio that underpins solvency and profitability assessments. !- Definitions and concepts: Claims paid: cash actually settled with policy-holders and claimants in the accounting period, including partial payments and salvage recoveries netted where local GAAP allows. It excludes outstanding claims reserves and IBNR, which are captured by “claims incurred.” Gross vs. net basis: gross claims ignore reinsurance recoveries; net claims deduct them, better reflecting the insurer’s retained risk. Segmented ratios (e.g., motor, health, property) pinpoint product-level profitability. !- Data requirements: Extracts from the claims-management system showing paid amounts, dates, line of business, and reinsurance cessions. Premium registers (written or earned, depending on supervisory preference) reconciled to the general ledger. Catastrophe tags, legal-settlement flags, and large-loss registers to isolate one-off distortions. Limitations &amp; considerations: Timing mismatch: annual premiums are often received up-front, whereas claim payments can lag; using earned premiums mitigates, but does not eliminate, this distortion. Claims-handling practices: delayed settlement or dispute escalation depresses the ratio without improving true risk experience. Reinsurance structure: quota-share vs. excess-of-loss treaties change the net ratio dramatically; analysts should review both gross and net perspectives. Regulatory definitions: some jurisdictions fold surrenders of savings-type contracts into claims, inflating comparability. Trend analysis should therefore pair the claims paid ratio with claims-incurred and reserve-adequacy metrics, catastrophe-loss disclosures, and expense dynamics to obtain a holistic view of underwriting performance and solvency resilience.</t>
+          <t>A measure of the frequency of cyberattacks on regulated financial institutions over a specified period. !- Definitions and concepts: A cyberattack is any intentional effort to steal, expose, alter, disable, or destroy data, applications, or other assets through unauthorized access to a network, computer system or digital device. Cyberattacks can disrupt and damage businesses and often carry high costs, including the costs of discovering and responding to the violation, downtime and lost revenue, and the long-term reputational damage to a business and its brand. Data requirement: Self-reporting of the number of successful cyberattacks by FSPs or data from other parties that track the incidence and severity of cyberattacks.</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Are there gender disparities in claims ratios for insurance products, including for MSMEs based on the owner's gender? Are excessively low claims ratios correlated with low premiums (a proxy for targeting lower-income segments)? Are women more likely to be targeted by products with low claims ratios, potentially indicating lower-value offerings? Are FSPs with higher levels of gender diversity less likely to have excessively low claims ratios for insurance sold to vulnerable segments, such as women and women-owned MSMEs? When comparing with coverage ratios (amount of claims paid relative to the claim value), how do gender disparities in coverage ratios compare with claims paid?</t>
+          <t>Are higher levels of gender diversity at FSPs correlated with the frequency of successful cyber attacks?</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -12166,12 +12176,12 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Usage, Suitability</t>
+          <t>Outcomes, Safety and security</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type; Transaction type</t>
         </is>
       </c>
     </row>
@@ -12193,27 +12203,27 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Insurance claims incurred</t>
+          <t>Cost of reinsurance</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Value of insurance claims incurred by the insurance sector</t>
+          <t>Premiums ceded to reinsurers as % of gross premium written</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>“Claims incurred” represents the total cost an insurer recognises for claims events during a reporting period, regardless of whether they have been paid yet. Tracking the level and trend of incurred claims helps supervisors monitor the financial health of insurers such as by detecting emerging risk clusters (e.g., climate-driven catastrophes). !- Definitions and concepts: Claims incurred = Claims paid + Change in outstanding claims reserves + Change in IBNR (incurred-but-not-reported) reserves ± Claims-handling expense reserve movements. !- Data requirements: Total claims incurred.  !- Limitations and considerations: Catastrophe volatility: Single severe events cause spikes. Used alongside premium growth, claims-ratio components, and reserve-adequacy studies, “claims incurred” provides a cornerstone view of underwriting performance and balance-sheet resilience.</t>
+          <t>The cost of reinsurance indicator quantifies the price an insurer pays to transfer part of its underwriting risk to reinsurers. Tracked as either an absolute expense or as a ratio—most often Reinsurance premium ceded ÷ Gross premiums written (GPW)—it shows how much earnings capacity the insurer surrenders for balance-sheet protection. Rising costs may stem from hardening global reinsurance markets, high catastrophe exposures, deteriorating loss experience or weakened credit quality of the insurer. Supervisors and rating agencies watch for excessive reliance on expensive reinsurance cover which can compress margins, while under-spending may leave the insurer over-exposed to shocks. Evaluated over time and in tandem with retention ratios, claims ratio and solvency coverage, the cost of reinsurance reveals whether an insurer’s risk transfer strategy is adequate. !- Definitions and concepts: Reinsurance premium ceded: contractual payments (net of commissions) made to reinsurers for proportional (quota-share, surplus) or non-proportional (excess-of-loss, stop-loss) treaties, booked at treaty inception. Net cost of reinsurance: ceded premium minus ceding commission plus profit-commission adjustments and reinstatement premiums. Timing mismatches: Premiums are typically paid up-front, while recoveries occur post-loss, so annual cost ratios can spike in growth years and dip after large events.</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>How has the participation of different genders in incurred insurance claims evolved over time, both for individuals and MSMEs by owner’s gender? Are there gender differences in the types of claims incurred? How does the level of gender diversity within FSPs relate to these patterns?</t>
+          <t>How do FSPs’ gender diversity and the gender composition of their customer base correlate with the costs incurred from reinsurance? Are there gendered patterns in how reinsurance expenses impact insurers and their customers?</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -12223,7 +12233,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Quality, Suitability</t>
+          <t>Quality,Suitability</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -12250,137 +12260,157 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Insurance claims (loss) ratio</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>% of total premium income paid out as claims</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>The claims paid ratio compares the amount of benefits and claims an insurer actually disburses during a period with the premium income it records for the same portfolio. It answers a basic question for supervisors, policy-holders, and analysts: How much of each premium dollar flows back to customers in the form of claims? Persistently low ratios may flag overly aggressive pricing, onerous exclusions, or servicing bottlenecks, while very high ratios can foreshadow reserve inadequacy, under-pricing, or a spike in catastrophe losses. In combination with the expense ratio, the indicator feeds into the overall loss or combined ratio that underpins solvency and profitability assessments. !- Definitions and concepts: Claims paid: cash actually settled with policy-holders and claimants in the accounting period, including partial payments and salvage recoveries netted where local GAAP allows. It excludes outstanding claims reserves and IBNR, which are captured by “claims incurred.” Gross vs. net basis: gross claims ignore reinsurance recoveries; net claims deduct them, better reflecting the insurer’s retained risk. Segmented ratios (e.g., motor, health, property) pinpoint product-level profitability. !- Data requirements: Extracts from the claims-management system showing paid amounts, dates, line of business, and reinsurance cessions. Premium registers (written or earned, depending on supervisory preference) reconciled to the general ledger. Catastrophe tags, legal-settlement flags, and large-loss registers to isolate one-off distortions. Limitations &amp; considerations: Timing mismatch: annual premiums are often received up-front, whereas claim payments can lag; using earned premiums mitigates, but does not eliminate, this distortion. Claims-handling practices: delayed settlement or dispute escalation depresses the ratio without improving true risk experience. Reinsurance structure: quota-share vs. excess-of-loss treaties change the net ratio dramatically; analysts should review both gross and net perspectives. Regulatory definitions: some jurisdictions fold surrenders of savings-type contracts into claims, inflating comparability. Trend analysis should therefore pair the claims paid ratio with claims-incurred and reserve-adequacy metrics, catastrophe-loss disclosures, and expense dynamics to obtain a holistic view of underwriting performance and solvency resilience.</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Are there gender disparities in claims ratios for insurance products, including for MSMEs based on the owner's gender? Are excessively low claims ratios correlated with low premiums (a proxy for targeting lower-income segments)? Are women more likely to be targeted by products with low claims ratios, potentially indicating lower-value offerings? Are FSPs with higher levels of gender diversity less likely to have excessively low claims ratios for insurance sold to vulnerable segments, such as women and women-owned MSMEs? When comparing with coverage ratios (amount of claims paid relative to the claim value), how do gender disparities in coverage ratios compare with claims paid?</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Usage, Suitability</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Soundness</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Insurance claims incurred</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Value of insurance claims incurred</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>“Claims incurred” represents the total cost an insurer recognises for claims events during a reporting period, regardless of whether they have been paid yet. Tracking the level and trend of incurred claims helps supervisors monitor the financial health of insurers such as by detecting emerging risk clusters (e.g., climate-driven catastrophes). !- Definitions and concepts: Claims incurred = Claims paid + Change in outstanding claims reserves + Change in IBNR (incurred-but-not-reported) reserves ± Claims-handling expense reserve movements. !- Data requirements: Total claims incurred.  !- Limitations and considerations: Catastrophe volatility: Single severe events cause spikes. Used alongside premium growth, claims-ratio components, and reserve-adequacy studies, “claims incurred” provides a cornerstone view of underwriting performance and balance-sheet resilience.</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>How has the participation of different genders in incurred insurance claims evolved over time, both for individuals and MSMEs by owner’s gender? Are there gender differences in the types of claims incurred? How does the level of gender diversity within FSPs relate to these patterns?</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Consumer protection</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>Quality, Suitability</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Soundness</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>Insurance policy renewal (persistency) ratio</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>% of all policies up for renewal that are renewed</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>The renewal- or persistency-ratio gauges the proportion of in-force insurance policies (or premium) that remain active after a specified period—typically the 13th, 25th, or 61st month following issuance. High persistency signals strong customer satisfaction, effective servicing, and accurate underwriting assumptions; it underpins stable cash-flow projections, lowers acquisition-cost amortisation strain, and enhances embedded value. Conversely, rapid lapses may expose product-design weaknesses or mis-selling. Supervisors review persistency alongside surrender-value payouts and complaint levels to detect conduct risk and solvency concerns. !- Definitions and concepts: Persistency ratio (policy-count basis) = Policies renewed at month t / Policies eligible for renewal at month t
 Premium-weighted persistency uses renewal premium divided by original premium to capture face-amount shifts. Cohort vs. calendar method: Cohort traces a single issue-year block through time; calendar aggregates all cohorts renewing in a given period. !- Limitations and considerations: Measurement horizon: 13-month persistency suits annual-premium life products; short-tailed general-insurance policies need annual or shorter retention ratios. Channel mix: Bancassurance and digital pathways often show different lapse behaviours—segment analysis is essential.</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Are there gender disparities in insurance policy renewal rates, including among MSMEs by owner gender? Do certain policy types have lower renewal rates among specific gender groups? Could these differences signal mismatches between products and customer needs, posing strategic risks for insurers?</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>Financial inclusion; Consumer protection</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>Quality, Suitability</t>
         </is>
       </c>
-      <c r="L209" t="inlineStr">
+      <c r="L211" t="inlineStr">
         <is>
           <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Soundness</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Risk retention ratio (dependency on reinsurance)</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>% of gross written premium that is net (as a measure of the level of dependency on reinsurance)</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Also known as the net retention ratio, this indicator shows the proportion of insurance risk an insurer keeps on its own balance sheet after ceding portions to reinsurers. It is usually expressed as Net premiums written ÷ Gross premiums written. A high ratio signals greater self-reliance (and potentially higher earnings volatility), while a low ratio points to heavy dependence on reinsurance, which may reduce earnings swings but create counter-party risks. Supervisors monitor the metric to ensure that ceded volumes are commensurate with the insurer’s capital strength, product mix, and risk appetite. !- Definitions and concepts: Gross premiums written (GPW): Total premium income before reinsurance ceded. Net premiums written (NPW): GPW minus premiums ceded plus reinsurance recoveries on ceded unearned premiums. !- Data requirements: Line-of-business breakdown of GPW and NPW for the period. Details of outward reinsurance treaties. Counter-party concentration: high concentration risk may offset the benefits of resinsurance.</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>What is the relationship between FSP gender diversity, customer gender composition, and the degree of dependency on reinsurance? Are there gender-based patterns in insurers’ risk retention strategies?</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Soundness</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Technical provisions</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Level of technical provisions to cover actuarial liabilities</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Technical provisions represent the present-value estimate of all future cash outflows that an insurer expects to incur on written policies, including claims not yet reported (IBNR), claims reported but not settled, and future policyholder benefits. Adequate provisions are the cornerstone of insurance solvency and a key indicator for prudential supervisors. Definitions &amp; concepts: Technical provisions comprise two main blocks: Best-Estimate Liabilities (BEL), the probability-weighted expected value of future cash flows (claims, benefits, expenses) discounted using risk-free or prescribed curves; and Risk Margins, an additional amount reflecting the cost of holding capital to run off the liabilities (Solvency II) or a prudential margin (IFRS 17, LAT).</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Are there gender disparities in the adequacy of technical provisions maintained by FSPs? How do FSPs with higher gender diversity in management and governance compare in maintaining technical provisions that fairly reflect risks associated with serving diverse gender groups? Are provisions sufficiently accounting for potential differences in claims or defaults related to gender segments in the portfolio?</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -12402,32 +12432,32 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Physical risk in the insurance portfolio</t>
+          <t>Risk retention ratio (dependency on reinsurance)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Exposure of the insurance portfolio to written policies to physical risk related to climate change</t>
+          <t>% of gross written premium that is net (as a measure of the level of dependency on reinsurance)</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Metric used to quantify an insurer's financial exposure to losses caused by the direct physical impacts of climate change. This includes both event-driven acute risks and longer-term chronic risks. This indicator is essential for measuring an insurer's vulnerability to climate-related claims, which can impact its profitability, solvency, and ability to provide affordable coverage. Hence, it is an important metric for prudential supervisors from the perspective of capital adequacy, solvency and risk management. Definitions and concepts of climate-related risks vary across countries. The NGFS provides a range of additional defintions, including nature-related financial risks.</t>
+          <t>Also known as the net retention ratio, this indicator shows the proportion of insurance risk an insurer keeps on its own balance sheet after ceding portions to reinsurers. It is usually expressed as Net premiums written ÷ Gross premiums written. A high ratio signals greater self-reliance (and potentially higher earnings volatility), while a low ratio points to heavy dependence on reinsurance, which may reduce earnings swings but create counter-party risks. Supervisors monitor the metric to ensure that ceded volumes are commensurate with the insurer’s capital strength, product mix, and risk appetite. !- Definitions and concepts: Gross premiums written (GPW): Total premium income before reinsurance ceded. Net premiums written (NPW): GPW minus premiums ceded plus reinsurance recoveries on ceded unearned premiums. !- Data requirements: Line-of-business breakdown of GPW and NPW for the period. Details of outward reinsurance treaties. Counter-party concentration: high concentration risk may offset the benefits of resinsurance.</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>How do FSP gender diversity and customer gender composition correlate with exposure to climate-related physical risks in insurance portfolios? Are there gender disparities in financial risk exposure due to climate impacts, including among MSMEs by owner gender?</t>
+          <t>What is the relationship between FSP gender diversity, customer gender composition, and the degree of dependency on reinsurance? Are there gender-based patterns in insurers’ risk retention strategies?</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
@@ -12444,32 +12474,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>115</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Capital adequacy ratio (CAR)</t>
+          <t>Technical provisions</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Total regulatory capital relative as % of risk weighted assets (RWAs)</t>
+          <t>Level of technical provisions to cover actuarial liabilities</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Capital Adequacy Rario (CAR) shows the total qualifying capital relative to risk-weighted assets (RWA). It captures the full loss-absorbing cushion. Definitions and concepts of capital tiers to include in the CAR formla are provided by the Basel Capital Accords and adapted in each jurisdiction. !- Data requirements: Full breakdown of regulatory capital components, and total RWA.</t>
+          <t>Technical provisions represent the present-value estimate of all future cash outflows that an insurer expects to incur on written policies, including claims not yet reported (IBNR), claims reported but not settled, and future policyholder benefits. Adequate provisions are the cornerstone of insurance solvency and a key indicator for prudential supervisors. Definitions &amp; concepts: Technical provisions comprise two main blocks: Best-Estimate Liabilities (BEL), the probability-weighted expected value of future cash flows (claims, benefits, expenses) discounted using risk-free or prescribed curves; and Risk Margins, an additional amount reflecting the cost of holding capital to run off the liabilities (Solvency II) or a prudential margin (IFRS 17, LAT).</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>How are FSP gender diversity and the gender composition of the customer base correlated with CAR levels?</t>
+          <t>Are there gender disparities in the adequacy of technical provisions maintained by FSPs? How do FSPs with higher gender diversity in management and governance compare in maintaining technical provisions that fairly reflect risks associated with serving diverse gender groups? Are provisions sufficiently accounting for potential differences in claims or defaults related to gender segments in the portfolio?</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -12491,37 +12521,37 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Tier 1 capital ratio</t>
+          <t>Physical risk in the insurance portfolio</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Tier 1 regulatory capital as % of risk weighted assets (RWAs)</t>
+          <t>Exposure of the insurance portfolio to written policies to physical risk related to climate change</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>The Tier 1 ratio shows the core loss-absorbing capital relative to risk-weighted assets (RWA). It is a cornerstone of the Basel Capital Accords and a trigger point for supervisory intervention. !- Definitions and concepts: Tier 1 capital comprises common equity tier 1 (CET1) plus additional tier 1 (perpetual, non-cumulative instruments). RWA adjust asset values for credit, market, and operational risk weights. Local definitions vary, but the Basel Committee has provided common standards.</t>
+          <t>Metric used to quantify an insurer's financial exposure to losses caused by the direct physical impacts of climate change. This includes both event-driven acute risks and longer-term chronic risks. This indicator is essential for measuring an insurer's vulnerability to climate-related claims, which can impact its profitability, solvency, and ability to provide affordable coverage. Hence, it is an important metric for prudential supervisors from the perspective of capital adequacy, solvency and risk management. Definitions and concepts of climate-related risks vary across countries. The NGFS provides a range of additional defintions, including nature-related financial risks.</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Do FSPs with greater gender diversity in leadership and customer base tend to maintain stronger Tier 1 capital ratios? Is there any evidence that gender-inclusive governance correlates with improved capital adequacy and financial resilience? How might gender-related risk factors influence the calculation or management of Tier 1 capital?</t>
+          <t>How do FSP gender diversity and customer gender composition correlate with exposure to climate-related physical risks in insurance portfolios? Are there gender disparities in financial risk exposure due to climate impacts, including among MSMEs by owner gender?</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -12538,47 +12568,37 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Investments</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>108</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Interest margin ratio</t>
+          <t>Capital adequacy ratio (CAR)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Net interest income as % of total earning assets</t>
+          <t>Total regulatory capital relative as % of risk weighted assets (RWAs)</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Also known as Net Interest Margin (NIM), is a metric that measures a lender's profitability by calculating difference between the interest it earns on its assets (like loans) and the interest it pays on liabilities, divided by the total earning assets. !- Definitions and concepts: NIM = (Net Interest income – Interest expense) ÷ Average earning assets. !- Data requirements: Total interest income, total interest expenses, total earning assets.</t>
+          <t>Capital Adequacy Rario (CAR) shows the total qualifying capital relative to risk-weighted assets (RWA). It captures the full loss-absorbing cushion. Definitions and concepts of capital tiers to include in the CAR formla are provided by the Basel Capital Accords and adapted in each jurisdiction. !- Data requirements: Full breakdown of regulatory capital components, and total RWA.</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Do financial service providers (FSPs) with higher gender diversity in leadership or governance report different interest margin ratios compared to less gender‑diverse peers? Are there associations between the gender composition of the customer base (e.g. share of women borrowers/depositors) and margin outcomes? Could gendered pricing—such as differential rates offered to male vs. female clients—impact FSP interest margins? Over time, do changes in margin ratios correlate with shifts in gender inclusion (e.g. more women customers or staff)?</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Consumer protection</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>Impact</t>
+          <t>How are FSP gender diversity and the gender composition of the customer base correlated with CAR levels?</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -12595,47 +12615,37 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Insurance premiums written</t>
+          <t>Tier 1 capital ratio</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Value of insurance premiums writen in the insurance sector</t>
+          <t>Tier 1 regulatory capital as % of risk weighted assets (RWAs)</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Premiums written represent the contractual revenue an insurer books when it underwrites new or renewal policies during a given period, irrespective of when coverage is provided or cash is received. Rising written-premium volumes can indicate growth, improved pricing power, or inflation-driven sum-assured increases; declining volumes may flag competitive pressures or tighter underwriting standards. !- Definitions and concepts: Gross premiums written (GPW): All premiums on policies incepted or renewed during the period before ceding to reinsurers. Net premiums written (NPW): GPW minus premiums ceded plus any reinsurance assumed—reflects the risk the insurer retains. Earned premiums: Portion of written premiums recognised as revenue in proportion to expired coverage—crucial for claims-ratio analysis. !- Data requirements: total premium written. For granular data: Policy-level underwriting feeds: issue/renewal dates, premium amounts, payment mode, product line, distribution channel, currency.</t>
+          <t>The Tier 1 ratio shows the core loss-absorbing capital relative to risk-weighted assets (RWA). It is a cornerstone of the Basel Capital Accords and a trigger point for supervisory intervention. !- Definitions and concepts: Tier 1 capital comprises common equity tier 1 (CET1) plus additional tier 1 (perpetual, non-cumulative instruments). RWA adjust asset values for credit, market, and operational risk weights. Local definitions vary, but the Basel Committee has provided common standards.</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>How do insurance premiums written vary by gender of the policyholder, including for individuals and MSMEs based on owner gender? Are there gender disparities in the types and values of insurance products purchased, reflected in premiums collected? Do women or other gender groups pay systematically higher or lower premiums, and what might this indicate about risk assessment or product suitability? How do FSPs with higher gender diversity compare in the total premiums written to different gender segments? Are trends in premiums written by gender evolving over time, and do these trends vary by product type or geographic region?</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Financial inclusion; Other</t>
-        </is>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>Outcomes, Statistics and research</t>
+          <t>Do FSPs with greater gender diversity in leadership and customer base tend to maintain stronger Tier 1 capital ratios? Is there any evidence that gender-inclusive governance correlates with improved capital adequacy and financial resilience? How might gender-related risk factors influence the calculation or management of Tier 1 capital?</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -12652,37 +12662,47 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Credit</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Efficiency ratio</t>
+          <t>Interest margin ratio</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Effciency ratio</t>
+          <t>Net interest income as % of total earning assets</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Indicates operating efficiency by comparing non-interest expenses to operating income. Lower ratios signal better cost control, a key driver of sustainable profitability, especially in low-margin environments. Definitions &amp; concepts – Efficiency Ratio = Operating expenses ÷ (Net interest income + Non-interest income). Some variants exclude litigation or restructuring charges. !- Data requirements: Detailed income statement with breakdowns of personnel, IT, and occupancy costs; segment reporting helps pinpoint inefficiencies. !- Limitations and considerations: Cost cuts that impair risk management or customer service may improve the ratio temporarily but raise long-run risks. Cross-country comparisons should adjust for labour cost levels and digitalisation stages. One-off income (e.g., asset sales) can distort the denominator.</t>
+          <t>Also known as Net Interest Margin (NIM), is a metric that measures a lender's profitability by calculating difference between the interest it earns on its assets (like loans) and the interest it pays on liabilities, divided by the total earning assets. !- Definitions and concepts: NIM = (Net Interest income – Interest expense) ÷ Average earning assets. !- Data requirements: Total interest income, total interest expenses, total earning assets.</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Are there gender-related differences in the efficiency of FSP operations, for example, in cost-to-income ratios? Do FSPs with more gender-diverse teams or client bases demonstrate better operational efficiency? How do gender dynamics in product design, customer service, and outreach impact overall institutional efficiency?</t>
+          <t>Do financial service providers (FSPs) with higher gender diversity in leadership or governance report different interest margin ratios compared to less gender‑diverse peers? Are there associations between the gender composition of the customer base (e.g. share of women borrowers/depositors) and margin outcomes? Could gendered pricing—such as differential rates offered to male vs. female clients—impact FSP interest margins? Over time, do changes in margin ratios correlate with shifts in gender inclusion (e.g. more women customers or staff)?</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Consumer protection</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Impact</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -12699,37 +12719,47 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Personnel expenses per customer/contract</t>
+          <t>Insurance premiums written</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Total personnel expenses per customer or contract</t>
+          <t>Value of insurance premiums writen in the insurance sector</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>This indicator measures the total cost of personnel (wages, salaries, benefits, etc.) divided by the total number of customers a financial service provider serves, revealing how much is spent on staff to support each individual customer. This metric helps assess a company's operational efficiency and cost-effectiveness in managing its customer base, with a lower figure typically indicating better efficiency.</t>
+          <t>Premiums written represent the contractual revenue an insurer books when it underwrites new or renewal policies during a given period, irrespective of when coverage is provided or cash is received. Rising written-premium volumes can indicate growth, improved pricing power, or inflation-driven sum-assured increases; declining volumes may flag competitive pressures or tighter underwriting standards. !- Definitions and concepts: Gross premiums written (GPW): All premiums on policies incepted or renewed during the period before ceding to reinsurers. Net premiums written (NPW): GPW minus premiums ceded plus any reinsurance assumed—reflects the risk the insurer retains. Earned premiums: Portion of written premiums recognised as revenue in proportion to expired coverage—crucial for claims-ratio analysis. !- Data requirements: total premium written. For granular data: Policy-level underwriting feeds: issue/renewal dates, premium amounts, payment mode, product line, distribution channel, currency.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Is there a gender dimension in personnel cost efficiency—that is, do FSPs with more balanced or female‑inclusive staff structures show lower personnel expenses per customer or contract? Are personnel expense ratios correlated with the gender composition of staff and how services are delivered to different gender groups? Do FSPs serving a higher proportion of women customers incur different per-customer personnel costs (e.g. due to agent outreach, financial literacy support)? How does this metric evolve over time in relation to efforts to promote gender inclusion in staffing and service models?</t>
+          <t>How do insurance premiums written vary by gender of the policyholder, including for individuals and MSMEs based on owner gender? Are there gender disparities in the types and values of insurance products purchased, reflected in premiums collected? Do women or other gender groups pay systematically higher or lower premiums, and what might this indicate about risk assessment or product suitability? How do FSPs with higher gender diversity compare in the total premiums written to different gender segments? Are trends in premiums written by gender evolving over time, and do these trends vary by product type or geographic region?</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Financial inclusion; Other</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Outcomes, Statistics and research</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
@@ -12751,32 +12781,32 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>112</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ROA</t>
+          <t>Efficiency ratio</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Return on assets</t>
+          <t>Effciency ratio</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>ROA gauges how efficiently a financial service provider turns every unit of assets under its control into net profit. !- Definitions and concepts: ROA = Net income after tax ÷ Average total assets (opening + closing assets ÷ 2). !- Data requirements: net income and total assets at two balance-sheet dates, preferably quarterly to smooth seasonality. !- Limitations and considerations: ROA ignores off-balance-sheet exposures such as guarantees or derivatives.</t>
+          <t>Indicates operating efficiency by comparing non-interest expenses to operating income. Lower ratios signal better cost control, a key driver of sustainable profitability, especially in low-margin environments. Definitions &amp; concepts – Efficiency Ratio = Operating expenses ÷ (Net interest income + Non-interest income). Some variants exclude litigation or restructuring charges. !- Data requirements: Detailed income statement with breakdowns of personnel, IT, and occupancy costs; segment reporting helps pinpoint inefficiencies. !- Limitations and considerations: Cost cuts that impair risk management or customer service may improve the ratio temporarily but raise long-run risks. Cross-country comparisons should adjust for labour cost levels and digitalisation stages. One-off income (e.g., asset sales) can distort the denominator.</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Do FSPs with greater gender diversity in their workforce, management, or boards tend to achieve higher or more stable ROA? Is there evidence that the gender composition of the customer base (e.g. more female clients) affects asset returns, for instance through differences in risk, lending, or deposit behaviors? When comparing across FSPs, does ROA differ systematically in institutions with stronger gender inclusion strategies? How have ROA trends shifted over time relative to changes in gender diversity (staffing or customer composition)?</t>
+          <t>Are there gender-related differences in the efficiency of FSP operations, for example, in cost-to-income ratios? Do FSPs with more gender-diverse teams or client bases demonstrate better operational efficiency? How do gender dynamics in product design, customer service, and outreach impact overall institutional efficiency?</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Financial service provider (FSP) gender diversity; Financial service provider (FSP) type</t>
         </is>
       </c>
     </row>
@@ -12798,42 +12828,32 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>123</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ROE</t>
+          <t>Personnel expenses per customer/contract</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Return on equity</t>
+          <t>Total personnel expenses per customer or contract</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>ROE indicates the earnings available to common shareholders per unit of book equity. !- Definitions and concepts: ROE = Net income ÷ Average shareholders’ equity. !- Data requirements: Consolidated net income and shareholders’ equity.</t>
+          <t>This indicator measures the total cost of personnel (wages, salaries, benefits, etc.) divided by the total number of customers a financial service provider serves, revealing how much is spent on staff to support each individual customer. This metric helps assess a company's operational efficiency and cost-effectiveness in managing its customer base, with a lower figure typically indicating better efficiency.</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Is there a relationship between gender diversity in leadership or equity ownership and ROE performance across FSPs? Are FSPs that prioritize gender inclusion more likely to achieve higher equity returns, possibly through broader market reach or more balanced risk management? How does the gender mix of customers, especially depositors and borrowers, relate to ROE outcomes? Over time, do improvements in gender inclusion (in staffing or customer base) precede or follow changes in ROE?</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Other; Consumer protection; Stability, safety and soundness</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>Statistics and research, Impact, Credit risk</t>
+          <t>Is there a gender dimension in personnel cost efficiency—that is, do FSPs with more balanced or female‑inclusive staff structures show lower personnel expenses per customer or contract? Are personnel expense ratios correlated with the gender composition of staff and how services are delivered to different gender groups? Do FSPs serving a higher proportion of women customers incur different per-customer personnel costs (e.g. due to agent outreach, financial literacy support)? How does this metric evolve over time in relation to efforts to promote gender inclusion in staffing and service models?</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
         </is>
       </c>
     </row>
@@ -12845,52 +12865,42 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Credit risk</t>
+          <t>Soundness</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Credit</t>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Financial system credit operations</t>
+          <t>ROA</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Volume and value of credit operations in the total financial sector portfolio</t>
+          <t>Return on assets</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>This indicator captures the breadth of formal lending with two perspectives: the number of credit contracts (volume) and their aggregate outstanding balance (value) across all regulated lenders. Tracking it offers a panoramic view of credit provision, enabling supervisors to (i) gauge financial deepening, (ii) assess systemic leverage of the banking sector, (iii) monitor shifts in portfolio composition (e.g., rise of consumer or MSME lending), and (iv) feed macro-prudential stress tests and monetary policy models. Sharp expansions may indicate rapid financial inclusion or overheating; contractions can herald credit crunches that dampen growth. !- Definitions and concepts: Credit operation – any legally binding loan, line of credit, hire-purchase, lease, or other. Off-balance-sheet commitments (e.g., undrawn credit lines, guarantees) are usually excluded or reported separately. Volume (count): unique credit contracts outstanding at the reporting date; renewals/extensions count as new operations if a fresh contract is signed. Segmentation by sector (household, corporate, government), product type, currency, and residual maturity enriches analysis. !- Data requirements: Supervisory returns or call-reports detailing credit operations contract count by institution and product. Standardised product and sector taxononies to avoid double counting.</t>
+          <t>ROA gauges how efficiently a financial service provider turns every unit of assets under its control into net profit. !- Definitions and concepts: ROA = Net income after tax ÷ Average total assets (opening + closing assets ÷ 2). !- Data requirements: net income and total assets at two balance-sheet dates, preferably quarterly to smooth seasonality. !- Limitations and considerations: ROA ignores off-balance-sheet exposures such as guarantees or derivatives.</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>How does the gender composition of borrowers in the total financial sector credit portfolio compare across the number and value of outstanding credit operations? Are there gender disparities in both the frequency (number) of credit operations and the total credit amounts extended? How do these disparities vary by loan type, sector, or borrower demographics such as age, income, and location? Are women or other gender groups underrepresented in certain types of credit or regions within the overall portfolio? How do FSPs with higher levels of gender diversity compare in terms of the balance and number of credit operations granted to different genders? Are portfolios with more balanced gender representation associated with differences in credit performance, such as lower default rates or more stable repayment patterns?</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Financial inclusion</t>
-        </is>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>Usage</t>
+          <t>Do FSPs with greater gender diversity in their workforce, management, or boards tend to achieve higher or more stable ROA? Is there evidence that the gender composition of the customer base (e.g. more female clients) affects asset returns, for instance through differences in risk, lending, or deposit behaviors? When comparing across FSPs, does ROA differ systematically in institutions with stronger gender inclusion strategies? How have ROA trends shifted over time relative to changes in gender diversity (staffing or customer composition)?</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
       </c>
     </row>
@@ -12902,41 +12912,155 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
+          <t>Soundness</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Payments, Savings, Credit, Insurance, Pensions, Investments</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Return on equity</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>ROE indicates the earnings available to common shareholders per unit of book equity. !- Definitions and concepts: ROE = Net income ÷ Average shareholders’ equity. !- Data requirements: Consolidated net income and shareholders’ equity.</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Is there a relationship between gender diversity in leadership or equity ownership and ROE performance across FSPs? Are FSPs that prioritize gender inclusion more likely to achieve higher equity returns, possibly through broader market reach or more balanced risk management? How does the gender mix of customers, especially depositors and borrowers, relate to ROE outcomes? Over time, do improvements in gender inclusion (in staffing or customer base) precede or follow changes in ROE?</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Other; Consumer protection; Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Statistics and research, Impact, Credit risk</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Credit risk</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Financial system credit operations</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Volume and value of credit operations in the total financial sector portfolio</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>This indicator captures the breadth of formal lending with two perspectives: the number of credit contracts (volume) and their aggregate outstanding balance (value) across all regulated lenders. Tracking it offers a panoramic view of credit provision, enabling supervisors to (i) gauge financial deepening, (ii) assess systemic leverage of the banking sector, (iii) monitor shifts in portfolio composition (e.g., rise of consumer or MSME lending), and (iv) feed macro-prudential stress tests and monetary policy models. Sharp expansions may indicate rapid financial inclusion or overheating; contractions can herald credit crunches that dampen growth. !- Definitions and concepts: Credit operation – any legally binding loan, line of credit, hire-purchase, lease, or other. Off-balance-sheet commitments (e.g., undrawn credit lines, guarantees) are usually excluded or reported separately. Volume (count): unique credit contracts outstanding at the reporting date; renewals/extensions count as new operations if a fresh contract is signed. Segmentation by sector (household, corporate, government), product type, currency, and residual maturity enriches analysis. !- Data requirements: Supervisory returns or call-reports detailing credit operations contract count by institution and product. Standardised product and sector taxononies to avoid double counting.</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>How does the gender composition of borrowers in the total financial sector credit portfolio compare across the number and value of outstanding credit operations? Are there gender disparities in both the frequency (number) of credit operations and the total credit amounts extended? How do these disparities vary by loan type, sector, or borrower demographics such as age, income, and location? Are women or other gender groups underrepresented in certain types of credit or regions within the overall portfolio? How do FSPs with higher levels of gender diversity compare in terms of the balance and number of credit operations granted to different genders? Are portfolios with more balanced gender representation associated with differences in credit performance, such as lower default rates or more stable repayment patterns?</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Financial inclusion</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Customer type; Customer gender; Customer age; Customer location; Customer income category; Financial service provider (FSP) type; Financial service provider (FSP) main activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Stability, safety and soundness</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>Liquidity risk</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Savings</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>Deposit stability/volatility</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>Stability/volatility of retail deposits (deposit stickness, deposit stability, deposit flows)</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>The deposit stability (or deposit-volatility) indicator assesses how predictable an FSP's funding base is by tracking the fluctuation and “stickiness” of customer deposits over time. Sudden, correlated outflows—whether triggered by market rumours, rate competition or digital bank runs—can force a bank to liquidate assets at fire-sale prices or draw on emergency facilities. Prudential supervisors monitor deposit volatility alongside liquidity ratios to judge an institution’s ability to withstand funding shocks and to calibrate run-off assumptions in stress tests and the Liquidity Coverage Ratio (LCR). Definitions &amp; concepts: Core / stable deposits: retail balances judged unlikely to flee under stress; often defined by balance size, relationship depth, and whether the account is transactional rather than rate-sensitive. Volatility metrics: standard deviation of daily balances divided by the mean (coefficient of variation), maximum one-day net outflow over a look-back window, or elasticity (beta) to market rates. Calculation methods vary across countries. !- Data requirements: High-frequency (daily or intraday) deposit-balance time series, tagged by customer type, product, and currency. Interest-rate history to estimate betas. Customer identifiers for relationship tenure, cross-selling, and concentration analysis. 
 Digital channel dynamics: mobile app withdrawals can accelerate run speed beyond historical norms; backward-looking volatility measures may understate future risk.</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>Are there gender disparities in deposit stability or volatility, and do accounts held by different gender groups show distinct patterns in the frequency or magnitude of balance fluctuations? Could these differences reflect varying income regularity, saving habits, or financial resilience? How do these patterns vary across age, income level, or geographic location? Are there notable differences in deposit stability between FSPs with higher or lower levels of gender diversity in their customer base? Do FSPs with greater gender diversity among their clients tend to experience greater deposit stickiness overall?</t>
         </is>
       </c>
-      <c r="L222" t="inlineStr">
+      <c r="L224" t="inlineStr">
         <is>
           <t>Financial service provider (FSP) type; Financial service provider (FSP) main activity; Insurance type</t>
         </is>
